--- a/zib2017-2020/all-translations.xlsx
+++ b/zib2017-2020/all-translations.xlsx
@@ -10399,6 +10399,9 @@
       <c r="H123" t="s">
         <v>1387</v>
       </c>
+      <c r="I123" t="s">
+        <v>1633</v>
+      </c>
       <c r="J123" t="s">
         <v>1779</v>
       </c>
@@ -10494,9 +10497,6 @@
       </c>
       <c r="H126" t="s">
         <v>1389</v>
-      </c>
-      <c r="I126" t="s">
-        <v>1633</v>
       </c>
       <c r="K126" t="s">
         <v>1897</v>

--- a/zib2017-2020/all-translations.xlsx
+++ b/zib2017-2020/all-translations.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcd\Dropbox\development\Zibtranslate\zib2017-2020\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A39D37D8-B20C-4791-847E-416D9BB57E77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -13,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">translations!$A$1:$O$822</definedName>
   </definedNames>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -5004,7 +5010,7 @@
     <t>ZIB-936</t>
   </si>
   <si>
-    <t xml:space="preserve">ZIB-926 </t>
+    <t>ZIB-926 </t>
   </si>
   <si>
     <t>ZIB-1110 ; ZIB-1156</t>
@@ -5151,10 +5157,10 @@
     <t>ZIB-705</t>
   </si>
   <si>
-    <t xml:space="preserve">ZIB-689 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZIB-1133 </t>
+    <t>ZIB-689 </t>
+  </si>
+  <si>
+    <t>ZIB-1133 </t>
   </si>
   <si>
     <t>ZIB-1110 ; ZIB-661 ; ZIB-987 ; ZIB-1133 ; ZIB-1175 ; ZIB-624 ; ZIB-1477</t>
@@ -5184,7 +5190,7 @@
     <t>ZIB-718</t>
   </si>
   <si>
-    <t xml:space="preserve">ZIB-930 </t>
+    <t>ZIB-930 </t>
   </si>
   <si>
     <t>ZIB-931</t>
@@ -5505,7 +5511,7 @@
     <t>In engelse vertaling overal Farmaceutical vervangen door Pharmaceutical (7X)</t>
   </si>
   <si>
-    <t xml:space="preserve">DCM::DefinitionCodes van de medicatie zibs gelijk getrokken aan de wijzigingen reeds doorgevoerd in MedicatieProces(MP). </t>
+    <t>DCM::DefinitionCodes van de medicatie zibs gelijk getrokken aan de wijzigingen reeds doorgevoerd in MedicatieProces(MP). </t>
   </si>
   <si>
     <t>DefinitionCode toegevoegd aan concept
@@ -6776,8 +6782,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6794,12 +6800,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -6829,11 +6841,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6842,7 +6855,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA003"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6856,26 +6876,27 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFA003"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -6913,7 +6934,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -6947,6 +6968,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -6981,9 +7003,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -7156,14 +7179,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:2">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -7174,17 +7197,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:O822"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="K128" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="O128" sqref="O128"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.7109375" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
@@ -7193,7 +7217,7 @@
     <col min="7" max="15" width="40.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -7240,7 +7264,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -7281,7 +7305,7 @@
         <v>2079</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -7301,7 +7325,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -7321,7 +7345,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -7341,7 +7365,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -7361,7 +7385,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -7387,7 +7411,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -7413,7 +7437,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -7439,7 +7463,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -7459,7 +7483,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -7479,7 +7503,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -7499,7 +7523,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -7540,7 +7564,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -7566,7 +7590,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -7589,7 +7613,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -7612,7 +7636,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -7635,7 +7659,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -7658,7 +7682,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -7687,7 +7711,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -7710,7 +7734,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -7733,7 +7757,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -7780,7 +7804,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -7821,7 +7845,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>17</v>
       </c>
@@ -7844,7 +7868,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>17</v>
       </c>
@@ -7873,7 +7897,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>17</v>
       </c>
@@ -7896,7 +7920,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>17</v>
       </c>
@@ -7919,7 +7943,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>18</v>
       </c>
@@ -7942,7 +7966,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>18</v>
       </c>
@@ -7989,7 +8013,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>18</v>
       </c>
@@ -8012,7 +8036,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>18</v>
       </c>
@@ -8035,7 +8059,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>18</v>
       </c>
@@ -8058,7 +8082,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>18</v>
       </c>
@@ -8081,7 +8105,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>19</v>
       </c>
@@ -8116,7 +8140,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>19</v>
       </c>
@@ -8139,7 +8163,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>19</v>
       </c>
@@ -8174,7 +8198,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>19</v>
       </c>
@@ -8215,7 +8239,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>19</v>
       </c>
@@ -8262,7 +8286,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>19</v>
       </c>
@@ -8285,7 +8309,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="40" spans="1:15">
+    <row r="40" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>19</v>
       </c>
@@ -8314,7 +8338,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>19</v>
       </c>
@@ -8352,7 +8376,7 @@
         <v>2082</v>
       </c>
     </row>
-    <row r="42" spans="1:15">
+    <row r="42" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>19</v>
       </c>
@@ -8390,7 +8414,7 @@
         <v>2082</v>
       </c>
     </row>
-    <row r="43" spans="1:15">
+    <row r="43" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>20</v>
       </c>
@@ -8401,7 +8425,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="44" spans="1:15">
+    <row r="44" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>21</v>
       </c>
@@ -8424,7 +8448,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="45" spans="1:15">
+    <row r="45" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>21</v>
       </c>
@@ -8471,7 +8495,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="46" spans="1:15">
+    <row r="46" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>21</v>
       </c>
@@ -8500,7 +8524,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="47" spans="1:15">
+    <row r="47" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>21</v>
       </c>
@@ -8529,7 +8553,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="48" spans="1:15">
+    <row r="48" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>21</v>
       </c>
@@ -8552,7 +8576,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="49" spans="1:15">
+    <row r="49" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>21</v>
       </c>
@@ -8581,7 +8605,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="50" spans="1:15">
+    <row r="50" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>21</v>
       </c>
@@ -8604,7 +8628,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="51" spans="1:15">
+    <row r="51" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>21</v>
       </c>
@@ -8627,7 +8651,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="52" spans="1:15">
+    <row r="52" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>21</v>
       </c>
@@ -8650,7 +8674,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="53" spans="1:15">
+    <row r="53" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>21</v>
       </c>
@@ -8697,7 +8721,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="54" spans="1:15">
+    <row r="54" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>21</v>
       </c>
@@ -8744,7 +8768,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="55" spans="1:15">
+    <row r="55" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>21</v>
       </c>
@@ -8767,7 +8791,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="56" spans="1:15">
+    <row r="56" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>21</v>
       </c>
@@ -8796,7 +8820,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="57" spans="1:15">
+    <row r="57" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>21</v>
       </c>
@@ -8825,7 +8849,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="58" spans="1:15">
+    <row r="58" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>21</v>
       </c>
@@ -8848,7 +8872,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="59" spans="1:15">
+    <row r="59" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>22</v>
       </c>
@@ -8859,7 +8883,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="60" spans="1:15">
+    <row r="60" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>23</v>
       </c>
@@ -8879,7 +8903,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="61" spans="1:15">
+    <row r="61" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>23</v>
       </c>
@@ -8914,7 +8938,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="62" spans="1:15">
+    <row r="62" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>23</v>
       </c>
@@ -8934,7 +8958,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="63" spans="1:15">
+    <row r="63" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>23</v>
       </c>
@@ -8954,7 +8978,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="64" spans="1:15">
+    <row r="64" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>23</v>
       </c>
@@ -8974,7 +8998,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>23</v>
       </c>
@@ -8994,7 +9018,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>23</v>
       </c>
@@ -9014,7 +9038,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>23</v>
       </c>
@@ -9034,7 +9058,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>23</v>
       </c>
@@ -9054,7 +9078,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>24</v>
       </c>
@@ -9074,7 +9098,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>24</v>
       </c>
@@ -9094,7 +9118,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>24</v>
       </c>
@@ -9120,7 +9144,7 @@
         <v>1374</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>24</v>
       </c>
@@ -9146,7 +9170,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>24</v>
       </c>
@@ -9172,7 +9196,7 @@
         <v>1376</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>24</v>
       </c>
@@ -9198,7 +9222,7 @@
         <v>1377</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>24</v>
       </c>
@@ -9224,7 +9248,7 @@
         <v>1378</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>24</v>
       </c>
@@ -9250,7 +9274,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>24</v>
       </c>
@@ -9276,7 +9300,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>24</v>
       </c>
@@ -9302,7 +9326,7 @@
         <v>1381</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>24</v>
       </c>
@@ -9328,7 +9352,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>24</v>
       </c>
@@ -9354,7 +9378,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="81" spans="1:15">
+    <row r="81" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>25</v>
       </c>
@@ -9365,7 +9389,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="82" spans="1:15">
+    <row r="82" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>26</v>
       </c>
@@ -9376,7 +9400,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="83" spans="1:15">
+    <row r="83" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>27</v>
       </c>
@@ -9387,7 +9411,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="84" spans="1:15">
+    <row r="84" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>28</v>
       </c>
@@ -9407,7 +9431,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="85" spans="1:15">
+    <row r="85" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>28</v>
       </c>
@@ -9445,7 +9469,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="86" spans="1:15">
+    <row r="86" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>28</v>
       </c>
@@ -9465,7 +9489,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="87" spans="1:15">
+    <row r="87" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>28</v>
       </c>
@@ -9485,7 +9509,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="88" spans="1:15">
+    <row r="88" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>28</v>
       </c>
@@ -9526,7 +9550,7 @@
         <v>2083</v>
       </c>
     </row>
-    <row r="89" spans="1:15">
+    <row r="89" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>29</v>
       </c>
@@ -9561,7 +9585,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="90" spans="1:15">
+    <row r="90" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>29</v>
       </c>
@@ -9581,7 +9605,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="91" spans="1:15">
+    <row r="91" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>29</v>
       </c>
@@ -9601,7 +9625,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="92" spans="1:15">
+    <row r="92" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>29</v>
       </c>
@@ -9636,7 +9660,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="93" spans="1:15">
+    <row r="93" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>30</v>
       </c>
@@ -9659,7 +9683,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="94" spans="1:15">
+    <row r="94" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>30</v>
       </c>
@@ -9694,7 +9718,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="95" spans="1:15">
+    <row r="95" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>30</v>
       </c>
@@ -9717,7 +9741,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="96" spans="1:15">
+    <row r="96" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>30</v>
       </c>
@@ -9740,7 +9764,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="97" spans="1:15">
+    <row r="97" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>30</v>
       </c>
@@ -9763,7 +9787,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="98" spans="1:15">
+    <row r="98" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>30</v>
       </c>
@@ -9786,7 +9810,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="99" spans="1:15">
+    <row r="99" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>30</v>
       </c>
@@ -9809,7 +9833,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="100" spans="1:15">
+    <row r="100" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>30</v>
       </c>
@@ -9832,7 +9856,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="101" spans="1:15">
+    <row r="101" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>30</v>
       </c>
@@ -9855,7 +9879,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="102" spans="1:15">
+    <row r="102" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>30</v>
       </c>
@@ -9878,7 +9902,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="103" spans="1:15">
+    <row r="103" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>30</v>
       </c>
@@ -9901,7 +9925,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="104" spans="1:15">
+    <row r="104" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>30</v>
       </c>
@@ -9924,7 +9948,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="105" spans="1:15">
+    <row r="105" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>30</v>
       </c>
@@ -9947,7 +9971,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="106" spans="1:15">
+    <row r="106" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>30</v>
       </c>
@@ -9970,7 +9994,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="107" spans="1:15">
+    <row r="107" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>30</v>
       </c>
@@ -9999,7 +10023,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="108" spans="1:15">
+    <row r="108" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>30</v>
       </c>
@@ -10022,7 +10046,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="109" spans="1:15">
+    <row r="109" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>30</v>
       </c>
@@ -10045,7 +10069,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="110" spans="1:15">
+    <row r="110" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>31</v>
       </c>
@@ -10086,7 +10110,7 @@
         <v>2084</v>
       </c>
     </row>
-    <row r="111" spans="1:15">
+    <row r="111" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>31</v>
       </c>
@@ -10112,7 +10136,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="112" spans="1:15">
+    <row r="112" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>31</v>
       </c>
@@ -10132,7 +10156,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="113" spans="1:15">
+    <row r="113" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>31</v>
       </c>
@@ -10158,7 +10182,7 @@
         <v>1386</v>
       </c>
     </row>
-    <row r="114" spans="1:15">
+    <row r="114" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>31</v>
       </c>
@@ -10178,7 +10202,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="115" spans="1:15">
+    <row r="115" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>31</v>
       </c>
@@ -10198,7 +10222,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="116" spans="1:15">
+    <row r="116" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>31</v>
       </c>
@@ -10218,7 +10242,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="117" spans="1:15">
+    <row r="117" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>32</v>
       </c>
@@ -10259,7 +10283,7 @@
         <v>2085</v>
       </c>
     </row>
-    <row r="118" spans="1:15">
+    <row r="118" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>32</v>
       </c>
@@ -10282,7 +10306,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="119" spans="1:15">
+    <row r="119" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>32</v>
       </c>
@@ -10305,7 +10329,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="120" spans="1:15">
+    <row r="120" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>32</v>
       </c>
@@ -10328,7 +10352,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="121" spans="1:15">
+    <row r="121" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>32</v>
       </c>
@@ -10351,7 +10375,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="122" spans="1:15">
+    <row r="122" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>32</v>
       </c>
@@ -10374,8 +10398,8 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="123" spans="1:15">
-      <c r="A123" t="s">
+    <row r="123" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B123" t="s">
@@ -10421,7 +10445,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="124" spans="1:15">
+    <row r="124" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>32</v>
       </c>
@@ -10444,7 +10468,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="125" spans="1:15">
+    <row r="125" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>32</v>
       </c>
@@ -10473,7 +10497,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="126" spans="1:15">
+    <row r="126" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>32</v>
       </c>
@@ -10502,7 +10526,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="127" spans="1:15">
+    <row r="127" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>32</v>
       </c>
@@ -10525,8 +10549,8 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="128" spans="1:15">
-      <c r="A128" t="s">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A128" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B128" t="s">
@@ -10548,7 +10572,7 @@
         <v>2086</v>
       </c>
     </row>
-    <row r="129" spans="1:15">
+    <row r="129" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>33</v>
       </c>
@@ -10574,7 +10598,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="130" spans="1:15">
+    <row r="130" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>33</v>
       </c>
@@ -10594,7 +10618,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="131" spans="1:15">
+    <row r="131" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>33</v>
       </c>
@@ -10641,7 +10665,7 @@
         <v>2087</v>
       </c>
     </row>
-    <row r="132" spans="1:15">
+    <row r="132" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>33</v>
       </c>
@@ -10661,7 +10685,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="133" spans="1:15">
+    <row r="133" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>33</v>
       </c>
@@ -10681,7 +10705,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="134" spans="1:15">
+    <row r="134" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>33</v>
       </c>
@@ -10701,7 +10725,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="135" spans="1:15">
+    <row r="135" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>33</v>
       </c>
@@ -10742,7 +10766,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="136" spans="1:15">
+    <row r="136" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>33</v>
       </c>
@@ -10789,7 +10813,7 @@
         <v>2088</v>
       </c>
     </row>
-    <row r="137" spans="1:15">
+    <row r="137" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>33</v>
       </c>
@@ -10824,7 +10848,7 @@
         <v>1913</v>
       </c>
     </row>
-    <row r="138" spans="1:15">
+    <row r="138" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>34</v>
       </c>
@@ -10859,7 +10883,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="139" spans="1:15">
+    <row r="139" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>34</v>
       </c>
@@ -10882,7 +10906,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="140" spans="1:15">
+    <row r="140" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>34</v>
       </c>
@@ -10929,7 +10953,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="141" spans="1:15">
+    <row r="141" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>35</v>
       </c>
@@ -10970,7 +10994,7 @@
         <v>2089</v>
       </c>
     </row>
-    <row r="142" spans="1:15">
+    <row r="142" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>35</v>
       </c>
@@ -11011,7 +11035,7 @@
         <v>2090</v>
       </c>
     </row>
-    <row r="143" spans="1:15">
+    <row r="143" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>35</v>
       </c>
@@ -11052,7 +11076,7 @@
         <v>2091</v>
       </c>
     </row>
-    <row r="144" spans="1:15">
+    <row r="144" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>35</v>
       </c>
@@ -11093,7 +11117,7 @@
         <v>2092</v>
       </c>
     </row>
-    <row r="145" spans="1:15">
+    <row r="145" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>35</v>
       </c>
@@ -11134,7 +11158,7 @@
         <v>2093</v>
       </c>
     </row>
-    <row r="146" spans="1:15">
+    <row r="146" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>35</v>
       </c>
@@ -11175,7 +11199,7 @@
         <v>2094</v>
       </c>
     </row>
-    <row r="147" spans="1:15">
+    <row r="147" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>35</v>
       </c>
@@ -11216,7 +11240,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="148" spans="1:15">
+    <row r="148" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>35</v>
       </c>
@@ -11257,7 +11281,7 @@
         <v>2096</v>
       </c>
     </row>
-    <row r="149" spans="1:15">
+    <row r="149" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>35</v>
       </c>
@@ -11298,7 +11322,7 @@
         <v>2097</v>
       </c>
     </row>
-    <row r="150" spans="1:15">
+    <row r="150" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>35</v>
       </c>
@@ -11339,7 +11363,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="151" spans="1:15">
+    <row r="151" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>35</v>
       </c>
@@ -11380,7 +11404,7 @@
         <v>2099</v>
       </c>
     </row>
-    <row r="152" spans="1:15">
+    <row r="152" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>35</v>
       </c>
@@ -11421,7 +11445,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="153" spans="1:15">
+    <row r="153" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>35</v>
       </c>
@@ -11441,7 +11465,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="154" spans="1:15">
+    <row r="154" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>35</v>
       </c>
@@ -11461,7 +11485,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="155" spans="1:15">
+    <row r="155" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>36</v>
       </c>
@@ -11502,7 +11526,7 @@
         <v>2101</v>
       </c>
     </row>
-    <row r="156" spans="1:15">
+    <row r="156" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>36</v>
       </c>
@@ -11543,7 +11567,7 @@
         <v>2102</v>
       </c>
     </row>
-    <row r="157" spans="1:15">
+    <row r="157" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>36</v>
       </c>
@@ -11590,7 +11614,7 @@
         <v>2103</v>
       </c>
     </row>
-    <row r="158" spans="1:15">
+    <row r="158" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>36</v>
       </c>
@@ -11637,7 +11661,7 @@
         <v>2104</v>
       </c>
     </row>
-    <row r="159" spans="1:15">
+    <row r="159" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>36</v>
       </c>
@@ -11684,7 +11708,7 @@
         <v>2105</v>
       </c>
     </row>
-    <row r="160" spans="1:15">
+    <row r="160" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>36</v>
       </c>
@@ -11731,7 +11755,7 @@
         <v>2106</v>
       </c>
     </row>
-    <row r="161" spans="1:15">
+    <row r="161" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>36</v>
       </c>
@@ -11778,7 +11802,7 @@
         <v>2107</v>
       </c>
     </row>
-    <row r="162" spans="1:15">
+    <row r="162" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>36</v>
       </c>
@@ -11825,7 +11849,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="163" spans="1:15">
+    <row r="163" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>36</v>
       </c>
@@ -11872,7 +11896,7 @@
         <v>2109</v>
       </c>
     </row>
-    <row r="164" spans="1:15">
+    <row r="164" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>36</v>
       </c>
@@ -11892,7 +11916,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="165" spans="1:15">
+    <row r="165" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>36</v>
       </c>
@@ -11912,7 +11936,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="166" spans="1:15">
+    <row r="166" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>37</v>
       </c>
@@ -11947,7 +11971,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="167" spans="1:15">
+    <row r="167" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>37</v>
       </c>
@@ -11988,8 +12012,8 @@
         <v>2110</v>
       </c>
     </row>
-    <row r="168" spans="1:15">
-      <c r="A168" t="s">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A168" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B168" t="s">
@@ -12020,7 +12044,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="169" spans="1:15">
+    <row r="169" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>37</v>
       </c>
@@ -12058,7 +12082,7 @@
         <v>2111</v>
       </c>
     </row>
-    <row r="170" spans="1:15">
+    <row r="170" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>37</v>
       </c>
@@ -12093,7 +12117,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="171" spans="1:15">
+    <row r="171" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>37</v>
       </c>
@@ -12131,7 +12155,7 @@
         <v>2111</v>
       </c>
     </row>
-    <row r="172" spans="1:15">
+    <row r="172" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>37</v>
       </c>
@@ -12166,7 +12190,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="173" spans="1:15">
+    <row r="173" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>37</v>
       </c>
@@ -12207,7 +12231,7 @@
         <v>2112</v>
       </c>
     </row>
-    <row r="174" spans="1:15">
+    <row r="174" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>37</v>
       </c>
@@ -12242,7 +12266,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="175" spans="1:15">
+    <row r="175" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>37</v>
       </c>
@@ -12265,7 +12289,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="176" spans="1:15">
+    <row r="176" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>37</v>
       </c>
@@ -12288,7 +12312,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="177" spans="1:15">
+    <row r="177" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>37</v>
       </c>
@@ -12329,7 +12353,7 @@
         <v>2112</v>
       </c>
     </row>
-    <row r="178" spans="1:15">
+    <row r="178" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>37</v>
       </c>
@@ -12364,7 +12388,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="179" spans="1:15">
+    <row r="179" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>37</v>
       </c>
@@ -12405,7 +12429,7 @@
         <v>2112</v>
       </c>
     </row>
-    <row r="180" spans="1:15">
+    <row r="180" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>37</v>
       </c>
@@ -12446,7 +12470,7 @@
         <v>2113</v>
       </c>
     </row>
-    <row r="181" spans="1:15">
+    <row r="181" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>37</v>
       </c>
@@ -12475,7 +12499,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="182" spans="1:15">
+    <row r="182" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>37</v>
       </c>
@@ -12504,7 +12528,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="183" spans="1:15">
+    <row r="183" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>37</v>
       </c>
@@ -12542,7 +12566,7 @@
         <v>2082</v>
       </c>
     </row>
-    <row r="184" spans="1:15">
+    <row r="184" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>38</v>
       </c>
@@ -12565,7 +12589,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="185" spans="1:15">
+    <row r="185" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>38</v>
       </c>
@@ -12588,7 +12612,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="186" spans="1:15">
+    <row r="186" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>38</v>
       </c>
@@ -12611,7 +12635,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="187" spans="1:15">
+    <row r="187" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>38</v>
       </c>
@@ -12634,7 +12658,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="188" spans="1:15">
+    <row r="188" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>38</v>
       </c>
@@ -12681,7 +12705,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="189" spans="1:15">
+    <row r="189" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>38</v>
       </c>
@@ -12710,7 +12734,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="190" spans="1:15">
+    <row r="190" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>38</v>
       </c>
@@ -12733,7 +12757,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="191" spans="1:15">
+    <row r="191" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>38</v>
       </c>
@@ -12762,7 +12786,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="192" spans="1:15">
+    <row r="192" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>38</v>
       </c>
@@ -12809,7 +12833,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="193" spans="1:15">
+    <row r="193" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>38</v>
       </c>
@@ -12847,7 +12871,7 @@
         <v>2082</v>
       </c>
     </row>
-    <row r="194" spans="1:15">
+    <row r="194" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>39</v>
       </c>
@@ -12882,7 +12906,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="195" spans="1:15">
+    <row r="195" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>39</v>
       </c>
@@ -12923,7 +12947,7 @@
         <v>2114</v>
       </c>
     </row>
-    <row r="196" spans="1:15">
+    <row r="196" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>39</v>
       </c>
@@ -12970,7 +12994,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="197" spans="1:15">
+    <row r="197" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>39</v>
       </c>
@@ -12999,7 +13023,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="198" spans="1:15">
+    <row r="198" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>39</v>
       </c>
@@ -13022,7 +13046,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="199" spans="1:15">
+    <row r="199" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>39</v>
       </c>
@@ -13063,7 +13087,7 @@
         <v>2115</v>
       </c>
     </row>
-    <row r="200" spans="1:15">
+    <row r="200" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>39</v>
       </c>
@@ -13086,7 +13110,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="201" spans="1:15">
+    <row r="201" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>40</v>
       </c>
@@ -13127,7 +13151,7 @@
         <v>2116</v>
       </c>
     </row>
-    <row r="202" spans="1:15">
+    <row r="202" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>40</v>
       </c>
@@ -13153,7 +13177,7 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="203" spans="1:15">
+    <row r="203" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>40</v>
       </c>
@@ -13173,7 +13197,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="204" spans="1:15">
+    <row r="204" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>40</v>
       </c>
@@ -13193,7 +13217,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="205" spans="1:15">
+    <row r="205" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>40</v>
       </c>
@@ -13213,7 +13237,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="206" spans="1:15">
+    <row r="206" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>40</v>
       </c>
@@ -13233,7 +13257,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="207" spans="1:15">
+    <row r="207" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>40</v>
       </c>
@@ -13259,7 +13283,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="208" spans="1:15">
+    <row r="208" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>40</v>
       </c>
@@ -13285,7 +13309,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="209" spans="1:15">
+    <row r="209" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>41</v>
       </c>
@@ -13296,7 +13320,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="210" spans="1:15">
+    <row r="210" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>42</v>
       </c>
@@ -13316,7 +13340,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="211" spans="1:15">
+    <row r="211" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>42</v>
       </c>
@@ -13336,7 +13360,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="212" spans="1:15">
+    <row r="212" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>42</v>
       </c>
@@ -13356,7 +13380,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="213" spans="1:15">
+    <row r="213" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>42</v>
       </c>
@@ -13403,7 +13427,7 @@
         <v>2117</v>
       </c>
     </row>
-    <row r="214" spans="1:15">
+    <row r="214" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>42</v>
       </c>
@@ -13423,7 +13447,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="215" spans="1:15">
+    <row r="215" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>42</v>
       </c>
@@ -13443,7 +13467,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="216" spans="1:15">
+    <row r="216" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>42</v>
       </c>
@@ -13463,7 +13487,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="217" spans="1:15">
+    <row r="217" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>42</v>
       </c>
@@ -13483,7 +13507,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="218" spans="1:15">
+    <row r="218" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>42</v>
       </c>
@@ -13503,7 +13527,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="219" spans="1:15">
+    <row r="219" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>42</v>
       </c>
@@ -13523,7 +13547,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="220" spans="1:15">
+    <row r="220" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>42</v>
       </c>
@@ -13570,7 +13594,7 @@
         <v>2118</v>
       </c>
     </row>
-    <row r="221" spans="1:15">
+    <row r="221" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>43</v>
       </c>
@@ -13590,7 +13614,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="222" spans="1:15">
+    <row r="222" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>43</v>
       </c>
@@ -13610,7 +13634,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="223" spans="1:15">
+    <row r="223" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>43</v>
       </c>
@@ -13630,7 +13654,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="224" spans="1:15">
+    <row r="224" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>43</v>
       </c>
@@ -13650,7 +13674,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="225" spans="1:15">
+    <row r="225" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>43</v>
       </c>
@@ -13685,7 +13709,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="226" spans="1:15">
+    <row r="226" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>43</v>
       </c>
@@ -13720,7 +13744,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="227" spans="1:15">
+    <row r="227" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>43</v>
       </c>
@@ -13755,7 +13779,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="228" spans="1:15">
+    <row r="228" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>43</v>
       </c>
@@ -13790,7 +13814,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="229" spans="1:15">
+    <row r="229" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>43</v>
       </c>
@@ -13825,7 +13849,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="230" spans="1:15">
+    <row r="230" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>43</v>
       </c>
@@ -13860,7 +13884,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="231" spans="1:15">
+    <row r="231" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>43</v>
       </c>
@@ -13895,7 +13919,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="232" spans="1:15">
+    <row r="232" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>43</v>
       </c>
@@ -13930,7 +13954,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="233" spans="1:15">
+    <row r="233" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>43</v>
       </c>
@@ -13965,7 +13989,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="234" spans="1:15">
+    <row r="234" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>43</v>
       </c>
@@ -14000,7 +14024,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="235" spans="1:15">
+    <row r="235" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>43</v>
       </c>
@@ -14035,7 +14059,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="236" spans="1:15">
+    <row r="236" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>43</v>
       </c>
@@ -14070,7 +14094,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="237" spans="1:15">
+    <row r="237" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>43</v>
       </c>
@@ -14105,7 +14129,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="238" spans="1:15">
+    <row r="238" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>44</v>
       </c>
@@ -14146,7 +14170,7 @@
         <v>2119</v>
       </c>
     </row>
-    <row r="239" spans="1:15">
+    <row r="239" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>44</v>
       </c>
@@ -14175,7 +14199,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="240" spans="1:15">
+    <row r="240" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>44</v>
       </c>
@@ -14222,7 +14246,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="241" spans="1:11">
+    <row r="241" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>44</v>
       </c>
@@ -14251,7 +14275,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="242" spans="1:11">
+    <row r="242" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>44</v>
       </c>
@@ -14274,7 +14298,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="243" spans="1:11">
+    <row r="243" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>44</v>
       </c>
@@ -14297,7 +14321,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="244" spans="1:11">
+    <row r="244" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>44</v>
       </c>
@@ -14320,7 +14344,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="245" spans="1:11">
+    <row r="245" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>44</v>
       </c>
@@ -14343,7 +14367,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="246" spans="1:11">
+    <row r="246" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>44</v>
       </c>
@@ -14366,7 +14390,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="247" spans="1:11">
+    <row r="247" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>45</v>
       </c>
@@ -14386,7 +14410,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="248" spans="1:11">
+    <row r="248" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>45</v>
       </c>
@@ -14406,7 +14430,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="249" spans="1:11">
+    <row r="249" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>45</v>
       </c>
@@ -14426,7 +14450,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="250" spans="1:11">
+    <row r="250" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>45</v>
       </c>
@@ -14452,7 +14476,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="251" spans="1:11">
+    <row r="251" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>45</v>
       </c>
@@ -14472,7 +14496,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="252" spans="1:11">
+    <row r="252" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>45</v>
       </c>
@@ -14492,7 +14516,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="253" spans="1:11">
+    <row r="253" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>45</v>
       </c>
@@ -14512,7 +14536,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="254" spans="1:11">
+    <row r="254" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>45</v>
       </c>
@@ -14532,7 +14556,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="255" spans="1:11">
+    <row r="255" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>45</v>
       </c>
@@ -14552,7 +14576,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="256" spans="1:11">
+    <row r="256" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>45</v>
       </c>
@@ -14572,7 +14596,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="257" spans="1:15">
+    <row r="257" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>46</v>
       </c>
@@ -14583,7 +14607,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="258" spans="1:15">
+    <row r="258" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>47</v>
       </c>
@@ -14624,7 +14648,7 @@
         <v>2120</v>
       </c>
     </row>
-    <row r="259" spans="1:15">
+    <row r="259" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>47</v>
       </c>
@@ -14665,7 +14689,7 @@
         <v>2121</v>
       </c>
     </row>
-    <row r="260" spans="1:15">
+    <row r="260" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>47</v>
       </c>
@@ -14712,7 +14736,7 @@
         <v>2122</v>
       </c>
     </row>
-    <row r="261" spans="1:15">
+    <row r="261" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>47</v>
       </c>
@@ -14759,7 +14783,7 @@
         <v>2123</v>
       </c>
     </row>
-    <row r="262" spans="1:15">
+    <row r="262" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>47</v>
       </c>
@@ -14806,7 +14830,7 @@
         <v>2124</v>
       </c>
     </row>
-    <row r="263" spans="1:15">
+    <row r="263" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>47</v>
       </c>
@@ -14853,7 +14877,7 @@
         <v>2125</v>
       </c>
     </row>
-    <row r="264" spans="1:15">
+    <row r="264" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>47</v>
       </c>
@@ -14900,7 +14924,7 @@
         <v>2126</v>
       </c>
     </row>
-    <row r="265" spans="1:15">
+    <row r="265" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>47</v>
       </c>
@@ -14920,7 +14944,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="266" spans="1:15">
+    <row r="266" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>47</v>
       </c>
@@ -14940,7 +14964,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="267" spans="1:15">
+    <row r="267" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>48</v>
       </c>
@@ -14960,8 +14984,8 @@
         <v>48</v>
       </c>
     </row>
-    <row r="268" spans="1:15">
-      <c r="A268" t="s">
+    <row r="268" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A268" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B268" t="s">
@@ -14983,7 +15007,7 @@
         <v>2127</v>
       </c>
     </row>
-    <row r="269" spans="1:15">
+    <row r="269" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>48</v>
       </c>
@@ -15030,8 +15054,8 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="270" spans="1:15">
-      <c r="A270" t="s">
+    <row r="270" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A270" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B270" t="s">
@@ -15059,8 +15083,8 @@
         <v>2128</v>
       </c>
     </row>
-    <row r="271" spans="1:15">
-      <c r="A271" t="s">
+    <row r="271" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A271" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B271" t="s">
@@ -15082,8 +15106,8 @@
         <v>2129</v>
       </c>
     </row>
-    <row r="272" spans="1:15">
-      <c r="A272" t="s">
+    <row r="272" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A272" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B272" t="s">
@@ -15105,7 +15129,7 @@
         <v>2130</v>
       </c>
     </row>
-    <row r="273" spans="1:15">
+    <row r="273" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>49</v>
       </c>
@@ -15125,7 +15149,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="274" spans="1:15">
+    <row r="274" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>49</v>
       </c>
@@ -15145,7 +15169,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="275" spans="1:15">
+    <row r="275" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>49</v>
       </c>
@@ -15171,7 +15195,7 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="276" spans="1:15">
+    <row r="276" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>49</v>
       </c>
@@ -15197,7 +15221,7 @@
         <v>1426</v>
       </c>
     </row>
-    <row r="277" spans="1:15">
+    <row r="277" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>49</v>
       </c>
@@ -15217,7 +15241,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="278" spans="1:15">
+    <row r="278" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>50</v>
       </c>
@@ -15240,7 +15264,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="279" spans="1:15">
+    <row r="279" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>50</v>
       </c>
@@ -15287,7 +15311,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="280" spans="1:15">
+    <row r="280" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>50</v>
       </c>
@@ -15328,7 +15352,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="281" spans="1:15">
+    <row r="281" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>50</v>
       </c>
@@ -15375,7 +15399,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="282" spans="1:15">
+    <row r="282" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>50</v>
       </c>
@@ -15398,7 +15422,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="283" spans="1:15">
+    <row r="283" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>50</v>
       </c>
@@ -15421,7 +15445,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="284" spans="1:15">
+    <row r="284" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>50</v>
       </c>
@@ -15444,7 +15468,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="285" spans="1:15">
+    <row r="285" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>51</v>
       </c>
@@ -15455,7 +15479,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="286" spans="1:15">
+    <row r="286" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>52</v>
       </c>
@@ -15496,7 +15520,7 @@
         <v>2131</v>
       </c>
     </row>
-    <row r="287" spans="1:15">
+    <row r="287" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>52</v>
       </c>
@@ -15516,7 +15540,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="288" spans="1:15">
+    <row r="288" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>52</v>
       </c>
@@ -15536,7 +15560,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="289" spans="1:15">
+    <row r="289" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>52</v>
       </c>
@@ -15556,7 +15580,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="290" spans="1:15">
+    <row r="290" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>52</v>
       </c>
@@ -15597,7 +15621,7 @@
         <v>2132</v>
       </c>
     </row>
-    <row r="291" spans="1:15">
+    <row r="291" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>52</v>
       </c>
@@ -15617,7 +15641,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="292" spans="1:15">
+    <row r="292" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>52</v>
       </c>
@@ -15637,7 +15661,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="293" spans="1:15">
+    <row r="293" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>52</v>
       </c>
@@ -15684,7 +15708,7 @@
         <v>2133</v>
       </c>
     </row>
-    <row r="294" spans="1:15">
+    <row r="294" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>52</v>
       </c>
@@ -15725,7 +15749,7 @@
         <v>2134</v>
       </c>
     </row>
-    <row r="295" spans="1:15">
+    <row r="295" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>52</v>
       </c>
@@ -15745,7 +15769,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="296" spans="1:15">
+    <row r="296" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>52</v>
       </c>
@@ -15783,7 +15807,7 @@
         <v>2082</v>
       </c>
     </row>
-    <row r="297" spans="1:15">
+    <row r="297" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>53</v>
       </c>
@@ -15824,7 +15848,7 @@
         <v>2135</v>
       </c>
     </row>
-    <row r="298" spans="1:15">
+    <row r="298" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>53</v>
       </c>
@@ -15871,7 +15895,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="299" spans="1:15">
+    <row r="299" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>53</v>
       </c>
@@ -15891,7 +15915,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="300" spans="1:15">
+    <row r="300" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>53</v>
       </c>
@@ -15911,7 +15935,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="301" spans="1:15">
+    <row r="301" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>53</v>
       </c>
@@ -15931,7 +15955,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="302" spans="1:15">
+    <row r="302" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>53</v>
       </c>
@@ -15951,7 +15975,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="303" spans="1:15">
+    <row r="303" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>53</v>
       </c>
@@ -15992,7 +16016,7 @@
         <v>2136</v>
       </c>
     </row>
-    <row r="304" spans="1:15">
+    <row r="304" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>53</v>
       </c>
@@ -16012,7 +16036,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="305" spans="1:15">
+    <row r="305" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>53</v>
       </c>
@@ -16032,7 +16056,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="306" spans="1:15">
+    <row r="306" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>53</v>
       </c>
@@ -16052,7 +16076,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="307" spans="1:15">
+    <row r="307" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>53</v>
       </c>
@@ -16072,7 +16096,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="308" spans="1:15">
+    <row r="308" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>54</v>
       </c>
@@ -16092,7 +16116,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="309" spans="1:15">
+    <row r="309" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>54</v>
       </c>
@@ -16118,7 +16142,7 @@
         <v>1432</v>
       </c>
     </row>
-    <row r="310" spans="1:15">
+    <row r="310" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>54</v>
       </c>
@@ -16165,7 +16189,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="311" spans="1:15">
+    <row r="311" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>54</v>
       </c>
@@ -16212,7 +16236,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="312" spans="1:15">
+    <row r="312" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>54</v>
       </c>
@@ -16232,7 +16256,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="313" spans="1:15">
+    <row r="313" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>54</v>
       </c>
@@ -16252,7 +16276,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="314" spans="1:15">
+    <row r="314" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>54</v>
       </c>
@@ -16293,7 +16317,7 @@
         <v>2137</v>
       </c>
     </row>
-    <row r="315" spans="1:15">
+    <row r="315" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>54</v>
       </c>
@@ -16319,7 +16343,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="316" spans="1:15">
+    <row r="316" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>55</v>
       </c>
@@ -16360,7 +16384,7 @@
         <v>2138</v>
       </c>
     </row>
-    <row r="317" spans="1:15">
+    <row r="317" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>55</v>
       </c>
@@ -16401,7 +16425,7 @@
         <v>2139</v>
       </c>
     </row>
-    <row r="318" spans="1:15">
+    <row r="318" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>55</v>
       </c>
@@ -16421,7 +16445,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="319" spans="1:15">
+    <row r="319" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>55</v>
       </c>
@@ -16441,7 +16465,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="320" spans="1:15">
+    <row r="320" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>55</v>
       </c>
@@ -16488,7 +16512,7 @@
         <v>2140</v>
       </c>
     </row>
-    <row r="321" spans="1:15">
+    <row r="321" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>55</v>
       </c>
@@ -16535,7 +16559,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="322" spans="1:15">
+    <row r="322" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>55</v>
       </c>
@@ -16582,7 +16606,7 @@
         <v>2141</v>
       </c>
     </row>
-    <row r="323" spans="1:15">
+    <row r="323" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>55</v>
       </c>
@@ -16629,7 +16653,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="324" spans="1:15">
+    <row r="324" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>55</v>
       </c>
@@ -16670,7 +16694,7 @@
         <v>2082</v>
       </c>
     </row>
-    <row r="325" spans="1:15">
+    <row r="325" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>56</v>
       </c>
@@ -16690,7 +16714,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="326" spans="1:15">
+    <row r="326" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>56</v>
       </c>
@@ -16716,7 +16740,7 @@
         <v>1438</v>
       </c>
     </row>
-    <row r="327" spans="1:15">
+    <row r="327" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>56</v>
       </c>
@@ -16736,7 +16760,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="328" spans="1:15">
+    <row r="328" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>56</v>
       </c>
@@ -16783,7 +16807,7 @@
         <v>2142</v>
       </c>
     </row>
-    <row r="329" spans="1:15">
+    <row r="329" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>56</v>
       </c>
@@ -16803,7 +16827,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="330" spans="1:15">
+    <row r="330" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>56</v>
       </c>
@@ -16823,7 +16847,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="331" spans="1:15">
+    <row r="331" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>56</v>
       </c>
@@ -16870,7 +16894,7 @@
         <v>2143</v>
       </c>
     </row>
-    <row r="332" spans="1:15">
+    <row r="332" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>57</v>
       </c>
@@ -16890,7 +16914,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="333" spans="1:15">
+    <row r="333" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>57</v>
       </c>
@@ -16910,7 +16934,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="334" spans="1:15">
+    <row r="334" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>57</v>
       </c>
@@ -16930,7 +16954,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="335" spans="1:15">
+    <row r="335" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>57</v>
       </c>
@@ -16950,7 +16974,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="336" spans="1:15">
+    <row r="336" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>57</v>
       </c>
@@ -16985,7 +17009,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="337" spans="1:15">
+    <row r="337" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>57</v>
       </c>
@@ -17005,7 +17029,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="338" spans="1:15">
+    <row r="338" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>57</v>
       </c>
@@ -17025,7 +17049,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="339" spans="1:15">
+    <row r="339" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>57</v>
       </c>
@@ -17045,7 +17069,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="340" spans="1:15">
+    <row r="340" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>57</v>
       </c>
@@ -17071,7 +17095,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="341" spans="1:15">
+    <row r="341" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>58</v>
       </c>
@@ -17091,7 +17115,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="342" spans="1:15">
+    <row r="342" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>58</v>
       </c>
@@ -17111,7 +17135,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="343" spans="1:15">
+    <row r="343" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>58</v>
       </c>
@@ -17158,7 +17182,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="344" spans="1:15">
+    <row r="344" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>58</v>
       </c>
@@ -17178,7 +17202,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="345" spans="1:15">
+    <row r="345" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>58</v>
       </c>
@@ -17198,7 +17222,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="346" spans="1:15">
+    <row r="346" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>58</v>
       </c>
@@ -17218,7 +17242,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="347" spans="1:15">
+    <row r="347" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>58</v>
       </c>
@@ -17238,7 +17262,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="348" spans="1:15">
+    <row r="348" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>58</v>
       </c>
@@ -17264,7 +17288,7 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="349" spans="1:15">
+    <row r="349" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>58</v>
       </c>
@@ -17284,7 +17308,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="350" spans="1:15">
+    <row r="350" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>58</v>
       </c>
@@ -17310,7 +17334,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="351" spans="1:15">
+    <row r="351" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>58</v>
       </c>
@@ -17330,7 +17354,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="352" spans="1:15">
+    <row r="352" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>58</v>
       </c>
@@ -17350,7 +17374,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="353" spans="1:15">
+    <row r="353" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>59</v>
       </c>
@@ -17361,7 +17385,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="354" spans="1:15">
+    <row r="354" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>60</v>
       </c>
@@ -17384,7 +17408,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="355" spans="1:15">
+    <row r="355" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>60</v>
       </c>
@@ -17407,7 +17431,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="356" spans="1:15">
+    <row r="356" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>60</v>
       </c>
@@ -17436,7 +17460,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="357" spans="1:15">
+    <row r="357" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>60</v>
       </c>
@@ -17465,7 +17489,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="358" spans="1:15">
+    <row r="358" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>60</v>
       </c>
@@ -17488,7 +17512,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="359" spans="1:15">
+    <row r="359" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>60</v>
       </c>
@@ -17517,7 +17541,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="360" spans="1:15">
+    <row r="360" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>60</v>
       </c>
@@ -17546,7 +17570,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="361" spans="1:15">
+    <row r="361" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>60</v>
       </c>
@@ -17593,7 +17617,7 @@
         <v>2038</v>
       </c>
     </row>
-    <row r="362" spans="1:15">
+    <row r="362" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>60</v>
       </c>
@@ -17619,7 +17643,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="363" spans="1:15">
+    <row r="363" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>60</v>
       </c>
@@ -17642,7 +17666,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="364" spans="1:15">
+    <row r="364" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>60</v>
       </c>
@@ -17665,7 +17689,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="365" spans="1:15">
+    <row r="365" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>60</v>
       </c>
@@ -17688,7 +17712,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="366" spans="1:15">
+    <row r="366" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>60</v>
       </c>
@@ -17711,7 +17735,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="367" spans="1:15">
+    <row r="367" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>60</v>
       </c>
@@ -17752,7 +17776,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="368" spans="1:15">
+    <row r="368" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>60</v>
       </c>
@@ -17793,7 +17817,7 @@
         <v>1952</v>
       </c>
     </row>
-    <row r="369" spans="1:15">
+    <row r="369" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>60</v>
       </c>
@@ -17840,7 +17864,7 @@
         <v>2144</v>
       </c>
     </row>
-    <row r="370" spans="1:15">
+    <row r="370" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>60</v>
       </c>
@@ -17875,7 +17899,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="371" spans="1:15">
+    <row r="371" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>60</v>
       </c>
@@ -17910,7 +17934,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="372" spans="1:15">
+    <row r="372" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>60</v>
       </c>
@@ -17945,7 +17969,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="373" spans="1:15">
+    <row r="373" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>60</v>
       </c>
@@ -17965,7 +17989,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="374" spans="1:15">
+    <row r="374" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>60</v>
       </c>
@@ -17994,7 +18018,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="375" spans="1:15">
+    <row r="375" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>60</v>
       </c>
@@ -18017,7 +18041,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="376" spans="1:15">
+    <row r="376" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>60</v>
       </c>
@@ -18058,7 +18082,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="377" spans="1:15">
+    <row r="377" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>60</v>
       </c>
@@ -18096,7 +18120,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="378" spans="1:15">
+    <row r="378" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>60</v>
       </c>
@@ -18119,7 +18143,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="379" spans="1:15">
+    <row r="379" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>60</v>
       </c>
@@ -18166,7 +18190,7 @@
         <v>2145</v>
       </c>
     </row>
-    <row r="380" spans="1:15">
+    <row r="380" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>60</v>
       </c>
@@ -18213,7 +18237,7 @@
         <v>2146</v>
       </c>
     </row>
-    <row r="381" spans="1:15">
+    <row r="381" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>60</v>
       </c>
@@ -18260,7 +18284,7 @@
         <v>2147</v>
       </c>
     </row>
-    <row r="382" spans="1:15">
+    <row r="382" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>60</v>
       </c>
@@ -18283,7 +18307,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="383" spans="1:15">
+    <row r="383" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>60</v>
       </c>
@@ -18324,7 +18348,7 @@
         <v>2148</v>
       </c>
     </row>
-    <row r="384" spans="1:15">
+    <row r="384" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>60</v>
       </c>
@@ -18353,7 +18377,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="385" spans="1:15">
+    <row r="385" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>60</v>
       </c>
@@ -18382,7 +18406,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="386" spans="1:15">
+    <row r="386" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>60</v>
       </c>
@@ -18405,7 +18429,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="387" spans="1:15">
+    <row r="387" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>60</v>
       </c>
@@ -18428,7 +18452,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="388" spans="1:15">
+    <row r="388" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>60</v>
       </c>
@@ -18451,7 +18475,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="389" spans="1:15">
+    <row r="389" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>60</v>
       </c>
@@ -18489,7 +18513,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="390" spans="1:15">
+    <row r="390" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>61</v>
       </c>
@@ -18509,7 +18533,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="391" spans="1:15">
+    <row r="391" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>61</v>
       </c>
@@ -18535,7 +18559,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="392" spans="1:15">
+    <row r="392" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>61</v>
       </c>
@@ -18570,7 +18594,7 @@
         <v>1913</v>
       </c>
     </row>
-    <row r="393" spans="1:15">
+    <row r="393" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>62</v>
       </c>
@@ -18611,7 +18635,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="394" spans="1:15">
+    <row r="394" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>62</v>
       </c>
@@ -18652,7 +18676,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="395" spans="1:15">
+    <row r="395" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>62</v>
       </c>
@@ -18675,7 +18699,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="396" spans="1:15">
+    <row r="396" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>62</v>
       </c>
@@ -18698,7 +18722,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="397" spans="1:15">
+    <row r="397" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>62</v>
       </c>
@@ -18745,7 +18769,7 @@
         <v>2152</v>
       </c>
     </row>
-    <row r="398" spans="1:15">
+    <row r="398" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>63</v>
       </c>
@@ -18786,7 +18810,7 @@
         <v>2153</v>
       </c>
     </row>
-    <row r="399" spans="1:15">
+    <row r="399" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>63</v>
       </c>
@@ -18809,7 +18833,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="400" spans="1:15">
+    <row r="400" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>63</v>
       </c>
@@ -18832,7 +18856,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="401" spans="1:15">
+    <row r="401" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>63</v>
       </c>
@@ -18855,7 +18879,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="402" spans="1:15">
+    <row r="402" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>63</v>
       </c>
@@ -18902,7 +18926,7 @@
         <v>2154</v>
       </c>
     </row>
-    <row r="403" spans="1:15">
+    <row r="403" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>64</v>
       </c>
@@ -18943,7 +18967,7 @@
         <v>2155</v>
       </c>
     </row>
-    <row r="404" spans="1:15">
+    <row r="404" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>64</v>
       </c>
@@ -18963,7 +18987,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="405" spans="1:15">
+    <row r="405" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>64</v>
       </c>
@@ -18983,7 +19007,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="406" spans="1:15">
+    <row r="406" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>64</v>
       </c>
@@ -19003,7 +19027,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="407" spans="1:15">
+    <row r="407" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>64</v>
       </c>
@@ -19044,7 +19068,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="408" spans="1:15">
+    <row r="408" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>65</v>
       </c>
@@ -19064,7 +19088,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="409" spans="1:15">
+    <row r="409" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>65</v>
       </c>
@@ -19084,7 +19108,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="410" spans="1:15">
+    <row r="410" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>65</v>
       </c>
@@ -19125,7 +19149,7 @@
         <v>2156</v>
       </c>
     </row>
-    <row r="411" spans="1:15">
+    <row r="411" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>65</v>
       </c>
@@ -19145,7 +19169,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="412" spans="1:15">
+    <row r="412" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>65</v>
       </c>
@@ -19192,7 +19216,7 @@
         <v>2157</v>
       </c>
     </row>
-    <row r="413" spans="1:15">
+    <row r="413" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>65</v>
       </c>
@@ -19212,7 +19236,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="414" spans="1:15">
+    <row r="414" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>65</v>
       </c>
@@ -19259,7 +19283,7 @@
         <v>1991</v>
       </c>
     </row>
-    <row r="415" spans="1:15">
+    <row r="415" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>65</v>
       </c>
@@ -19279,7 +19303,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="416" spans="1:15">
+    <row r="416" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>65</v>
       </c>
@@ -19305,7 +19329,7 @@
         <v>1464</v>
       </c>
     </row>
-    <row r="417" spans="1:15">
+    <row r="417" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>65</v>
       </c>
@@ -19352,7 +19376,7 @@
         <v>2158</v>
       </c>
     </row>
-    <row r="418" spans="1:15">
+    <row r="418" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>65</v>
       </c>
@@ -19393,7 +19417,7 @@
         <v>2159</v>
       </c>
     </row>
-    <row r="419" spans="1:15">
+    <row r="419" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>65</v>
       </c>
@@ -19434,7 +19458,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="420" spans="1:15">
+    <row r="420" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>65</v>
       </c>
@@ -19466,7 +19490,7 @@
         <v>1914</v>
       </c>
     </row>
-    <row r="421" spans="1:15">
+    <row r="421" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>65</v>
       </c>
@@ -19498,7 +19522,7 @@
         <v>1914</v>
       </c>
     </row>
-    <row r="422" spans="1:15">
+    <row r="422" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>65</v>
       </c>
@@ -19530,7 +19554,7 @@
         <v>1914</v>
       </c>
     </row>
-    <row r="423" spans="1:15">
+    <row r="423" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>66</v>
       </c>
@@ -19541,7 +19565,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="424" spans="1:15">
+    <row r="424" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>67</v>
       </c>
@@ -19561,7 +19585,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="425" spans="1:15">
+    <row r="425" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>67</v>
       </c>
@@ -19602,7 +19626,7 @@
         <v>2156</v>
       </c>
     </row>
-    <row r="426" spans="1:15">
+    <row r="426" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>67</v>
       </c>
@@ -19622,7 +19646,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="427" spans="1:15">
+    <row r="427" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>67</v>
       </c>
@@ -19642,7 +19666,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="428" spans="1:15">
+    <row r="428" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>67</v>
       </c>
@@ -19662,7 +19686,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="429" spans="1:15">
+    <row r="429" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>67</v>
       </c>
@@ -19703,7 +19727,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="430" spans="1:15">
+    <row r="430" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>67</v>
       </c>
@@ -19723,7 +19747,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="431" spans="1:15">
+    <row r="431" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>67</v>
       </c>
@@ -19749,7 +19773,7 @@
         <v>1466</v>
       </c>
     </row>
-    <row r="432" spans="1:15">
+    <row r="432" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>67</v>
       </c>
@@ -19769,7 +19793,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="433" spans="1:15">
+    <row r="433" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>67</v>
       </c>
@@ -19789,7 +19813,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="434" spans="1:15">
+    <row r="434" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>67</v>
       </c>
@@ -19809,7 +19833,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="435" spans="1:15">
+    <row r="435" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>67</v>
       </c>
@@ -19829,7 +19853,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="436" spans="1:15">
+    <row r="436" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>67</v>
       </c>
@@ -19849,7 +19873,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="437" spans="1:15">
+    <row r="437" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>67</v>
       </c>
@@ -19869,7 +19893,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="438" spans="1:15">
+    <row r="438" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>67</v>
       </c>
@@ -19889,7 +19913,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="439" spans="1:15">
+    <row r="439" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>67</v>
       </c>
@@ -19909,7 +19933,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="440" spans="1:15">
+    <row r="440" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>67</v>
       </c>
@@ -19935,7 +19959,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="441" spans="1:15">
+    <row r="441" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>67</v>
       </c>
@@ -19961,7 +19985,7 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="442" spans="1:15">
+    <row r="442" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>67</v>
       </c>
@@ -19981,7 +20005,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="443" spans="1:15">
+    <row r="443" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>68</v>
       </c>
@@ -19992,7 +20016,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="444" spans="1:15">
+    <row r="444" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>69</v>
       </c>
@@ -20027,7 +20051,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="445" spans="1:15">
+    <row r="445" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>69</v>
       </c>
@@ -20062,7 +20086,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="446" spans="1:15">
+    <row r="446" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>69</v>
       </c>
@@ -20085,7 +20109,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="447" spans="1:15">
+    <row r="447" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>69</v>
       </c>
@@ -20120,7 +20144,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="448" spans="1:15">
+    <row r="448" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>69</v>
       </c>
@@ -20167,7 +20191,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="449" spans="1:15">
+    <row r="449" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>69</v>
       </c>
@@ -20196,7 +20220,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="450" spans="1:15">
+    <row r="450" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>69</v>
       </c>
@@ -20243,7 +20267,7 @@
         <v>2161</v>
       </c>
     </row>
-    <row r="451" spans="1:15">
+    <row r="451" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>69</v>
       </c>
@@ -20266,7 +20290,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="452" spans="1:15">
+    <row r="452" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>69</v>
       </c>
@@ -20301,7 +20325,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="453" spans="1:15">
+    <row r="453" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>69</v>
       </c>
@@ -20336,7 +20360,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="454" spans="1:15">
+    <row r="454" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>69</v>
       </c>
@@ -20371,7 +20395,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="455" spans="1:15">
+    <row r="455" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>69</v>
       </c>
@@ -20406,7 +20430,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="456" spans="1:15">
+    <row r="456" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>69</v>
       </c>
@@ -20453,7 +20477,7 @@
         <v>2162</v>
       </c>
     </row>
-    <row r="457" spans="1:15">
+    <row r="457" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>69</v>
       </c>
@@ -20476,7 +20500,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="458" spans="1:15">
+    <row r="458" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>69</v>
       </c>
@@ -20514,7 +20538,7 @@
         <v>2082</v>
       </c>
     </row>
-    <row r="459" spans="1:15">
+    <row r="459" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>70</v>
       </c>
@@ -20534,7 +20558,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="460" spans="1:15">
+    <row r="460" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>70</v>
       </c>
@@ -20581,7 +20605,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="461" spans="1:15">
+    <row r="461" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>70</v>
       </c>
@@ -20601,7 +20625,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="462" spans="1:15">
+    <row r="462" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>70</v>
       </c>
@@ -20648,7 +20672,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="463" spans="1:15">
+    <row r="463" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>70</v>
       </c>
@@ -20695,7 +20719,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="464" spans="1:15">
+    <row r="464" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>70</v>
       </c>
@@ -20742,7 +20766,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="465" spans="1:15">
+    <row r="465" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>70</v>
       </c>
@@ -20789,7 +20813,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="466" spans="1:15">
+    <row r="466" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>70</v>
       </c>
@@ -20809,7 +20833,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="467" spans="1:15">
+    <row r="467" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>70</v>
       </c>
@@ -20856,7 +20880,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="468" spans="1:15">
+    <row r="468" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>71</v>
       </c>
@@ -20897,7 +20921,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="469" spans="1:15">
+    <row r="469" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>71</v>
       </c>
@@ -20938,7 +20962,7 @@
         <v>2165</v>
       </c>
     </row>
-    <row r="470" spans="1:15">
+    <row r="470" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>71</v>
       </c>
@@ -20985,7 +21009,7 @@
         <v>2166</v>
       </c>
     </row>
-    <row r="471" spans="1:15">
+    <row r="471" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>71</v>
       </c>
@@ -21032,7 +21056,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="472" spans="1:15">
+    <row r="472" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>71</v>
       </c>
@@ -21079,7 +21103,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="473" spans="1:15">
+    <row r="473" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>71</v>
       </c>
@@ -21099,7 +21123,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="474" spans="1:15">
+    <row r="474" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>71</v>
       </c>
@@ -21119,7 +21143,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="475" spans="1:15">
+    <row r="475" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>72</v>
       </c>
@@ -21142,7 +21166,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="476" spans="1:15">
+    <row r="476" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>72</v>
       </c>
@@ -21165,7 +21189,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="477" spans="1:15">
+    <row r="477" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>72</v>
       </c>
@@ -21188,7 +21212,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="478" spans="1:15">
+    <row r="478" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>72</v>
       </c>
@@ -21211,7 +21235,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="479" spans="1:15">
+    <row r="479" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>72</v>
       </c>
@@ -21234,7 +21258,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="480" spans="1:15">
+    <row r="480" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>72</v>
       </c>
@@ -21257,7 +21281,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="481" spans="1:15">
+    <row r="481" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>72</v>
       </c>
@@ -21286,7 +21310,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="482" spans="1:15">
+    <row r="482" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>72</v>
       </c>
@@ -21309,7 +21333,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="483" spans="1:15">
+    <row r="483" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>72</v>
       </c>
@@ -21332,7 +21356,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="484" spans="1:15">
+    <row r="484" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>72</v>
       </c>
@@ -21355,7 +21379,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="485" spans="1:15">
+    <row r="485" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>72</v>
       </c>
@@ -21378,7 +21402,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="486" spans="1:15">
+    <row r="486" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>72</v>
       </c>
@@ -21416,7 +21440,7 @@
         <v>2082</v>
       </c>
     </row>
-    <row r="487" spans="1:15">
+    <row r="487" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>73</v>
       </c>
@@ -21436,7 +21460,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="488" spans="1:15">
+    <row r="488" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>73</v>
       </c>
@@ -21462,7 +21486,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="489" spans="1:15">
+    <row r="489" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>74</v>
       </c>
@@ -21482,7 +21506,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="490" spans="1:15">
+    <row r="490" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>74</v>
       </c>
@@ -21502,7 +21526,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="491" spans="1:15">
+    <row r="491" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>74</v>
       </c>
@@ -21522,7 +21546,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="492" spans="1:15">
+    <row r="492" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>74</v>
       </c>
@@ -21542,7 +21566,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="493" spans="1:15">
+    <row r="493" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>74</v>
       </c>
@@ -21562,7 +21586,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="494" spans="1:15">
+    <row r="494" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>75</v>
       </c>
@@ -21582,7 +21606,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="495" spans="1:15">
+    <row r="495" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>75</v>
       </c>
@@ -21602,7 +21626,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="496" spans="1:15">
+    <row r="496" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>75</v>
       </c>
@@ -21622,7 +21646,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="497" spans="1:15">
+    <row r="497" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>75</v>
       </c>
@@ -21648,7 +21672,7 @@
         <v>1483</v>
       </c>
     </row>
-    <row r="498" spans="1:15">
+    <row r="498" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>75</v>
       </c>
@@ -21674,7 +21698,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="499" spans="1:15">
+    <row r="499" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>75</v>
       </c>
@@ -21700,7 +21724,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="500" spans="1:15">
+    <row r="500" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>75</v>
       </c>
@@ -21720,7 +21744,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="501" spans="1:15">
+    <row r="501" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>75</v>
       </c>
@@ -21746,7 +21770,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="502" spans="1:15">
+    <row r="502" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>75</v>
       </c>
@@ -21772,7 +21796,7 @@
         <v>1487</v>
       </c>
     </row>
-    <row r="503" spans="1:15">
+    <row r="503" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>75</v>
       </c>
@@ -21819,7 +21843,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="504" spans="1:15">
+    <row r="504" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>76</v>
       </c>
@@ -21839,7 +21863,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="505" spans="1:15">
+    <row r="505" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>76</v>
       </c>
@@ -21880,7 +21904,7 @@
         <v>1911</v>
       </c>
     </row>
-    <row r="506" spans="1:15">
+    <row r="506" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>76</v>
       </c>
@@ -21900,7 +21924,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="507" spans="1:15">
+    <row r="507" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>77</v>
       </c>
@@ -21911,7 +21935,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="508" spans="1:15">
+    <row r="508" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>78</v>
       </c>
@@ -21931,7 +21955,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="509" spans="1:15">
+    <row r="509" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>78</v>
       </c>
@@ -21951,7 +21975,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="510" spans="1:15">
+    <row r="510" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>78</v>
       </c>
@@ -21971,7 +21995,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="511" spans="1:15">
+    <row r="511" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>78</v>
       </c>
@@ -21991,7 +22015,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="512" spans="1:15">
+    <row r="512" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>78</v>
       </c>
@@ -22011,7 +22035,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="513" spans="1:15">
+    <row r="513" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>79</v>
       </c>
@@ -22046,7 +22070,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="514" spans="1:15">
+    <row r="514" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>79</v>
       </c>
@@ -22081,7 +22105,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="515" spans="1:15">
+    <row r="515" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>79</v>
       </c>
@@ -22122,7 +22146,7 @@
         <v>2170</v>
       </c>
     </row>
-    <row r="516" spans="1:15">
+    <row r="516" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>79</v>
       </c>
@@ -22151,7 +22175,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="517" spans="1:15">
+    <row r="517" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>79</v>
       </c>
@@ -22180,7 +22204,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="518" spans="1:15">
+    <row r="518" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>79</v>
       </c>
@@ -22224,7 +22248,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="519" spans="1:15">
+    <row r="519" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>79</v>
       </c>
@@ -22247,7 +22271,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="520" spans="1:15">
+    <row r="520" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>79</v>
       </c>
@@ -22288,7 +22312,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="521" spans="1:15">
+    <row r="521" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>79</v>
       </c>
@@ -22329,7 +22353,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="522" spans="1:15">
+    <row r="522" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>79</v>
       </c>
@@ -22352,7 +22376,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="523" spans="1:15">
+    <row r="523" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>79</v>
       </c>
@@ -22375,7 +22399,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="524" spans="1:15">
+    <row r="524" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>79</v>
       </c>
@@ -22398,7 +22422,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="525" spans="1:15">
+    <row r="525" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>80</v>
       </c>
@@ -22409,7 +22433,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="526" spans="1:15">
+    <row r="526" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>81</v>
       </c>
@@ -22420,7 +22444,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="527" spans="1:15">
+    <row r="527" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>82</v>
       </c>
@@ -22461,7 +22485,7 @@
         <v>2133</v>
       </c>
     </row>
-    <row r="528" spans="1:15">
+    <row r="528" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>82</v>
       </c>
@@ -22481,7 +22505,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="529" spans="1:15">
+    <row r="529" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>82</v>
       </c>
@@ -22501,7 +22525,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="530" spans="1:15">
+    <row r="530" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>82</v>
       </c>
@@ -22527,7 +22551,7 @@
         <v>1493</v>
       </c>
     </row>
-    <row r="531" spans="1:15">
+    <row r="531" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>82</v>
       </c>
@@ -22547,7 +22571,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="532" spans="1:15">
+    <row r="532" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>82</v>
       </c>
@@ -22588,7 +22612,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="533" spans="1:15">
+    <row r="533" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>82</v>
       </c>
@@ -22629,7 +22653,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="534" spans="1:15">
+    <row r="534" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>83</v>
       </c>
@@ -22652,7 +22676,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="535" spans="1:15">
+    <row r="535" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>83</v>
       </c>
@@ -22693,7 +22717,7 @@
         <v>1919</v>
       </c>
     </row>
-    <row r="536" spans="1:15">
+    <row r="536" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>83</v>
       </c>
@@ -22716,7 +22740,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="537" spans="1:15">
+    <row r="537" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>83</v>
       </c>
@@ -22739,7 +22763,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="538" spans="1:15">
+    <row r="538" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>83</v>
       </c>
@@ -22786,7 +22810,7 @@
         <v>2171</v>
       </c>
     </row>
-    <row r="539" spans="1:15">
+    <row r="539" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>84</v>
       </c>
@@ -22821,7 +22845,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="540" spans="1:15">
+    <row r="540" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>84</v>
       </c>
@@ -22844,7 +22868,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="541" spans="1:15">
+    <row r="541" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>84</v>
       </c>
@@ -22891,7 +22915,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="542" spans="1:15">
+    <row r="542" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>84</v>
       </c>
@@ -22920,7 +22944,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="543" spans="1:15">
+    <row r="543" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>84</v>
       </c>
@@ -22943,7 +22967,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="544" spans="1:15">
+    <row r="544" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>84</v>
       </c>
@@ -22978,7 +23002,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="545" spans="1:15">
+    <row r="545" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>84</v>
       </c>
@@ -23025,7 +23049,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="546" spans="1:15">
+    <row r="546" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>84</v>
       </c>
@@ -23048,7 +23072,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="547" spans="1:15">
+    <row r="547" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>84</v>
       </c>
@@ -23077,7 +23101,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="548" spans="1:15">
+    <row r="548" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
         <v>84</v>
       </c>
@@ -23124,7 +23148,7 @@
         <v>2172</v>
       </c>
     </row>
-    <row r="549" spans="1:15">
+    <row r="549" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>84</v>
       </c>
@@ -23165,7 +23189,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="550" spans="1:15">
+    <row r="550" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>84</v>
       </c>
@@ -23212,7 +23236,7 @@
         <v>2173</v>
       </c>
     </row>
-    <row r="551" spans="1:15">
+    <row r="551" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>84</v>
       </c>
@@ -23250,7 +23274,7 @@
         <v>2082</v>
       </c>
     </row>
-    <row r="552" spans="1:15">
+    <row r="552" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>85</v>
       </c>
@@ -23261,7 +23285,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="553" spans="1:15">
+    <row r="553" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>86</v>
       </c>
@@ -23302,7 +23326,7 @@
         <v>2174</v>
       </c>
     </row>
-    <row r="554" spans="1:15">
+    <row r="554" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>86</v>
       </c>
@@ -23322,7 +23346,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="555" spans="1:15">
+    <row r="555" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>86</v>
       </c>
@@ -23357,7 +23381,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="556" spans="1:15">
+    <row r="556" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>86</v>
       </c>
@@ -23377,7 +23401,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="557" spans="1:15">
+    <row r="557" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>86</v>
       </c>
@@ -23403,7 +23427,7 @@
         <v>1503</v>
       </c>
     </row>
-    <row r="558" spans="1:15">
+    <row r="558" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>87</v>
       </c>
@@ -23444,7 +23468,7 @@
         <v>2175</v>
       </c>
     </row>
-    <row r="559" spans="1:15">
+    <row r="559" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
         <v>87</v>
       </c>
@@ -23485,7 +23509,7 @@
         <v>2176</v>
       </c>
     </row>
-    <row r="560" spans="1:15">
+    <row r="560" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
         <v>87</v>
       </c>
@@ -23532,7 +23556,7 @@
         <v>2177</v>
       </c>
     </row>
-    <row r="561" spans="1:15">
+    <row r="561" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>87</v>
       </c>
@@ -23579,7 +23603,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="562" spans="1:15">
+    <row r="562" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>87</v>
       </c>
@@ -23626,7 +23650,7 @@
         <v>2178</v>
       </c>
     </row>
-    <row r="563" spans="1:15">
+    <row r="563" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
         <v>87</v>
       </c>
@@ -23673,7 +23697,7 @@
         <v>2179</v>
       </c>
     </row>
-    <row r="564" spans="1:15">
+    <row r="564" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>87</v>
       </c>
@@ -23693,7 +23717,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="565" spans="1:15">
+    <row r="565" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>87</v>
       </c>
@@ -23713,7 +23737,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="566" spans="1:15">
+    <row r="566" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
         <v>87</v>
       </c>
@@ -23760,7 +23784,7 @@
         <v>2180</v>
       </c>
     </row>
-    <row r="567" spans="1:15">
+    <row r="567" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
         <v>88</v>
       </c>
@@ -23801,7 +23825,7 @@
         <v>2181</v>
       </c>
     </row>
-    <row r="568" spans="1:15">
+    <row r="568" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>88</v>
       </c>
@@ -23842,7 +23866,7 @@
         <v>2182</v>
       </c>
     </row>
-    <row r="569" spans="1:15">
+    <row r="569" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>88</v>
       </c>
@@ -23889,7 +23913,7 @@
         <v>2183</v>
       </c>
     </row>
-    <row r="570" spans="1:15">
+    <row r="570" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
         <v>88</v>
       </c>
@@ -23936,7 +23960,7 @@
         <v>2184</v>
       </c>
     </row>
-    <row r="571" spans="1:15">
+    <row r="571" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>88</v>
       </c>
@@ -23983,7 +24007,7 @@
         <v>2185</v>
       </c>
     </row>
-    <row r="572" spans="1:15">
+    <row r="572" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>88</v>
       </c>
@@ -24003,7 +24027,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="573" spans="1:15">
+    <row r="573" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
         <v>88</v>
       </c>
@@ -24023,7 +24047,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="574" spans="1:15">
+    <row r="574" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
         <v>88</v>
       </c>
@@ -24070,7 +24094,7 @@
         <v>2186</v>
       </c>
     </row>
-    <row r="575" spans="1:15">
+    <row r="575" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
         <v>89</v>
       </c>
@@ -24111,7 +24135,7 @@
         <v>2187</v>
       </c>
     </row>
-    <row r="576" spans="1:15">
+    <row r="576" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
         <v>89</v>
       </c>
@@ -24152,7 +24176,7 @@
         <v>2188</v>
       </c>
     </row>
-    <row r="577" spans="1:15">
+    <row r="577" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
         <v>89</v>
       </c>
@@ -24199,7 +24223,7 @@
         <v>2189</v>
       </c>
     </row>
-    <row r="578" spans="1:15">
+    <row r="578" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
         <v>89</v>
       </c>
@@ -24246,7 +24270,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="579" spans="1:15">
+    <row r="579" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
         <v>89</v>
       </c>
@@ -24293,7 +24317,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="580" spans="1:15">
+    <row r="580" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
         <v>89</v>
       </c>
@@ -24340,7 +24364,7 @@
         <v>2191</v>
       </c>
     </row>
-    <row r="581" spans="1:15">
+    <row r="581" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
         <v>89</v>
       </c>
@@ -24360,7 +24384,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="582" spans="1:15">
+    <row r="582" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
         <v>89</v>
       </c>
@@ -24380,7 +24404,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="583" spans="1:15">
+    <row r="583" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
         <v>90</v>
       </c>
@@ -24391,7 +24415,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="584" spans="1:15">
+    <row r="584" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
         <v>91</v>
       </c>
@@ -24411,7 +24435,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="585" spans="1:15">
+    <row r="585" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
         <v>91</v>
       </c>
@@ -24431,7 +24455,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="586" spans="1:15">
+    <row r="586" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
         <v>91</v>
       </c>
@@ -24478,7 +24502,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="587" spans="1:15">
+    <row r="587" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
         <v>91</v>
       </c>
@@ -24498,7 +24522,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="588" spans="1:15">
+    <row r="588" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
         <v>91</v>
       </c>
@@ -24518,7 +24542,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="589" spans="1:15">
+    <row r="589" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
         <v>91</v>
       </c>
@@ -24538,7 +24562,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="590" spans="1:15">
+    <row r="590" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
         <v>91</v>
       </c>
@@ -24558,7 +24582,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="591" spans="1:15">
+    <row r="591" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
         <v>92</v>
       </c>
@@ -24578,7 +24602,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="592" spans="1:15">
+    <row r="592" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
         <v>92</v>
       </c>
@@ -24604,7 +24628,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="593" spans="1:15">
+    <row r="593" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
         <v>92</v>
       </c>
@@ -24624,7 +24648,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="594" spans="1:15">
+    <row r="594" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
         <v>92</v>
       </c>
@@ -24671,7 +24695,7 @@
         <v>2192</v>
       </c>
     </row>
-    <row r="595" spans="1:15">
+    <row r="595" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
         <v>92</v>
       </c>
@@ -24691,7 +24715,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="596" spans="1:15">
+    <row r="596" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
         <v>92</v>
       </c>
@@ -24711,7 +24735,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="597" spans="1:15">
+    <row r="597" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
         <v>92</v>
       </c>
@@ -24758,7 +24782,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="598" spans="1:15">
+    <row r="598" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
         <v>93</v>
       </c>
@@ -24799,7 +24823,7 @@
         <v>2194</v>
       </c>
     </row>
-    <row r="599" spans="1:15">
+    <row r="599" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
         <v>93</v>
       </c>
@@ -24840,7 +24864,7 @@
         <v>2195</v>
       </c>
     </row>
-    <row r="600" spans="1:15">
+    <row r="600" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
         <v>93</v>
       </c>
@@ -24887,7 +24911,7 @@
         <v>2196</v>
       </c>
     </row>
-    <row r="601" spans="1:15">
+    <row r="601" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
         <v>93</v>
       </c>
@@ -24934,7 +24958,7 @@
         <v>2197</v>
       </c>
     </row>
-    <row r="602" spans="1:15">
+    <row r="602" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
         <v>93</v>
       </c>
@@ -24981,7 +25005,7 @@
         <v>2198</v>
       </c>
     </row>
-    <row r="603" spans="1:15">
+    <row r="603" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
         <v>93</v>
       </c>
@@ -25001,7 +25025,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="604" spans="1:15">
+    <row r="604" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
         <v>93</v>
       </c>
@@ -25021,7 +25045,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="605" spans="1:15">
+    <row r="605" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
         <v>93</v>
       </c>
@@ -25068,7 +25092,7 @@
         <v>2199</v>
       </c>
     </row>
-    <row r="606" spans="1:15">
+    <row r="606" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
         <v>94</v>
       </c>
@@ -25109,7 +25133,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="607" spans="1:15">
+    <row r="607" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
         <v>94</v>
       </c>
@@ -25156,7 +25180,7 @@
         <v>2201</v>
       </c>
     </row>
-    <row r="608" spans="1:15">
+    <row r="608" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
         <v>94</v>
       </c>
@@ -25176,7 +25200,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="609" spans="1:15">
+    <row r="609" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
         <v>94</v>
       </c>
@@ -25223,7 +25247,7 @@
         <v>2202</v>
       </c>
     </row>
-    <row r="610" spans="1:15">
+    <row r="610" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
         <v>94</v>
       </c>
@@ -25270,7 +25294,7 @@
         <v>2203</v>
       </c>
     </row>
-    <row r="611" spans="1:15">
+    <row r="611" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
         <v>94</v>
       </c>
@@ -25317,7 +25341,7 @@
         <v>2204</v>
       </c>
     </row>
-    <row r="612" spans="1:15">
+    <row r="612" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
         <v>94</v>
       </c>
@@ -25358,7 +25382,7 @@
         <v>2082</v>
       </c>
     </row>
-    <row r="613" spans="1:15">
+    <row r="613" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
         <v>95</v>
       </c>
@@ -25381,7 +25405,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="614" spans="1:15">
+    <row r="614" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
         <v>95</v>
       </c>
@@ -25404,7 +25428,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="615" spans="1:15">
+    <row r="615" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
         <v>95</v>
       </c>
@@ -25427,7 +25451,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="616" spans="1:15">
+    <row r="616" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
         <v>95</v>
       </c>
@@ -25450,7 +25474,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="617" spans="1:15">
+    <row r="617" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
         <v>95</v>
       </c>
@@ -25473,7 +25497,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="618" spans="1:15">
+    <row r="618" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
         <v>95</v>
       </c>
@@ -25496,7 +25520,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="619" spans="1:15">
+    <row r="619" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
         <v>95</v>
       </c>
@@ -25519,7 +25543,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="620" spans="1:15">
+    <row r="620" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
         <v>95</v>
       </c>
@@ -25566,7 +25590,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="621" spans="1:15">
+    <row r="621" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
         <v>95</v>
       </c>
@@ -25589,7 +25613,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="622" spans="1:15">
+    <row r="622" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
         <v>96</v>
       </c>
@@ -25630,7 +25654,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="623" spans="1:15">
+    <row r="623" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
         <v>96</v>
       </c>
@@ -25665,7 +25689,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="624" spans="1:15">
+    <row r="624" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
         <v>96</v>
       </c>
@@ -25706,7 +25730,7 @@
         <v>2206</v>
       </c>
     </row>
-    <row r="625" spans="1:15">
+    <row r="625" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
         <v>96</v>
       </c>
@@ -25741,7 +25765,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="626" spans="1:15">
+    <row r="626" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
         <v>96</v>
       </c>
@@ -25782,7 +25806,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="627" spans="1:15">
+    <row r="627" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
         <v>96</v>
       </c>
@@ -25829,7 +25853,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="628" spans="1:15">
+    <row r="628" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
         <v>96</v>
       </c>
@@ -25870,7 +25894,7 @@
         <v>2208</v>
       </c>
     </row>
-    <row r="629" spans="1:15">
+    <row r="629" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
         <v>96</v>
       </c>
@@ -25917,7 +25941,7 @@
         <v>2209</v>
       </c>
     </row>
-    <row r="630" spans="1:15">
+    <row r="630" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
         <v>96</v>
       </c>
@@ -25955,7 +25979,7 @@
         <v>2210</v>
       </c>
     </row>
-    <row r="631" spans="1:15">
+    <row r="631" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
         <v>97</v>
       </c>
@@ -25975,7 +25999,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="632" spans="1:15">
+    <row r="632" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
         <v>97</v>
       </c>
@@ -25995,7 +26019,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="633" spans="1:15">
+    <row r="633" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
         <v>97</v>
       </c>
@@ -26015,7 +26039,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="634" spans="1:15">
+    <row r="634" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
         <v>97</v>
       </c>
@@ -26035,7 +26059,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="635" spans="1:15">
+    <row r="635" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
         <v>98</v>
       </c>
@@ -26046,7 +26070,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="636" spans="1:15">
+    <row r="636" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
         <v>99</v>
       </c>
@@ -26087,7 +26111,7 @@
         <v>2211</v>
       </c>
     </row>
-    <row r="637" spans="1:15">
+    <row r="637" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
         <v>99</v>
       </c>
@@ -26107,7 +26131,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="638" spans="1:15">
+    <row r="638" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
         <v>99</v>
       </c>
@@ -26148,7 +26172,7 @@
         <v>2212</v>
       </c>
     </row>
-    <row r="639" spans="1:15">
+    <row r="639" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
         <v>99</v>
       </c>
@@ -26168,7 +26192,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="640" spans="1:15">
+    <row r="640" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
         <v>99</v>
       </c>
@@ -26188,7 +26212,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="641" spans="1:15">
+    <row r="641" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
         <v>99</v>
       </c>
@@ -26208,7 +26232,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="642" spans="1:15">
+    <row r="642" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
         <v>99</v>
       </c>
@@ -26228,7 +26252,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="643" spans="1:15">
+    <row r="643" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
         <v>99</v>
       </c>
@@ -26275,7 +26299,7 @@
         <v>2213</v>
       </c>
     </row>
-    <row r="644" spans="1:15">
+    <row r="644" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
         <v>99</v>
       </c>
@@ -26316,7 +26340,7 @@
         <v>1915</v>
       </c>
     </row>
-    <row r="645" spans="1:15">
+    <row r="645" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
         <v>99</v>
       </c>
@@ -26357,7 +26381,7 @@
         <v>2214</v>
       </c>
     </row>
-    <row r="646" spans="1:15">
+    <row r="646" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
         <v>99</v>
       </c>
@@ -26377,7 +26401,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="647" spans="1:15">
+    <row r="647" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
         <v>99</v>
       </c>
@@ -26397,7 +26421,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="648" spans="1:15">
+    <row r="648" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
         <v>99</v>
       </c>
@@ -26423,7 +26447,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="649" spans="1:15">
+    <row r="649" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A649" t="s">
         <v>100</v>
       </c>
@@ -26464,7 +26488,7 @@
         <v>2206</v>
       </c>
     </row>
-    <row r="650" spans="1:15">
+    <row r="650" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
         <v>100</v>
       </c>
@@ -26502,7 +26526,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="651" spans="1:15">
+    <row r="651" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A651" t="s">
         <v>100</v>
       </c>
@@ -26522,7 +26546,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="652" spans="1:15">
+    <row r="652" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
         <v>100</v>
       </c>
@@ -26563,7 +26587,7 @@
         <v>1977</v>
       </c>
     </row>
-    <row r="653" spans="1:15">
+    <row r="653" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
         <v>100</v>
       </c>
@@ -26604,7 +26628,7 @@
         <v>2215</v>
       </c>
     </row>
-    <row r="654" spans="1:15">
+    <row r="654" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A654" t="s">
         <v>101</v>
       </c>
@@ -26639,7 +26663,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="655" spans="1:15">
+    <row r="655" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A655" t="s">
         <v>101</v>
       </c>
@@ -26674,7 +26698,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="656" spans="1:15">
+    <row r="656" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A656" t="s">
         <v>101</v>
       </c>
@@ -26697,7 +26721,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="657" spans="1:15">
+    <row r="657" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A657" t="s">
         <v>101</v>
       </c>
@@ -26738,7 +26762,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="658" spans="1:15">
+    <row r="658" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A658" t="s">
         <v>101</v>
       </c>
@@ -26776,7 +26800,7 @@
         <v>2111</v>
       </c>
     </row>
-    <row r="659" spans="1:15">
+    <row r="659" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A659" t="s">
         <v>101</v>
       </c>
@@ -26811,7 +26835,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="660" spans="1:15">
+    <row r="660" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A660" t="s">
         <v>101</v>
       </c>
@@ -26834,7 +26858,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="661" spans="1:15">
+    <row r="661" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A661" t="s">
         <v>101</v>
       </c>
@@ -26875,7 +26899,7 @@
         <v>2216</v>
       </c>
     </row>
-    <row r="662" spans="1:15">
+    <row r="662" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A662" t="s">
         <v>101</v>
       </c>
@@ -26898,7 +26922,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="663" spans="1:15">
+    <row r="663" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A663" t="s">
         <v>101</v>
       </c>
@@ -26921,7 +26945,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="664" spans="1:15">
+    <row r="664" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A664" t="s">
         <v>102</v>
       </c>
@@ -26941,7 +26965,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="665" spans="1:15">
+    <row r="665" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A665" t="s">
         <v>102</v>
       </c>
@@ -26988,7 +27012,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="666" spans="1:15">
+    <row r="666" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A666" t="s">
         <v>102</v>
       </c>
@@ -27014,7 +27038,7 @@
         <v>1533</v>
       </c>
     </row>
-    <row r="667" spans="1:15">
+    <row r="667" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A667" t="s">
         <v>103</v>
       </c>
@@ -27034,7 +27058,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="668" spans="1:15">
+    <row r="668" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A668" t="s">
         <v>103</v>
       </c>
@@ -27081,7 +27105,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="669" spans="1:15">
+    <row r="669" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A669" t="s">
         <v>103</v>
       </c>
@@ -27107,7 +27131,7 @@
         <v>1534</v>
       </c>
     </row>
-    <row r="670" spans="1:15">
+    <row r="670" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A670" t="s">
         <v>104</v>
       </c>
@@ -27127,7 +27151,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="671" spans="1:15">
+    <row r="671" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A671" t="s">
         <v>104</v>
       </c>
@@ -27153,7 +27177,7 @@
         <v>1535</v>
       </c>
     </row>
-    <row r="672" spans="1:15">
+    <row r="672" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A672" t="s">
         <v>104</v>
       </c>
@@ -27179,7 +27203,7 @@
         <v>1536</v>
       </c>
     </row>
-    <row r="673" spans="1:15">
+    <row r="673" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A673" t="s">
         <v>104</v>
       </c>
@@ -27199,7 +27223,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="674" spans="1:15">
+    <row r="674" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A674" t="s">
         <v>105</v>
       </c>
@@ -27219,7 +27243,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="675" spans="1:15">
+    <row r="675" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A675" t="s">
         <v>105</v>
       </c>
@@ -27239,7 +27263,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="676" spans="1:15">
+    <row r="676" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A676" t="s">
         <v>105</v>
       </c>
@@ -27286,7 +27310,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="677" spans="1:15">
+    <row r="677" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A677" t="s">
         <v>105</v>
       </c>
@@ -27333,7 +27357,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="678" spans="1:15">
+    <row r="678" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A678" t="s">
         <v>106</v>
       </c>
@@ -27368,7 +27392,7 @@
         <v>1911</v>
       </c>
     </row>
-    <row r="679" spans="1:15">
+    <row r="679" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A679" t="s">
         <v>106</v>
       </c>
@@ -27403,7 +27427,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="680" spans="1:15">
+    <row r="680" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A680" t="s">
         <v>106</v>
       </c>
@@ -27450,7 +27474,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="681" spans="1:15">
+    <row r="681" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A681" t="s">
         <v>107</v>
       </c>
@@ -27470,7 +27494,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="682" spans="1:15">
+    <row r="682" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A682" t="s">
         <v>107</v>
       </c>
@@ -27517,7 +27541,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="683" spans="1:15">
+    <row r="683" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A683" t="s">
         <v>107</v>
       </c>
@@ -27537,7 +27561,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="684" spans="1:15">
+    <row r="684" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A684" t="s">
         <v>108</v>
       </c>
@@ -27572,7 +27596,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="685" spans="1:15">
+    <row r="685" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A685" t="s">
         <v>108</v>
       </c>
@@ -27592,7 +27616,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="686" spans="1:15">
+    <row r="686" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A686" t="s">
         <v>108</v>
       </c>
@@ -27618,7 +27642,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="687" spans="1:15">
+    <row r="687" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A687" t="s">
         <v>108</v>
       </c>
@@ -27653,7 +27677,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="688" spans="1:15">
+    <row r="688" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A688" t="s">
         <v>108</v>
       </c>
@@ -27688,7 +27712,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="689" spans="1:15">
+    <row r="689" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A689" t="s">
         <v>109</v>
       </c>
@@ -27708,7 +27732,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="690" spans="1:15">
+    <row r="690" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A690" t="s">
         <v>109</v>
       </c>
@@ -27755,7 +27779,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="691" spans="1:15">
+    <row r="691" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A691" t="s">
         <v>109</v>
       </c>
@@ -27781,7 +27805,7 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="692" spans="1:15">
+    <row r="692" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A692" t="s">
         <v>110</v>
       </c>
@@ -27801,7 +27825,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="693" spans="1:15">
+    <row r="693" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A693" t="s">
         <v>110</v>
       </c>
@@ -27848,7 +27872,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="694" spans="1:15">
+    <row r="694" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A694" t="s">
         <v>110</v>
       </c>
@@ -27874,7 +27898,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="695" spans="1:15">
+    <row r="695" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A695" t="s">
         <v>111</v>
       </c>
@@ -27909,7 +27933,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="696" spans="1:15">
+    <row r="696" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A696" t="s">
         <v>111</v>
       </c>
@@ -27932,7 +27956,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="697" spans="1:15">
+    <row r="697" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A697" t="s">
         <v>111</v>
       </c>
@@ -27979,7 +28003,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="698" spans="1:15">
+    <row r="698" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A698" t="s">
         <v>111</v>
       </c>
@@ -28002,7 +28026,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="699" spans="1:15">
+    <row r="699" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A699" t="s">
         <v>111</v>
       </c>
@@ -28025,7 +28049,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="700" spans="1:15">
+    <row r="700" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A700" t="s">
         <v>111</v>
       </c>
@@ -28048,7 +28072,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="701" spans="1:15">
+    <row r="701" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A701" t="s">
         <v>111</v>
       </c>
@@ -28071,7 +28095,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="702" spans="1:15">
+    <row r="702" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A702" t="s">
         <v>111</v>
       </c>
@@ -28094,7 +28118,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="703" spans="1:15">
+    <row r="703" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A703" t="s">
         <v>111</v>
       </c>
@@ -28117,7 +28141,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="704" spans="1:15">
+    <row r="704" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A704" t="s">
         <v>111</v>
       </c>
@@ -28152,7 +28176,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="705" spans="1:15">
+    <row r="705" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A705" t="s">
         <v>111</v>
       </c>
@@ -28187,7 +28211,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="706" spans="1:15">
+    <row r="706" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A706" t="s">
         <v>111</v>
       </c>
@@ -28225,7 +28249,7 @@
         <v>2111</v>
       </c>
     </row>
-    <row r="707" spans="1:15">
+    <row r="707" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A707" t="s">
         <v>111</v>
       </c>
@@ -28263,7 +28287,7 @@
         <v>2111</v>
       </c>
     </row>
-    <row r="708" spans="1:15">
+    <row r="708" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A708" t="s">
         <v>111</v>
       </c>
@@ -28286,7 +28310,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="709" spans="1:15">
+    <row r="709" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A709" t="s">
         <v>111</v>
       </c>
@@ -28309,7 +28333,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="710" spans="1:15">
+    <row r="710" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A710" t="s">
         <v>111</v>
       </c>
@@ -28332,7 +28356,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="711" spans="1:15">
+    <row r="711" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A711" t="s">
         <v>111</v>
       </c>
@@ -28355,7 +28379,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="712" spans="1:15">
+    <row r="712" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A712" t="s">
         <v>111</v>
       </c>
@@ -28378,7 +28402,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="713" spans="1:15">
+    <row r="713" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A713" t="s">
         <v>111</v>
       </c>
@@ -28401,7 +28425,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="714" spans="1:15">
+    <row r="714" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A714" t="s">
         <v>112</v>
       </c>
@@ -28436,8 +28460,8 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="715" spans="1:15">
-      <c r="A715" t="s">
+    <row r="715" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A715" s="2" t="s">
         <v>112</v>
       </c>
       <c r="B715" t="s">
@@ -28462,7 +28486,7 @@
         <v>1964</v>
       </c>
     </row>
-    <row r="716" spans="1:15">
+    <row r="716" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A716" t="s">
         <v>112</v>
       </c>
@@ -28500,7 +28524,7 @@
         <v>2111</v>
       </c>
     </row>
-    <row r="717" spans="1:15">
+    <row r="717" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A717" t="s">
         <v>112</v>
       </c>
@@ -28538,7 +28562,7 @@
         <v>2111</v>
       </c>
     </row>
-    <row r="718" spans="1:15">
+    <row r="718" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A718" t="s">
         <v>112</v>
       </c>
@@ -28573,7 +28597,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="719" spans="1:15">
+    <row r="719" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A719" t="s">
         <v>112</v>
       </c>
@@ -28614,7 +28638,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="720" spans="1:15">
+    <row r="720" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A720" t="s">
         <v>112</v>
       </c>
@@ -28661,7 +28685,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="721" spans="1:15">
+    <row r="721" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A721" t="s">
         <v>112</v>
       </c>
@@ -28696,7 +28720,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="722" spans="1:15">
+    <row r="722" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A722" t="s">
         <v>112</v>
       </c>
@@ -28719,8 +28743,8 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="723" spans="1:15">
-      <c r="A723" t="s">
+    <row r="723" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A723" s="2" t="s">
         <v>112</v>
       </c>
       <c r="B723" t="s">
@@ -28745,7 +28769,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="724" spans="1:15">
+    <row r="724" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A724" t="s">
         <v>112</v>
       </c>
@@ -28792,8 +28816,8 @@
         <v>2217</v>
       </c>
     </row>
-    <row r="725" spans="1:15">
-      <c r="A725" t="s">
+    <row r="725" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A725" s="2" t="s">
         <v>112</v>
       </c>
       <c r="B725" t="s">
@@ -28818,7 +28842,7 @@
         <v>1922</v>
       </c>
     </row>
-    <row r="726" spans="1:15">
+    <row r="726" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A726" t="s">
         <v>112</v>
       </c>
@@ -28841,7 +28865,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="727" spans="1:15">
+    <row r="727" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A727" t="s">
         <v>112</v>
       </c>
@@ -28888,7 +28912,7 @@
         <v>2218</v>
       </c>
     </row>
-    <row r="728" spans="1:15">
+    <row r="728" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A728" t="s">
         <v>112</v>
       </c>
@@ -28917,7 +28941,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="729" spans="1:15">
+    <row r="729" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A729" t="s">
         <v>113</v>
       </c>
@@ -28928,7 +28952,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="730" spans="1:15">
+    <row r="730" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A730" t="s">
         <v>114</v>
       </c>
@@ -28939,7 +28963,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="731" spans="1:15">
+    <row r="731" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A731" t="s">
         <v>115</v>
       </c>
@@ -28980,7 +29004,7 @@
         <v>2219</v>
       </c>
     </row>
-    <row r="732" spans="1:15">
+    <row r="732" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A732" t="s">
         <v>115</v>
       </c>
@@ -29021,7 +29045,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="733" spans="1:15">
+    <row r="733" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A733" t="s">
         <v>115</v>
       </c>
@@ -29062,7 +29086,7 @@
         <v>2221</v>
       </c>
     </row>
-    <row r="734" spans="1:15">
+    <row r="734" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A734" t="s">
         <v>115</v>
       </c>
@@ -29082,7 +29106,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="735" spans="1:15">
+    <row r="735" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A735" t="s">
         <v>115</v>
       </c>
@@ -29102,7 +29126,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="736" spans="1:15">
+    <row r="736" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A736" t="s">
         <v>115</v>
       </c>
@@ -29122,7 +29146,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="737" spans="1:15">
+    <row r="737" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A737" t="s">
         <v>116</v>
       </c>
@@ -29145,7 +29169,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="738" spans="1:15">
+    <row r="738" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A738" t="s">
         <v>116</v>
       </c>
@@ -29168,7 +29192,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="739" spans="1:15">
+    <row r="739" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A739" t="s">
         <v>116</v>
       </c>
@@ -29191,7 +29215,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="740" spans="1:15">
+    <row r="740" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A740" t="s">
         <v>116</v>
       </c>
@@ -29214,7 +29238,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="741" spans="1:15">
+    <row r="741" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A741" t="s">
         <v>116</v>
       </c>
@@ -29252,7 +29276,7 @@
         <v>2222</v>
       </c>
     </row>
-    <row r="742" spans="1:15">
+    <row r="742" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A742" t="s">
         <v>117</v>
       </c>
@@ -29293,7 +29317,7 @@
         <v>2223</v>
       </c>
     </row>
-    <row r="743" spans="1:15">
+    <row r="743" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A743" t="s">
         <v>117</v>
       </c>
@@ -29334,7 +29358,7 @@
         <v>2224</v>
       </c>
     </row>
-    <row r="744" spans="1:15">
+    <row r="744" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A744" t="s">
         <v>117</v>
       </c>
@@ -29381,7 +29405,7 @@
         <v>2225</v>
       </c>
     </row>
-    <row r="745" spans="1:15">
+    <row r="745" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A745" t="s">
         <v>117</v>
       </c>
@@ -29428,7 +29452,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="746" spans="1:15">
+    <row r="746" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A746" t="s">
         <v>117</v>
       </c>
@@ -29475,7 +29499,7 @@
         <v>2226</v>
       </c>
     </row>
-    <row r="747" spans="1:15">
+    <row r="747" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A747" t="s">
         <v>117</v>
       </c>
@@ -29495,7 +29519,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="748" spans="1:15">
+    <row r="748" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A748" t="s">
         <v>117</v>
       </c>
@@ -29515,7 +29539,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="749" spans="1:15">
+    <row r="749" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A749" t="s">
         <v>117</v>
       </c>
@@ -29556,7 +29580,7 @@
         <v>2227</v>
       </c>
     </row>
-    <row r="750" spans="1:15">
+    <row r="750" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A750" t="s">
         <v>117</v>
       </c>
@@ -29576,7 +29600,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="751" spans="1:15">
+    <row r="751" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A751" t="s">
         <v>117</v>
       </c>
@@ -29617,7 +29641,7 @@
         <v>2228</v>
       </c>
     </row>
-    <row r="752" spans="1:15">
+    <row r="752" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A752" t="s">
         <v>118</v>
       </c>
@@ -29628,7 +29652,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="753" spans="1:15">
+    <row r="753" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A753" t="s">
         <v>119</v>
       </c>
@@ -29639,7 +29663,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="754" spans="1:15">
+    <row r="754" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A754" t="s">
         <v>120</v>
       </c>
@@ -29674,7 +29698,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="755" spans="1:15">
+    <row r="755" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A755" t="s">
         <v>120</v>
       </c>
@@ -29694,7 +29718,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="756" spans="1:15">
+    <row r="756" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A756" t="s">
         <v>120</v>
       </c>
@@ -29741,7 +29765,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="757" spans="1:15">
+    <row r="757" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A757" t="s">
         <v>120</v>
       </c>
@@ -29761,7 +29785,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="758" spans="1:15">
+    <row r="758" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A758" t="s">
         <v>120</v>
       </c>
@@ -29781,7 +29805,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="759" spans="1:15">
+    <row r="759" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A759" t="s">
         <v>120</v>
       </c>
@@ -29801,7 +29825,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="760" spans="1:15">
+    <row r="760" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A760" t="s">
         <v>120</v>
       </c>
@@ -29821,7 +29845,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="761" spans="1:15">
+    <row r="761" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A761" t="s">
         <v>120</v>
       </c>
@@ -29841,7 +29865,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="762" spans="1:15">
+    <row r="762" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A762" t="s">
         <v>121</v>
       </c>
@@ -29861,7 +29885,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="763" spans="1:15">
+    <row r="763" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A763" t="s">
         <v>121</v>
       </c>
@@ -29881,7 +29905,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="764" spans="1:15">
+    <row r="764" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A764" t="s">
         <v>121</v>
       </c>
@@ -29901,7 +29925,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="765" spans="1:15">
+    <row r="765" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A765" t="s">
         <v>121</v>
       </c>
@@ -29927,7 +29951,7 @@
         <v>1552</v>
       </c>
     </row>
-    <row r="766" spans="1:15">
+    <row r="766" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A766" t="s">
         <v>121</v>
       </c>
@@ -29953,7 +29977,7 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="767" spans="1:15">
+    <row r="767" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A767" t="s">
         <v>121</v>
       </c>
@@ -29979,7 +30003,7 @@
         <v>1554</v>
       </c>
     </row>
-    <row r="768" spans="1:15">
+    <row r="768" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A768" t="s">
         <v>121</v>
       </c>
@@ -30005,7 +30029,7 @@
         <v>1555</v>
       </c>
     </row>
-    <row r="769" spans="1:15">
+    <row r="769" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A769" t="s">
         <v>121</v>
       </c>
@@ -30025,7 +30049,7 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="770" spans="1:15">
+    <row r="770" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A770" t="s">
         <v>121</v>
       </c>
@@ -30072,7 +30096,7 @@
         <v>2229</v>
       </c>
     </row>
-    <row r="771" spans="1:15">
+    <row r="771" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A771" t="s">
         <v>121</v>
       </c>
@@ -30092,7 +30116,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="772" spans="1:15">
+    <row r="772" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A772" t="s">
         <v>121</v>
       </c>
@@ -30118,7 +30142,7 @@
         <v>1557</v>
       </c>
     </row>
-    <row r="773" spans="1:15">
+    <row r="773" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A773" t="s">
         <v>121</v>
       </c>
@@ -30159,7 +30183,7 @@
         <v>2230</v>
       </c>
     </row>
-    <row r="774" spans="1:15">
+    <row r="774" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A774" t="s">
         <v>121</v>
       </c>
@@ -30200,7 +30224,7 @@
         <v>2231</v>
       </c>
     </row>
-    <row r="775" spans="1:15">
+    <row r="775" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A775" t="s">
         <v>121</v>
       </c>
@@ -30241,7 +30265,7 @@
         <v>2232</v>
       </c>
     </row>
-    <row r="776" spans="1:15">
+    <row r="776" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A776" t="s">
         <v>121</v>
       </c>
@@ -30261,7 +30285,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="777" spans="1:15">
+    <row r="777" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A777" t="s">
         <v>121</v>
       </c>
@@ -30281,7 +30305,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="778" spans="1:15">
+    <row r="778" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A778" t="s">
         <v>121</v>
       </c>
@@ -30328,7 +30352,7 @@
         <v>2233</v>
       </c>
     </row>
-    <row r="779" spans="1:15">
+    <row r="779" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A779" t="s">
         <v>122</v>
       </c>
@@ -30351,7 +30375,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="780" spans="1:15">
+    <row r="780" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A780" t="s">
         <v>122</v>
       </c>
@@ -30374,7 +30398,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="781" spans="1:15">
+    <row r="781" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A781" t="s">
         <v>122</v>
       </c>
@@ -30421,7 +30445,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="782" spans="1:15">
+    <row r="782" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A782" t="s">
         <v>122</v>
       </c>
@@ -30462,7 +30486,7 @@
         <v>2082</v>
       </c>
     </row>
-    <row r="783" spans="1:15">
+    <row r="783" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A783" t="s">
         <v>122</v>
       </c>
@@ -30503,7 +30527,7 @@
         <v>2082</v>
       </c>
     </row>
-    <row r="784" spans="1:15">
+    <row r="784" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A784" t="s">
         <v>123</v>
       </c>
@@ -30523,7 +30547,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="785" spans="1:15">
+    <row r="785" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A785" t="s">
         <v>123</v>
       </c>
@@ -30543,7 +30567,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="786" spans="1:15">
+    <row r="786" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A786" t="s">
         <v>123</v>
       </c>
@@ -30563,7 +30587,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="787" spans="1:15">
+    <row r="787" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A787" t="s">
         <v>123</v>
       </c>
@@ -30583,7 +30607,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="788" spans="1:15">
+    <row r="788" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A788" t="s">
         <v>124</v>
       </c>
@@ -30624,7 +30648,7 @@
         <v>2234</v>
       </c>
     </row>
-    <row r="789" spans="1:15">
+    <row r="789" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A789" t="s">
         <v>124</v>
       </c>
@@ -30647,7 +30671,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="790" spans="1:15">
+    <row r="790" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A790" t="s">
         <v>124</v>
       </c>
@@ -30670,7 +30694,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="791" spans="1:15">
+    <row r="791" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A791" t="s">
         <v>124</v>
       </c>
@@ -30717,7 +30741,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="792" spans="1:15">
+    <row r="792" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A792" t="s">
         <v>124</v>
       </c>
@@ -30758,7 +30782,7 @@
         <v>1977</v>
       </c>
     </row>
-    <row r="793" spans="1:15">
+    <row r="793" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A793" t="s">
         <v>124</v>
       </c>
@@ -30781,7 +30805,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="794" spans="1:15">
+    <row r="794" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A794" t="s">
         <v>124</v>
       </c>
@@ -30810,7 +30834,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="795" spans="1:15">
+    <row r="795" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A795" t="s">
         <v>124</v>
       </c>
@@ -30845,7 +30869,7 @@
         <v>1911</v>
       </c>
     </row>
-    <row r="796" spans="1:15">
+    <row r="796" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A796" t="s">
         <v>124</v>
       </c>
@@ -30880,7 +30904,7 @@
         <v>1913</v>
       </c>
     </row>
-    <row r="797" spans="1:15">
+    <row r="797" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A797" t="s">
         <v>124</v>
       </c>
@@ -30918,7 +30942,7 @@
         <v>2235</v>
       </c>
     </row>
-    <row r="798" spans="1:15">
+    <row r="798" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A798" t="s">
         <v>125</v>
       </c>
@@ -30929,7 +30953,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="799" spans="1:15">
+    <row r="799" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A799" t="s">
         <v>126</v>
       </c>
@@ -30940,7 +30964,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="800" spans="1:15">
+    <row r="800" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A800" t="s">
         <v>127</v>
       </c>
@@ -30951,7 +30975,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="801" spans="1:15">
+    <row r="801" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A801" t="s">
         <v>128</v>
       </c>
@@ -30986,7 +31010,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="802" spans="1:15">
+    <row r="802" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A802" t="s">
         <v>128</v>
       </c>
@@ -31027,7 +31051,7 @@
         <v>2236</v>
       </c>
     </row>
-    <row r="803" spans="1:15">
+    <row r="803" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A803" t="s">
         <v>128</v>
       </c>
@@ -31062,7 +31086,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="804" spans="1:15">
+    <row r="804" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A804" t="s">
         <v>128</v>
       </c>
@@ -31085,7 +31109,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="805" spans="1:15">
+    <row r="805" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A805" t="s">
         <v>128</v>
       </c>
@@ -31108,7 +31132,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="806" spans="1:15">
+    <row r="806" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A806" t="s">
         <v>128</v>
       </c>
@@ -31149,7 +31173,7 @@
         <v>2237</v>
       </c>
     </row>
-    <row r="807" spans="1:15">
+    <row r="807" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A807" t="s">
         <v>128</v>
       </c>
@@ -31190,7 +31214,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="808" spans="1:15">
+    <row r="808" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A808" t="s">
         <v>128</v>
       </c>
@@ -31213,7 +31237,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="809" spans="1:15">
+    <row r="809" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A809" t="s">
         <v>128</v>
       </c>
@@ -31254,7 +31278,7 @@
         <v>1977</v>
       </c>
     </row>
-    <row r="810" spans="1:15">
+    <row r="810" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A810" t="s">
         <v>128</v>
       </c>
@@ -31295,7 +31319,7 @@
         <v>1952</v>
       </c>
     </row>
-    <row r="811" spans="1:15">
+    <row r="811" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A811" t="s">
         <v>128</v>
       </c>
@@ -31333,7 +31357,7 @@
         <v>2082</v>
       </c>
     </row>
-    <row r="812" spans="1:15">
+    <row r="812" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A812" t="s">
         <v>129</v>
       </c>
@@ -31374,7 +31398,7 @@
         <v>2238</v>
       </c>
     </row>
-    <row r="813" spans="1:15">
+    <row r="813" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A813" t="s">
         <v>129</v>
       </c>
@@ -31412,7 +31436,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="814" spans="1:15">
+    <row r="814" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A814" t="s">
         <v>129</v>
       </c>
@@ -31447,7 +31471,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="815" spans="1:15">
+    <row r="815" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A815" t="s">
         <v>129</v>
       </c>
@@ -31467,7 +31491,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="816" spans="1:15">
+    <row r="816" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A816" t="s">
         <v>129</v>
       </c>
@@ -31508,7 +31532,7 @@
         <v>2239</v>
       </c>
     </row>
-    <row r="817" spans="1:15">
+    <row r="817" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A817" t="s">
         <v>129</v>
       </c>
@@ -31549,7 +31573,7 @@
         <v>2240</v>
       </c>
     </row>
-    <row r="818" spans="1:15">
+    <row r="818" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A818" t="s">
         <v>129</v>
       </c>
@@ -31590,7 +31614,7 @@
         <v>2241</v>
       </c>
     </row>
-    <row r="819" spans="1:15">
+    <row r="819" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A819" t="s">
         <v>129</v>
       </c>
@@ -31628,7 +31652,7 @@
         <v>2082</v>
       </c>
     </row>
-    <row r="820" spans="1:15">
+    <row r="820" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A820" t="s">
         <v>129</v>
       </c>
@@ -31666,7 +31690,7 @@
         <v>2082</v>
       </c>
     </row>
-    <row r="821" spans="1:15">
+    <row r="821" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A821" t="s">
         <v>129</v>
       </c>
@@ -31707,7 +31731,7 @@
         <v>2082</v>
       </c>
     </row>
-    <row r="822" spans="1:15">
+    <row r="822" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A822" t="s">
         <v>129</v>
       </c>
@@ -31746,18 +31770,29 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O822"/>
+  <autoFilter ref="A1:O822" xr:uid="{00000000-0009-0000-0000-000001000000}">
+    <filterColumn colId="10">
+      <filters blank="1">
+        <filter val="NO CHANGE"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="14">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <conditionalFormatting sqref="E2:E822">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"groen: geen wijzigingen"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"geel: patch wijziging"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"oranje: minor change"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>"rood: major change"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/zib2017-2020/all-translations.xlsx
+++ b/zib2017-2020/all-translations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcd\Dropbox\development\Zibtranslate\zib2017-2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A39D37D8-B20C-4791-847E-416D9BB57E77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A82B083C-259A-46DF-A124-717E67B2E525}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6800,7 +6800,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6810,6 +6810,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6841,12 +6847,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7198,14 +7205,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:O822"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="K128" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="J803" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O128" sqref="O128"/>
+      <selection pane="bottomRight" activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7264,7 +7270,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -7305,7 +7311,7 @@
         <v>2079</v>
       </c>
     </row>
-    <row r="3" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -7325,7 +7331,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -7345,7 +7351,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="5" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -7365,7 +7371,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="6" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -7385,7 +7391,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="7" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -7411,7 +7417,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="8" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -7437,7 +7443,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="9" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -7463,7 +7469,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="10" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -7483,7 +7489,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="11" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -7503,7 +7509,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="12" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -7523,7 +7529,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="13" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -7564,7 +7570,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="14" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -7590,7 +7596,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="15" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -7613,7 +7619,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="16" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -7636,7 +7642,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="17" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -7659,7 +7665,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="18" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -7682,7 +7688,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="19" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -7711,7 +7717,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="20" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -7734,7 +7740,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="21" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -7757,7 +7763,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="22" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -7804,8 +7810,8 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="23" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B23" t="s">
@@ -7832,20 +7838,22 @@
       <c r="I23" t="s">
         <v>1618</v>
       </c>
-      <c r="J23" t="s">
+      <c r="J23" s="3" t="s">
         <v>1764</v>
       </c>
-      <c r="K23" t="s">
+      <c r="K23" s="3" t="s">
         <v>1899</v>
       </c>
       <c r="L23" t="s">
         <v>1912</v>
       </c>
+      <c r="M23" s="3"/>
       <c r="N23" t="s">
         <v>1912</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>17</v>
       </c>
@@ -7868,7 +7876,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="25" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>17</v>
       </c>
@@ -7897,7 +7905,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="26" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>17</v>
       </c>
@@ -7920,7 +7928,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="27" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>17</v>
       </c>
@@ -7943,7 +7951,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="28" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>18</v>
       </c>
@@ -7966,7 +7974,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="29" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>18</v>
       </c>
@@ -8013,7 +8021,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="30" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>18</v>
       </c>
@@ -8036,7 +8044,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="31" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>18</v>
       </c>
@@ -8059,7 +8067,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="32" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>18</v>
       </c>
@@ -8082,7 +8090,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="33" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>18</v>
       </c>
@@ -8105,7 +8113,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="34" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>19</v>
       </c>
@@ -8140,7 +8148,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="35" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>19</v>
       </c>
@@ -8163,7 +8171,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="36" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>19</v>
       </c>
@@ -8198,7 +8206,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="37" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>19</v>
       </c>
@@ -8239,7 +8247,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="38" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>19</v>
       </c>
@@ -8286,7 +8294,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="39" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>19</v>
       </c>
@@ -8309,7 +8317,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="40" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>19</v>
       </c>
@@ -8338,7 +8346,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="41" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>19</v>
       </c>
@@ -8376,7 +8384,7 @@
         <v>2082</v>
       </c>
     </row>
-    <row r="42" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>19</v>
       </c>
@@ -8414,7 +8422,7 @@
         <v>2082</v>
       </c>
     </row>
-    <row r="43" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>20</v>
       </c>
@@ -8425,7 +8433,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="44" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>21</v>
       </c>
@@ -8448,7 +8456,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="45" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>21</v>
       </c>
@@ -8495,7 +8503,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="46" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>21</v>
       </c>
@@ -8524,7 +8532,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="47" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>21</v>
       </c>
@@ -8553,7 +8561,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="48" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>21</v>
       </c>
@@ -8576,7 +8584,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="49" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>21</v>
       </c>
@@ -8605,7 +8613,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="50" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>21</v>
       </c>
@@ -8628,7 +8636,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="51" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>21</v>
       </c>
@@ -8651,7 +8659,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="52" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>21</v>
       </c>
@@ -8674,7 +8682,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="53" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>21</v>
       </c>
@@ -8721,7 +8729,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="54" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>21</v>
       </c>
@@ -8768,7 +8776,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="55" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>21</v>
       </c>
@@ -8791,7 +8799,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="56" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>21</v>
       </c>
@@ -8820,7 +8828,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="57" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>21</v>
       </c>
@@ -8849,7 +8857,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="58" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>21</v>
       </c>
@@ -8872,7 +8880,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="59" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>22</v>
       </c>
@@ -8883,7 +8891,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="60" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>23</v>
       </c>
@@ -8903,7 +8911,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="61" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>23</v>
       </c>
@@ -8938,7 +8946,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="62" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>23</v>
       </c>
@@ -8958,7 +8966,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="63" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>23</v>
       </c>
@@ -8978,7 +8986,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="64" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>23</v>
       </c>
@@ -8998,7 +9006,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>23</v>
       </c>
@@ -9018,7 +9026,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>23</v>
       </c>
@@ -9038,7 +9046,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>23</v>
       </c>
@@ -9058,7 +9066,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>23</v>
       </c>
@@ -9078,7 +9086,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>24</v>
       </c>
@@ -9098,7 +9106,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>24</v>
       </c>
@@ -9118,7 +9126,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>24</v>
       </c>
@@ -9144,7 +9152,7 @@
         <v>1374</v>
       </c>
     </row>
-    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>24</v>
       </c>
@@ -9170,7 +9178,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>24</v>
       </c>
@@ -9196,7 +9204,7 @@
         <v>1376</v>
       </c>
     </row>
-    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>24</v>
       </c>
@@ -9222,7 +9230,7 @@
         <v>1377</v>
       </c>
     </row>
-    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>24</v>
       </c>
@@ -9248,7 +9256,7 @@
         <v>1378</v>
       </c>
     </row>
-    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>24</v>
       </c>
@@ -9274,7 +9282,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>24</v>
       </c>
@@ -9300,7 +9308,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>24</v>
       </c>
@@ -9326,7 +9334,7 @@
         <v>1381</v>
       </c>
     </row>
-    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>24</v>
       </c>
@@ -9352,7 +9360,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>24</v>
       </c>
@@ -9378,7 +9386,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="81" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>25</v>
       </c>
@@ -9389,7 +9397,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="82" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>26</v>
       </c>
@@ -9400,7 +9408,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="83" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>27</v>
       </c>
@@ -9411,7 +9419,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="84" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>28</v>
       </c>
@@ -9431,7 +9439,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="85" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>28</v>
       </c>
@@ -9469,7 +9477,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="86" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>28</v>
       </c>
@@ -9489,7 +9497,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="87" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>28</v>
       </c>
@@ -9509,7 +9517,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="88" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>28</v>
       </c>
@@ -9550,7 +9558,7 @@
         <v>2083</v>
       </c>
     </row>
-    <row r="89" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>29</v>
       </c>
@@ -9585,7 +9593,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="90" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>29</v>
       </c>
@@ -9605,7 +9613,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="91" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>29</v>
       </c>
@@ -9625,7 +9633,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="92" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>29</v>
       </c>
@@ -9660,7 +9668,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="93" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>30</v>
       </c>
@@ -9683,7 +9691,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="94" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>30</v>
       </c>
@@ -9718,7 +9726,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="95" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>30</v>
       </c>
@@ -9741,7 +9749,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="96" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>30</v>
       </c>
@@ -9764,7 +9772,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="97" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>30</v>
       </c>
@@ -9787,7 +9795,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="98" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>30</v>
       </c>
@@ -9810,7 +9818,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="99" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>30</v>
       </c>
@@ -9833,7 +9841,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="100" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>30</v>
       </c>
@@ -9856,7 +9864,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="101" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>30</v>
       </c>
@@ -9879,7 +9887,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="102" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>30</v>
       </c>
@@ -9902,7 +9910,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="103" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>30</v>
       </c>
@@ -9925,7 +9933,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="104" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>30</v>
       </c>
@@ -9948,7 +9956,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="105" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>30</v>
       </c>
@@ -9971,7 +9979,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="106" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>30</v>
       </c>
@@ -9994,7 +10002,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="107" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>30</v>
       </c>
@@ -10023,7 +10031,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="108" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>30</v>
       </c>
@@ -10046,7 +10054,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="109" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>30</v>
       </c>
@@ -10069,7 +10077,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="110" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>31</v>
       </c>
@@ -10110,7 +10118,7 @@
         <v>2084</v>
       </c>
     </row>
-    <row r="111" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>31</v>
       </c>
@@ -10136,7 +10144,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="112" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>31</v>
       </c>
@@ -10156,7 +10164,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="113" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>31</v>
       </c>
@@ -10182,7 +10190,7 @@
         <v>1386</v>
       </c>
     </row>
-    <row r="114" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>31</v>
       </c>
@@ -10202,7 +10210,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="115" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>31</v>
       </c>
@@ -10222,7 +10230,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="116" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>31</v>
       </c>
@@ -10242,7 +10250,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="117" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>32</v>
       </c>
@@ -10283,7 +10291,7 @@
         <v>2085</v>
       </c>
     </row>
-    <row r="118" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>32</v>
       </c>
@@ -10306,7 +10314,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="119" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>32</v>
       </c>
@@ -10329,7 +10337,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="120" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>32</v>
       </c>
@@ -10352,7 +10360,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="121" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>32</v>
       </c>
@@ -10375,7 +10383,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="122" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>32</v>
       </c>
@@ -10398,7 +10406,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="123" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>32</v>
       </c>
@@ -10445,7 +10453,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="124" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>32</v>
       </c>
@@ -10468,7 +10476,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="125" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>32</v>
       </c>
@@ -10497,7 +10505,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="126" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>32</v>
       </c>
@@ -10526,7 +10534,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="127" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>32</v>
       </c>
@@ -10572,7 +10580,7 @@
         <v>2086</v>
       </c>
     </row>
-    <row r="129" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>33</v>
       </c>
@@ -10598,7 +10606,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="130" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>33</v>
       </c>
@@ -10618,7 +10626,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="131" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>33</v>
       </c>
@@ -10665,7 +10673,7 @@
         <v>2087</v>
       </c>
     </row>
-    <row r="132" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>33</v>
       </c>
@@ -10685,7 +10693,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="133" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>33</v>
       </c>
@@ -10705,7 +10713,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="134" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>33</v>
       </c>
@@ -10725,7 +10733,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="135" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>33</v>
       </c>
@@ -10766,7 +10774,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="136" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>33</v>
       </c>
@@ -10813,8 +10821,8 @@
         <v>2088</v>
       </c>
     </row>
-    <row r="137" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A137" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B137" t="s">
@@ -10847,8 +10855,9 @@
       <c r="N137" t="s">
         <v>1913</v>
       </c>
-    </row>
-    <row r="138" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O137" s="3"/>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>34</v>
       </c>
@@ -10883,7 +10892,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="139" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>34</v>
       </c>
@@ -10906,7 +10915,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="140" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>34</v>
       </c>
@@ -10953,7 +10962,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="141" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>35</v>
       </c>
@@ -10994,7 +11003,7 @@
         <v>2089</v>
       </c>
     </row>
-    <row r="142" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>35</v>
       </c>
@@ -11035,7 +11044,7 @@
         <v>2090</v>
       </c>
     </row>
-    <row r="143" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>35</v>
       </c>
@@ -11076,7 +11085,7 @@
         <v>2091</v>
       </c>
     </row>
-    <row r="144" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>35</v>
       </c>
@@ -11117,7 +11126,7 @@
         <v>2092</v>
       </c>
     </row>
-    <row r="145" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>35</v>
       </c>
@@ -11158,7 +11167,7 @@
         <v>2093</v>
       </c>
     </row>
-    <row r="146" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>35</v>
       </c>
@@ -11199,7 +11208,7 @@
         <v>2094</v>
       </c>
     </row>
-    <row r="147" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>35</v>
       </c>
@@ -11240,7 +11249,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="148" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>35</v>
       </c>
@@ -11281,7 +11290,7 @@
         <v>2096</v>
       </c>
     </row>
-    <row r="149" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>35</v>
       </c>
@@ -11322,7 +11331,7 @@
         <v>2097</v>
       </c>
     </row>
-    <row r="150" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>35</v>
       </c>
@@ -11363,7 +11372,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="151" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>35</v>
       </c>
@@ -11404,7 +11413,7 @@
         <v>2099</v>
       </c>
     </row>
-    <row r="152" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>35</v>
       </c>
@@ -11445,7 +11454,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="153" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>35</v>
       </c>
@@ -11465,7 +11474,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="154" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>35</v>
       </c>
@@ -11485,7 +11494,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="155" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>36</v>
       </c>
@@ -11526,7 +11535,7 @@
         <v>2101</v>
       </c>
     </row>
-    <row r="156" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>36</v>
       </c>
@@ -11567,7 +11576,7 @@
         <v>2102</v>
       </c>
     </row>
-    <row r="157" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>36</v>
       </c>
@@ -11614,7 +11623,7 @@
         <v>2103</v>
       </c>
     </row>
-    <row r="158" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>36</v>
       </c>
@@ -11661,7 +11670,7 @@
         <v>2104</v>
       </c>
     </row>
-    <row r="159" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>36</v>
       </c>
@@ -11708,7 +11717,7 @@
         <v>2105</v>
       </c>
     </row>
-    <row r="160" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>36</v>
       </c>
@@ -11755,7 +11764,7 @@
         <v>2106</v>
       </c>
     </row>
-    <row r="161" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>36</v>
       </c>
@@ -11802,7 +11811,7 @@
         <v>2107</v>
       </c>
     </row>
-    <row r="162" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>36</v>
       </c>
@@ -11849,7 +11858,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="163" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>36</v>
       </c>
@@ -11896,7 +11905,7 @@
         <v>2109</v>
       </c>
     </row>
-    <row r="164" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>36</v>
       </c>
@@ -11916,7 +11925,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="165" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>36</v>
       </c>
@@ -11936,7 +11945,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="166" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>37</v>
       </c>
@@ -11971,7 +11980,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="167" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>37</v>
       </c>
@@ -12044,7 +12053,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="169" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>37</v>
       </c>
@@ -12082,7 +12091,7 @@
         <v>2111</v>
       </c>
     </row>
-    <row r="170" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>37</v>
       </c>
@@ -12117,7 +12126,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="171" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>37</v>
       </c>
@@ -12155,7 +12164,7 @@
         <v>2111</v>
       </c>
     </row>
-    <row r="172" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>37</v>
       </c>
@@ -12190,7 +12199,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="173" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>37</v>
       </c>
@@ -12231,7 +12240,7 @@
         <v>2112</v>
       </c>
     </row>
-    <row r="174" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>37</v>
       </c>
@@ -12266,7 +12275,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="175" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>37</v>
       </c>
@@ -12289,7 +12298,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="176" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>37</v>
       </c>
@@ -12312,7 +12321,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="177" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>37</v>
       </c>
@@ -12353,7 +12362,7 @@
         <v>2112</v>
       </c>
     </row>
-    <row r="178" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>37</v>
       </c>
@@ -12388,7 +12397,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="179" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>37</v>
       </c>
@@ -12429,7 +12438,7 @@
         <v>2112</v>
       </c>
     </row>
-    <row r="180" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>37</v>
       </c>
@@ -12470,7 +12479,7 @@
         <v>2113</v>
       </c>
     </row>
-    <row r="181" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>37</v>
       </c>
@@ -12499,7 +12508,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="182" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>37</v>
       </c>
@@ -12528,7 +12537,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="183" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>37</v>
       </c>
@@ -12566,7 +12575,7 @@
         <v>2082</v>
       </c>
     </row>
-    <row r="184" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>38</v>
       </c>
@@ -12589,7 +12598,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="185" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>38</v>
       </c>
@@ -12612,7 +12621,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="186" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>38</v>
       </c>
@@ -12635,7 +12644,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="187" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>38</v>
       </c>
@@ -12658,7 +12667,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="188" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>38</v>
       </c>
@@ -12705,7 +12714,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="189" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>38</v>
       </c>
@@ -12734,7 +12743,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="190" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>38</v>
       </c>
@@ -12757,7 +12766,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="191" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>38</v>
       </c>
@@ -12786,7 +12795,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="192" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>38</v>
       </c>
@@ -12833,7 +12842,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="193" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>38</v>
       </c>
@@ -12871,7 +12880,7 @@
         <v>2082</v>
       </c>
     </row>
-    <row r="194" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>39</v>
       </c>
@@ -12906,7 +12915,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="195" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>39</v>
       </c>
@@ -12947,7 +12956,7 @@
         <v>2114</v>
       </c>
     </row>
-    <row r="196" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>39</v>
       </c>
@@ -12994,7 +13003,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="197" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>39</v>
       </c>
@@ -13023,7 +13032,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="198" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>39</v>
       </c>
@@ -13046,7 +13055,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="199" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>39</v>
       </c>
@@ -13087,7 +13096,7 @@
         <v>2115</v>
       </c>
     </row>
-    <row r="200" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>39</v>
       </c>
@@ -13110,7 +13119,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="201" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>40</v>
       </c>
@@ -13151,7 +13160,7 @@
         <v>2116</v>
       </c>
     </row>
-    <row r="202" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>40</v>
       </c>
@@ -13177,7 +13186,7 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="203" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>40</v>
       </c>
@@ -13197,7 +13206,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="204" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>40</v>
       </c>
@@ -13217,7 +13226,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="205" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>40</v>
       </c>
@@ -13237,7 +13246,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="206" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>40</v>
       </c>
@@ -13257,7 +13266,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="207" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>40</v>
       </c>
@@ -13283,7 +13292,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="208" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>40</v>
       </c>
@@ -13309,7 +13318,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="209" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>41</v>
       </c>
@@ -13320,7 +13329,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="210" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>42</v>
       </c>
@@ -13340,7 +13349,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="211" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>42</v>
       </c>
@@ -13360,7 +13369,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="212" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>42</v>
       </c>
@@ -13380,7 +13389,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="213" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>42</v>
       </c>
@@ -13427,7 +13436,7 @@
         <v>2117</v>
       </c>
     </row>
-    <row r="214" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>42</v>
       </c>
@@ -13447,7 +13456,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="215" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>42</v>
       </c>
@@ -13467,7 +13476,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="216" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>42</v>
       </c>
@@ -13487,7 +13496,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="217" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>42</v>
       </c>
@@ -13507,7 +13516,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="218" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>42</v>
       </c>
@@ -13527,7 +13536,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="219" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>42</v>
       </c>
@@ -13547,7 +13556,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="220" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>42</v>
       </c>
@@ -13594,7 +13603,7 @@
         <v>2118</v>
       </c>
     </row>
-    <row r="221" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>43</v>
       </c>
@@ -13614,7 +13623,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="222" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>43</v>
       </c>
@@ -13634,7 +13643,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="223" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>43</v>
       </c>
@@ -13654,7 +13663,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="224" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>43</v>
       </c>
@@ -13674,7 +13683,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="225" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>43</v>
       </c>
@@ -13709,7 +13718,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="226" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>43</v>
       </c>
@@ -13744,7 +13753,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="227" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>43</v>
       </c>
@@ -13779,7 +13788,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="228" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>43</v>
       </c>
@@ -13814,7 +13823,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="229" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>43</v>
       </c>
@@ -13849,7 +13858,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="230" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>43</v>
       </c>
@@ -13884,7 +13893,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="231" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>43</v>
       </c>
@@ -13919,7 +13928,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="232" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>43</v>
       </c>
@@ -13954,7 +13963,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="233" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>43</v>
       </c>
@@ -13989,7 +13998,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="234" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>43</v>
       </c>
@@ -14024,7 +14033,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="235" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>43</v>
       </c>
@@ -14059,7 +14068,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="236" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>43</v>
       </c>
@@ -14094,7 +14103,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="237" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>43</v>
       </c>
@@ -14129,7 +14138,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="238" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>44</v>
       </c>
@@ -14170,7 +14179,7 @@
         <v>2119</v>
       </c>
     </row>
-    <row r="239" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>44</v>
       </c>
@@ -14199,7 +14208,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="240" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>44</v>
       </c>
@@ -14246,7 +14255,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="241" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>44</v>
       </c>
@@ -14275,7 +14284,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="242" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>44</v>
       </c>
@@ -14298,7 +14307,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="243" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>44</v>
       </c>
@@ -14321,7 +14330,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="244" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>44</v>
       </c>
@@ -14344,7 +14353,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="245" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>44</v>
       </c>
@@ -14367,7 +14376,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="246" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>44</v>
       </c>
@@ -14390,7 +14399,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="247" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>45</v>
       </c>
@@ -14410,7 +14419,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="248" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>45</v>
       </c>
@@ -14430,7 +14439,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="249" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>45</v>
       </c>
@@ -14450,7 +14459,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="250" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>45</v>
       </c>
@@ -14476,7 +14485,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="251" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>45</v>
       </c>
@@ -14496,7 +14505,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="252" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>45</v>
       </c>
@@ -14516,7 +14525,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="253" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>45</v>
       </c>
@@ -14536,7 +14545,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="254" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>45</v>
       </c>
@@ -14556,7 +14565,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="255" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>45</v>
       </c>
@@ -14576,7 +14585,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="256" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>45</v>
       </c>
@@ -14596,7 +14605,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="257" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>46</v>
       </c>
@@ -14607,7 +14616,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="258" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>47</v>
       </c>
@@ -14648,7 +14657,7 @@
         <v>2120</v>
       </c>
     </row>
-    <row r="259" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>47</v>
       </c>
@@ -14689,7 +14698,7 @@
         <v>2121</v>
       </c>
     </row>
-    <row r="260" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>47</v>
       </c>
@@ -14736,7 +14745,7 @@
         <v>2122</v>
       </c>
     </row>
-    <row r="261" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>47</v>
       </c>
@@ -14783,7 +14792,7 @@
         <v>2123</v>
       </c>
     </row>
-    <row r="262" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>47</v>
       </c>
@@ -14830,7 +14839,7 @@
         <v>2124</v>
       </c>
     </row>
-    <row r="263" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>47</v>
       </c>
@@ -14877,7 +14886,7 @@
         <v>2125</v>
       </c>
     </row>
-    <row r="264" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>47</v>
       </c>
@@ -14924,7 +14933,7 @@
         <v>2126</v>
       </c>
     </row>
-    <row r="265" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>47</v>
       </c>
@@ -14944,7 +14953,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="266" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>47</v>
       </c>
@@ -14964,7 +14973,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="267" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>48</v>
       </c>
@@ -15007,7 +15016,7 @@
         <v>2127</v>
       </c>
     </row>
-    <row r="269" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>48</v>
       </c>
@@ -15129,7 +15138,7 @@
         <v>2130</v>
       </c>
     </row>
-    <row r="273" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>49</v>
       </c>
@@ -15149,7 +15158,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="274" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>49</v>
       </c>
@@ -15169,7 +15178,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="275" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>49</v>
       </c>
@@ -15195,7 +15204,7 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="276" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>49</v>
       </c>
@@ -15221,7 +15230,7 @@
         <v>1426</v>
       </c>
     </row>
-    <row r="277" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>49</v>
       </c>
@@ -15241,7 +15250,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="278" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>50</v>
       </c>
@@ -15264,7 +15273,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="279" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>50</v>
       </c>
@@ -15311,7 +15320,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="280" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>50</v>
       </c>
@@ -15352,7 +15361,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="281" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>50</v>
       </c>
@@ -15399,7 +15408,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="282" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>50</v>
       </c>
@@ -15422,7 +15431,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="283" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>50</v>
       </c>
@@ -15445,7 +15454,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="284" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>50</v>
       </c>
@@ -15468,7 +15477,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="285" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>51</v>
       </c>
@@ -15479,7 +15488,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="286" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>52</v>
       </c>
@@ -15520,7 +15529,7 @@
         <v>2131</v>
       </c>
     </row>
-    <row r="287" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>52</v>
       </c>
@@ -15540,7 +15549,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="288" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>52</v>
       </c>
@@ -15560,7 +15569,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="289" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>52</v>
       </c>
@@ -15580,7 +15589,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="290" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>52</v>
       </c>
@@ -15621,7 +15630,7 @@
         <v>2132</v>
       </c>
     </row>
-    <row r="291" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>52</v>
       </c>
@@ -15641,7 +15650,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="292" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>52</v>
       </c>
@@ -15661,7 +15670,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="293" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>52</v>
       </c>
@@ -15708,7 +15717,7 @@
         <v>2133</v>
       </c>
     </row>
-    <row r="294" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>52</v>
       </c>
@@ -15749,7 +15758,7 @@
         <v>2134</v>
       </c>
     </row>
-    <row r="295" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>52</v>
       </c>
@@ -15769,7 +15778,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="296" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>52</v>
       </c>
@@ -15807,7 +15816,7 @@
         <v>2082</v>
       </c>
     </row>
-    <row r="297" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>53</v>
       </c>
@@ -15848,7 +15857,7 @@
         <v>2135</v>
       </c>
     </row>
-    <row r="298" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>53</v>
       </c>
@@ -15895,7 +15904,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="299" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>53</v>
       </c>
@@ -15915,7 +15924,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="300" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>53</v>
       </c>
@@ -15935,7 +15944,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="301" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>53</v>
       </c>
@@ -15955,7 +15964,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="302" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>53</v>
       </c>
@@ -15975,7 +15984,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="303" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>53</v>
       </c>
@@ -16016,7 +16025,7 @@
         <v>2136</v>
       </c>
     </row>
-    <row r="304" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>53</v>
       </c>
@@ -16036,7 +16045,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="305" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>53</v>
       </c>
@@ -16056,7 +16065,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="306" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>53</v>
       </c>
@@ -16076,7 +16085,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="307" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>53</v>
       </c>
@@ -16096,7 +16105,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="308" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>54</v>
       </c>
@@ -16116,7 +16125,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="309" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>54</v>
       </c>
@@ -16142,7 +16151,7 @@
         <v>1432</v>
       </c>
     </row>
-    <row r="310" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>54</v>
       </c>
@@ -16189,7 +16198,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="311" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>54</v>
       </c>
@@ -16236,7 +16245,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="312" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>54</v>
       </c>
@@ -16256,7 +16265,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="313" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>54</v>
       </c>
@@ -16276,7 +16285,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="314" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>54</v>
       </c>
@@ -16317,7 +16326,7 @@
         <v>2137</v>
       </c>
     </row>
-    <row r="315" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>54</v>
       </c>
@@ -16343,7 +16352,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="316" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>55</v>
       </c>
@@ -16384,7 +16393,7 @@
         <v>2138</v>
       </c>
     </row>
-    <row r="317" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>55</v>
       </c>
@@ -16425,7 +16434,7 @@
         <v>2139</v>
       </c>
     </row>
-    <row r="318" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>55</v>
       </c>
@@ -16445,7 +16454,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="319" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>55</v>
       </c>
@@ -16465,7 +16474,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="320" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>55</v>
       </c>
@@ -16512,7 +16521,7 @@
         <v>2140</v>
       </c>
     </row>
-    <row r="321" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>55</v>
       </c>
@@ -16559,7 +16568,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="322" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>55</v>
       </c>
@@ -16606,7 +16615,7 @@
         <v>2141</v>
       </c>
     </row>
-    <row r="323" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>55</v>
       </c>
@@ -16653,7 +16662,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="324" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>55</v>
       </c>
@@ -16694,7 +16703,7 @@
         <v>2082</v>
       </c>
     </row>
-    <row r="325" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>56</v>
       </c>
@@ -16714,7 +16723,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="326" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>56</v>
       </c>
@@ -16740,7 +16749,7 @@
         <v>1438</v>
       </c>
     </row>
-    <row r="327" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>56</v>
       </c>
@@ -16760,7 +16769,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="328" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>56</v>
       </c>
@@ -16807,7 +16816,7 @@
         <v>2142</v>
       </c>
     </row>
-    <row r="329" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>56</v>
       </c>
@@ -16827,7 +16836,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="330" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>56</v>
       </c>
@@ -16847,7 +16856,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="331" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>56</v>
       </c>
@@ -16894,7 +16903,7 @@
         <v>2143</v>
       </c>
     </row>
-    <row r="332" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>57</v>
       </c>
@@ -16914,7 +16923,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="333" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>57</v>
       </c>
@@ -16934,7 +16943,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="334" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>57</v>
       </c>
@@ -16954,7 +16963,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="335" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>57</v>
       </c>
@@ -16974,7 +16983,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="336" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>57</v>
       </c>
@@ -17009,7 +17018,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="337" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>57</v>
       </c>
@@ -17029,7 +17038,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="338" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>57</v>
       </c>
@@ -17049,7 +17058,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="339" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>57</v>
       </c>
@@ -17069,7 +17078,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="340" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>57</v>
       </c>
@@ -17095,7 +17104,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="341" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>58</v>
       </c>
@@ -17115,7 +17124,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="342" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>58</v>
       </c>
@@ -17135,7 +17144,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="343" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>58</v>
       </c>
@@ -17182,7 +17191,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="344" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>58</v>
       </c>
@@ -17202,7 +17211,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="345" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>58</v>
       </c>
@@ -17222,7 +17231,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="346" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>58</v>
       </c>
@@ -17242,7 +17251,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="347" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>58</v>
       </c>
@@ -17262,7 +17271,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="348" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>58</v>
       </c>
@@ -17288,7 +17297,7 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="349" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>58</v>
       </c>
@@ -17308,7 +17317,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="350" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>58</v>
       </c>
@@ -17334,7 +17343,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="351" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>58</v>
       </c>
@@ -17354,7 +17363,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="352" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>58</v>
       </c>
@@ -17374,7 +17383,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="353" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>59</v>
       </c>
@@ -17385,7 +17394,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="354" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>60</v>
       </c>
@@ -17408,7 +17417,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="355" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>60</v>
       </c>
@@ -17431,7 +17440,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="356" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>60</v>
       </c>
@@ -17460,7 +17469,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="357" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>60</v>
       </c>
@@ -17489,7 +17498,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="358" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>60</v>
       </c>
@@ -17512,7 +17521,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="359" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>60</v>
       </c>
@@ -17541,7 +17550,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="360" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>60</v>
       </c>
@@ -17570,8 +17579,8 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="361" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A361" t="s">
+    <row r="361" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A361" s="3" t="s">
         <v>60</v>
       </c>
       <c r="B361" t="s">
@@ -17601,7 +17610,7 @@
       <c r="J361" t="s">
         <v>1811</v>
       </c>
-      <c r="K361" t="s">
+      <c r="K361" s="3" t="s">
         <v>1899</v>
       </c>
       <c r="L361" t="s">
@@ -17613,11 +17622,11 @@
       <c r="N361" t="s">
         <v>1911</v>
       </c>
-      <c r="O361" t="s">
+      <c r="O361" s="3" t="s">
         <v>2038</v>
       </c>
     </row>
-    <row r="362" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>60</v>
       </c>
@@ -17643,7 +17652,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="363" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>60</v>
       </c>
@@ -17666,7 +17675,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="364" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>60</v>
       </c>
@@ -17689,7 +17698,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="365" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>60</v>
       </c>
@@ -17712,7 +17721,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="366" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>60</v>
       </c>
@@ -17735,7 +17744,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="367" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>60</v>
       </c>
@@ -17776,7 +17785,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="368" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>60</v>
       </c>
@@ -17817,7 +17826,7 @@
         <v>1952</v>
       </c>
     </row>
-    <row r="369" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>60</v>
       </c>
@@ -17864,7 +17873,7 @@
         <v>2144</v>
       </c>
     </row>
-    <row r="370" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>60</v>
       </c>
@@ -17899,7 +17908,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="371" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>60</v>
       </c>
@@ -17934,7 +17943,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="372" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>60</v>
       </c>
@@ -17969,7 +17978,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="373" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>60</v>
       </c>
@@ -17989,7 +17998,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="374" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>60</v>
       </c>
@@ -18018,7 +18027,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="375" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>60</v>
       </c>
@@ -18041,7 +18050,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="376" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>60</v>
       </c>
@@ -18082,8 +18091,8 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="377" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A377" t="s">
+    <row r="377" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A377" s="3" t="s">
         <v>60</v>
       </c>
       <c r="B377" t="s">
@@ -18120,7 +18129,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="378" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>60</v>
       </c>
@@ -18143,7 +18152,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="379" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>60</v>
       </c>
@@ -18190,7 +18199,7 @@
         <v>2145</v>
       </c>
     </row>
-    <row r="380" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>60</v>
       </c>
@@ -18237,7 +18246,7 @@
         <v>2146</v>
       </c>
     </row>
-    <row r="381" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>60</v>
       </c>
@@ -18284,7 +18293,7 @@
         <v>2147</v>
       </c>
     </row>
-    <row r="382" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>60</v>
       </c>
@@ -18307,7 +18316,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="383" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>60</v>
       </c>
@@ -18348,7 +18357,7 @@
         <v>2148</v>
       </c>
     </row>
-    <row r="384" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>60</v>
       </c>
@@ -18377,7 +18386,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="385" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>60</v>
       </c>
@@ -18406,7 +18415,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="386" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>60</v>
       </c>
@@ -18429,7 +18438,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="387" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>60</v>
       </c>
@@ -18452,7 +18461,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="388" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>60</v>
       </c>
@@ -18475,7 +18484,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="389" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>60</v>
       </c>
@@ -18513,7 +18522,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="390" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>61</v>
       </c>
@@ -18533,7 +18542,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="391" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>61</v>
       </c>
@@ -18559,8 +18568,8 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="392" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A392" t="s">
+    <row r="392" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A392" s="3" t="s">
         <v>61</v>
       </c>
       <c r="B392" t="s">
@@ -18593,8 +18602,9 @@
       <c r="N392" t="s">
         <v>1913</v>
       </c>
-    </row>
-    <row r="393" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O392" s="3"/>
+    </row>
+    <row r="393" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>62</v>
       </c>
@@ -18635,7 +18645,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="394" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>62</v>
       </c>
@@ -18676,7 +18686,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="395" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>62</v>
       </c>
@@ -18699,7 +18709,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="396" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>62</v>
       </c>
@@ -18722,7 +18732,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="397" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>62</v>
       </c>
@@ -18769,7 +18779,7 @@
         <v>2152</v>
       </c>
     </row>
-    <row r="398" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>63</v>
       </c>
@@ -18810,7 +18820,7 @@
         <v>2153</v>
       </c>
     </row>
-    <row r="399" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>63</v>
       </c>
@@ -18833,7 +18843,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="400" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>63</v>
       </c>
@@ -18856,7 +18866,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="401" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>63</v>
       </c>
@@ -18879,7 +18889,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="402" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>63</v>
       </c>
@@ -18926,7 +18936,7 @@
         <v>2154</v>
       </c>
     </row>
-    <row r="403" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>64</v>
       </c>
@@ -18967,7 +18977,7 @@
         <v>2155</v>
       </c>
     </row>
-    <row r="404" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>64</v>
       </c>
@@ -18987,7 +18997,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="405" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>64</v>
       </c>
@@ -19007,7 +19017,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="406" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>64</v>
       </c>
@@ -19027,7 +19037,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="407" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>64</v>
       </c>
@@ -19068,7 +19078,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="408" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>65</v>
       </c>
@@ -19088,7 +19098,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="409" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>65</v>
       </c>
@@ -19108,7 +19118,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="410" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>65</v>
       </c>
@@ -19149,7 +19159,7 @@
         <v>2156</v>
       </c>
     </row>
-    <row r="411" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>65</v>
       </c>
@@ -19169,8 +19179,8 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="412" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A412" t="s">
+    <row r="412" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A412" s="3" t="s">
         <v>65</v>
       </c>
       <c r="B412" t="s">
@@ -19203,7 +19213,7 @@
       <c r="K412" t="s">
         <v>1896</v>
       </c>
-      <c r="L412" t="s">
+      <c r="L412" s="3" t="s">
         <v>1914</v>
       </c>
       <c r="M412" t="s">
@@ -19216,7 +19226,7 @@
         <v>2157</v>
       </c>
     </row>
-    <row r="413" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>65</v>
       </c>
@@ -19236,8 +19246,8 @@
         <v>886</v>
       </c>
     </row>
-    <row r="414" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A414" t="s">
+    <row r="414" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A414" s="3" t="s">
         <v>65</v>
       </c>
       <c r="B414" t="s">
@@ -19267,23 +19277,23 @@
       <c r="J414" t="s">
         <v>1822</v>
       </c>
-      <c r="K414" t="s">
+      <c r="K414" s="3" t="s">
         <v>1899</v>
       </c>
-      <c r="L414" t="s">
+      <c r="L414" s="3" t="s">
         <v>1915</v>
       </c>
-      <c r="M414" t="s">
+      <c r="M414" s="3" t="s">
         <v>1991</v>
       </c>
       <c r="N414" t="s">
         <v>1915</v>
       </c>
-      <c r="O414" t="s">
+      <c r="O414" s="3" t="s">
         <v>1991</v>
       </c>
     </row>
-    <row r="415" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>65</v>
       </c>
@@ -19303,7 +19313,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="416" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>65</v>
       </c>
@@ -19329,8 +19339,8 @@
         <v>1464</v>
       </c>
     </row>
-    <row r="417" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A417" t="s">
+    <row r="417" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A417" s="3" t="s">
         <v>65</v>
       </c>
       <c r="B417" t="s">
@@ -19363,7 +19373,7 @@
       <c r="K417" t="s">
         <v>1896</v>
       </c>
-      <c r="L417" t="s">
+      <c r="L417" s="3" t="s">
         <v>1914</v>
       </c>
       <c r="M417" t="s">
@@ -19376,8 +19386,8 @@
         <v>2158</v>
       </c>
     </row>
-    <row r="418" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A418" t="s">
+    <row r="418" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A418" s="3" t="s">
         <v>65</v>
       </c>
       <c r="B418" t="s">
@@ -19404,7 +19414,7 @@
       <c r="K418" t="s">
         <v>1896</v>
       </c>
-      <c r="L418" t="s">
+      <c r="L418" s="3" t="s">
         <v>1914</v>
       </c>
       <c r="M418" t="s">
@@ -19417,8 +19427,8 @@
         <v>2159</v>
       </c>
     </row>
-    <row r="419" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A419" t="s">
+    <row r="419" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A419" s="3" t="s">
         <v>65</v>
       </c>
       <c r="B419" t="s">
@@ -19445,7 +19455,7 @@
       <c r="K419" t="s">
         <v>1896</v>
       </c>
-      <c r="L419" t="s">
+      <c r="L419" s="3" t="s">
         <v>1914</v>
       </c>
       <c r="M419" t="s">
@@ -19458,7 +19468,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="420" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>65</v>
       </c>
@@ -19490,7 +19500,7 @@
         <v>1914</v>
       </c>
     </row>
-    <row r="421" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>65</v>
       </c>
@@ -19522,7 +19532,7 @@
         <v>1914</v>
       </c>
     </row>
-    <row r="422" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>65</v>
       </c>
@@ -19554,7 +19564,7 @@
         <v>1914</v>
       </c>
     </row>
-    <row r="423" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>66</v>
       </c>
@@ -19565,7 +19575,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="424" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>67</v>
       </c>
@@ -19585,7 +19595,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="425" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>67</v>
       </c>
@@ -19626,7 +19636,7 @@
         <v>2156</v>
       </c>
     </row>
-    <row r="426" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>67</v>
       </c>
@@ -19646,7 +19656,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="427" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>67</v>
       </c>
@@ -19666,7 +19676,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="428" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>67</v>
       </c>
@@ -19686,7 +19696,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="429" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>67</v>
       </c>
@@ -19727,7 +19737,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="430" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>67</v>
       </c>
@@ -19747,7 +19757,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="431" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>67</v>
       </c>
@@ -19773,7 +19783,7 @@
         <v>1466</v>
       </c>
     </row>
-    <row r="432" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>67</v>
       </c>
@@ -19793,7 +19803,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="433" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>67</v>
       </c>
@@ -19813,7 +19823,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="434" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>67</v>
       </c>
@@ -19833,7 +19843,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="435" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>67</v>
       </c>
@@ -19853,7 +19863,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="436" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>67</v>
       </c>
@@ -19873,7 +19883,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="437" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>67</v>
       </c>
@@ -19893,7 +19903,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="438" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>67</v>
       </c>
@@ -19913,7 +19923,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="439" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>67</v>
       </c>
@@ -19933,7 +19943,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="440" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>67</v>
       </c>
@@ -19959,7 +19969,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="441" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>67</v>
       </c>
@@ -19985,7 +19995,7 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="442" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>67</v>
       </c>
@@ -20005,7 +20015,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="443" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>68</v>
       </c>
@@ -20016,7 +20026,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="444" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>69</v>
       </c>
@@ -20051,7 +20061,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="445" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>69</v>
       </c>
@@ -20086,7 +20096,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="446" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>69</v>
       </c>
@@ -20109,7 +20119,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="447" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>69</v>
       </c>
@@ -20144,7 +20154,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="448" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>69</v>
       </c>
@@ -20191,7 +20201,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="449" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>69</v>
       </c>
@@ -20220,7 +20230,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="450" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>69</v>
       </c>
@@ -20267,7 +20277,7 @@
         <v>2161</v>
       </c>
     </row>
-    <row r="451" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>69</v>
       </c>
@@ -20290,7 +20300,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="452" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>69</v>
       </c>
@@ -20325,7 +20335,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="453" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>69</v>
       </c>
@@ -20360,7 +20370,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="454" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>69</v>
       </c>
@@ -20395,7 +20405,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="455" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>69</v>
       </c>
@@ -20430,7 +20440,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="456" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>69</v>
       </c>
@@ -20477,7 +20487,7 @@
         <v>2162</v>
       </c>
     </row>
-    <row r="457" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>69</v>
       </c>
@@ -20500,7 +20510,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="458" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>69</v>
       </c>
@@ -20538,7 +20548,7 @@
         <v>2082</v>
       </c>
     </row>
-    <row r="459" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>70</v>
       </c>
@@ -20558,7 +20568,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="460" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>70</v>
       </c>
@@ -20605,7 +20615,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="461" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>70</v>
       </c>
@@ -20625,7 +20635,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="462" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>70</v>
       </c>
@@ -20672,7 +20682,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="463" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>70</v>
       </c>
@@ -20719,7 +20729,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="464" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>70</v>
       </c>
@@ -20766,7 +20776,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="465" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>70</v>
       </c>
@@ -20813,7 +20823,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="466" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>70</v>
       </c>
@@ -20833,7 +20843,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="467" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>70</v>
       </c>
@@ -20880,7 +20890,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="468" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>71</v>
       </c>
@@ -20921,7 +20931,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="469" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>71</v>
       </c>
@@ -20962,7 +20972,7 @@
         <v>2165</v>
       </c>
     </row>
-    <row r="470" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>71</v>
       </c>
@@ -21009,7 +21019,7 @@
         <v>2166</v>
       </c>
     </row>
-    <row r="471" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>71</v>
       </c>
@@ -21056,7 +21066,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="472" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>71</v>
       </c>
@@ -21103,7 +21113,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="473" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>71</v>
       </c>
@@ -21123,7 +21133,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="474" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>71</v>
       </c>
@@ -21143,7 +21153,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="475" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>72</v>
       </c>
@@ -21166,7 +21176,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="476" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>72</v>
       </c>
@@ -21189,7 +21199,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="477" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>72</v>
       </c>
@@ -21212,7 +21222,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="478" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>72</v>
       </c>
@@ -21235,7 +21245,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="479" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>72</v>
       </c>
@@ -21258,7 +21268,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="480" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>72</v>
       </c>
@@ -21281,7 +21291,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="481" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>72</v>
       </c>
@@ -21310,7 +21320,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="482" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>72</v>
       </c>
@@ -21333,7 +21343,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="483" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>72</v>
       </c>
@@ -21356,7 +21366,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="484" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>72</v>
       </c>
@@ -21379,7 +21389,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="485" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>72</v>
       </c>
@@ -21402,7 +21412,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="486" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>72</v>
       </c>
@@ -21440,7 +21450,7 @@
         <v>2082</v>
       </c>
     </row>
-    <row r="487" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>73</v>
       </c>
@@ -21460,7 +21470,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="488" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>73</v>
       </c>
@@ -21486,7 +21496,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="489" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>74</v>
       </c>
@@ -21506,7 +21516,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="490" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>74</v>
       </c>
@@ -21526,7 +21536,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="491" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>74</v>
       </c>
@@ -21546,7 +21556,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="492" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>74</v>
       </c>
@@ -21566,7 +21576,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="493" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>74</v>
       </c>
@@ -21586,7 +21596,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="494" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>75</v>
       </c>
@@ -21606,7 +21616,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="495" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>75</v>
       </c>
@@ -21626,7 +21636,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="496" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>75</v>
       </c>
@@ -21646,7 +21656,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="497" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>75</v>
       </c>
@@ -21672,7 +21682,7 @@
         <v>1483</v>
       </c>
     </row>
-    <row r="498" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>75</v>
       </c>
@@ -21698,7 +21708,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="499" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>75</v>
       </c>
@@ -21724,7 +21734,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="500" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>75</v>
       </c>
@@ -21744,7 +21754,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="501" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>75</v>
       </c>
@@ -21770,7 +21780,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="502" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>75</v>
       </c>
@@ -21796,7 +21806,7 @@
         <v>1487</v>
       </c>
     </row>
-    <row r="503" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>75</v>
       </c>
@@ -21843,7 +21853,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="504" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>76</v>
       </c>
@@ -21863,8 +21873,8 @@
         <v>76</v>
       </c>
     </row>
-    <row r="505" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A505" t="s">
+    <row r="505" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A505" s="3" t="s">
         <v>76</v>
       </c>
       <c r="B505" t="s">
@@ -21894,17 +21904,19 @@
       <c r="J505" t="s">
         <v>1836</v>
       </c>
-      <c r="K505" t="s">
+      <c r="K505" s="3" t="s">
         <v>1899</v>
       </c>
-      <c r="L505" t="s">
-        <v>1911</v>
-      </c>
+      <c r="L505" s="3" t="s">
+        <v>1911</v>
+      </c>
+      <c r="M505" s="3"/>
       <c r="N505" t="s">
         <v>1911</v>
       </c>
-    </row>
-    <row r="506" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O505" s="3"/>
+    </row>
+    <row r="506" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>76</v>
       </c>
@@ -21924,7 +21936,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="507" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>77</v>
       </c>
@@ -21935,7 +21947,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="508" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>78</v>
       </c>
@@ -21955,7 +21967,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="509" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>78</v>
       </c>
@@ -21975,7 +21987,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="510" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>78</v>
       </c>
@@ -21995,7 +22007,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="511" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>78</v>
       </c>
@@ -22015,7 +22027,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="512" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>78</v>
       </c>
@@ -22035,7 +22047,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="513" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>79</v>
       </c>
@@ -22070,7 +22082,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="514" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>79</v>
       </c>
@@ -22105,7 +22117,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="515" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>79</v>
       </c>
@@ -22146,7 +22158,7 @@
         <v>2170</v>
       </c>
     </row>
-    <row r="516" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>79</v>
       </c>
@@ -22175,7 +22187,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="517" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>79</v>
       </c>
@@ -22204,7 +22216,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="518" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>79</v>
       </c>
@@ -22248,7 +22260,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="519" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>79</v>
       </c>
@@ -22271,7 +22283,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="520" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>79</v>
       </c>
@@ -22312,7 +22324,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="521" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>79</v>
       </c>
@@ -22353,7 +22365,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="522" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>79</v>
       </c>
@@ -22376,7 +22388,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="523" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>79</v>
       </c>
@@ -22399,7 +22411,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="524" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>79</v>
       </c>
@@ -22422,7 +22434,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="525" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>80</v>
       </c>
@@ -22433,7 +22445,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="526" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>81</v>
       </c>
@@ -22444,7 +22456,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="527" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>82</v>
       </c>
@@ -22485,7 +22497,7 @@
         <v>2133</v>
       </c>
     </row>
-    <row r="528" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>82</v>
       </c>
@@ -22505,7 +22517,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="529" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>82</v>
       </c>
@@ -22525,7 +22537,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="530" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>82</v>
       </c>
@@ -22551,7 +22563,7 @@
         <v>1493</v>
       </c>
     </row>
-    <row r="531" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>82</v>
       </c>
@@ -22571,7 +22583,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="532" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>82</v>
       </c>
@@ -22612,7 +22624,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="533" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>82</v>
       </c>
@@ -22653,7 +22665,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="534" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>83</v>
       </c>
@@ -22676,7 +22688,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="535" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>83</v>
       </c>
@@ -22717,7 +22729,7 @@
         <v>1919</v>
       </c>
     </row>
-    <row r="536" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>83</v>
       </c>
@@ -22740,7 +22752,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="537" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>83</v>
       </c>
@@ -22763,7 +22775,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="538" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>83</v>
       </c>
@@ -22810,7 +22822,7 @@
         <v>2171</v>
       </c>
     </row>
-    <row r="539" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>84</v>
       </c>
@@ -22845,7 +22857,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="540" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>84</v>
       </c>
@@ -22868,7 +22880,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="541" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>84</v>
       </c>
@@ -22915,7 +22927,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="542" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>84</v>
       </c>
@@ -22944,7 +22956,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="543" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>84</v>
       </c>
@@ -22967,7 +22979,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="544" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>84</v>
       </c>
@@ -23002,7 +23014,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="545" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>84</v>
       </c>
@@ -23049,7 +23061,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="546" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>84</v>
       </c>
@@ -23072,7 +23084,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="547" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>84</v>
       </c>
@@ -23101,7 +23113,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="548" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
         <v>84</v>
       </c>
@@ -23148,7 +23160,7 @@
         <v>2172</v>
       </c>
     </row>
-    <row r="549" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>84</v>
       </c>
@@ -23189,7 +23201,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="550" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>84</v>
       </c>
@@ -23236,7 +23248,7 @@
         <v>2173</v>
       </c>
     </row>
-    <row r="551" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>84</v>
       </c>
@@ -23274,7 +23286,7 @@
         <v>2082</v>
       </c>
     </row>
-    <row r="552" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>85</v>
       </c>
@@ -23285,7 +23297,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="553" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>86</v>
       </c>
@@ -23326,7 +23338,7 @@
         <v>2174</v>
       </c>
     </row>
-    <row r="554" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>86</v>
       </c>
@@ -23346,7 +23358,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="555" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>86</v>
       </c>
@@ -23381,7 +23393,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="556" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>86</v>
       </c>
@@ -23401,7 +23413,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="557" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>86</v>
       </c>
@@ -23427,7 +23439,7 @@
         <v>1503</v>
       </c>
     </row>
-    <row r="558" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>87</v>
       </c>
@@ -23468,7 +23480,7 @@
         <v>2175</v>
       </c>
     </row>
-    <row r="559" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
         <v>87</v>
       </c>
@@ -23509,7 +23521,7 @@
         <v>2176</v>
       </c>
     </row>
-    <row r="560" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
         <v>87</v>
       </c>
@@ -23556,7 +23568,7 @@
         <v>2177</v>
       </c>
     </row>
-    <row r="561" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>87</v>
       </c>
@@ -23603,7 +23615,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="562" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>87</v>
       </c>
@@ -23650,7 +23662,7 @@
         <v>2178</v>
       </c>
     </row>
-    <row r="563" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
         <v>87</v>
       </c>
@@ -23697,7 +23709,7 @@
         <v>2179</v>
       </c>
     </row>
-    <row r="564" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>87</v>
       </c>
@@ -23717,7 +23729,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="565" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>87</v>
       </c>
@@ -23737,7 +23749,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="566" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
         <v>87</v>
       </c>
@@ -23784,7 +23796,7 @@
         <v>2180</v>
       </c>
     </row>
-    <row r="567" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
         <v>88</v>
       </c>
@@ -23825,7 +23837,7 @@
         <v>2181</v>
       </c>
     </row>
-    <row r="568" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>88</v>
       </c>
@@ -23866,7 +23878,7 @@
         <v>2182</v>
       </c>
     </row>
-    <row r="569" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>88</v>
       </c>
@@ -23913,7 +23925,7 @@
         <v>2183</v>
       </c>
     </row>
-    <row r="570" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
         <v>88</v>
       </c>
@@ -23960,7 +23972,7 @@
         <v>2184</v>
       </c>
     </row>
-    <row r="571" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>88</v>
       </c>
@@ -24007,7 +24019,7 @@
         <v>2185</v>
       </c>
     </row>
-    <row r="572" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>88</v>
       </c>
@@ -24027,7 +24039,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="573" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
         <v>88</v>
       </c>
@@ -24047,7 +24059,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="574" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
         <v>88</v>
       </c>
@@ -24094,7 +24106,7 @@
         <v>2186</v>
       </c>
     </row>
-    <row r="575" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
         <v>89</v>
       </c>
@@ -24135,7 +24147,7 @@
         <v>2187</v>
       </c>
     </row>
-    <row r="576" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
         <v>89</v>
       </c>
@@ -24176,7 +24188,7 @@
         <v>2188</v>
       </c>
     </row>
-    <row r="577" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
         <v>89</v>
       </c>
@@ -24223,7 +24235,7 @@
         <v>2189</v>
       </c>
     </row>
-    <row r="578" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
         <v>89</v>
       </c>
@@ -24270,7 +24282,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="579" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
         <v>89</v>
       </c>
@@ -24317,7 +24329,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="580" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
         <v>89</v>
       </c>
@@ -24364,7 +24376,7 @@
         <v>2191</v>
       </c>
     </row>
-    <row r="581" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
         <v>89</v>
       </c>
@@ -24384,7 +24396,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="582" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
         <v>89</v>
       </c>
@@ -24404,7 +24416,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="583" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
         <v>90</v>
       </c>
@@ -24415,7 +24427,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="584" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
         <v>91</v>
       </c>
@@ -24435,7 +24447,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="585" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
         <v>91</v>
       </c>
@@ -24455,7 +24467,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="586" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
         <v>91</v>
       </c>
@@ -24502,7 +24514,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="587" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
         <v>91</v>
       </c>
@@ -24522,7 +24534,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="588" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
         <v>91</v>
       </c>
@@ -24542,7 +24554,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="589" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
         <v>91</v>
       </c>
@@ -24562,7 +24574,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="590" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
         <v>91</v>
       </c>
@@ -24582,7 +24594,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="591" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
         <v>92</v>
       </c>
@@ -24602,7 +24614,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="592" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
         <v>92</v>
       </c>
@@ -24628,7 +24640,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="593" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
         <v>92</v>
       </c>
@@ -24648,7 +24660,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="594" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
         <v>92</v>
       </c>
@@ -24695,7 +24707,7 @@
         <v>2192</v>
       </c>
     </row>
-    <row r="595" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
         <v>92</v>
       </c>
@@ -24715,7 +24727,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="596" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
         <v>92</v>
       </c>
@@ -24735,7 +24747,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="597" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
         <v>92</v>
       </c>
@@ -24782,7 +24794,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="598" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
         <v>93</v>
       </c>
@@ -24823,7 +24835,7 @@
         <v>2194</v>
       </c>
     </row>
-    <row r="599" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
         <v>93</v>
       </c>
@@ -24864,7 +24876,7 @@
         <v>2195</v>
       </c>
     </row>
-    <row r="600" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
         <v>93</v>
       </c>
@@ -24911,7 +24923,7 @@
         <v>2196</v>
       </c>
     </row>
-    <row r="601" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
         <v>93</v>
       </c>
@@ -24958,7 +24970,7 @@
         <v>2197</v>
       </c>
     </row>
-    <row r="602" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
         <v>93</v>
       </c>
@@ -25005,7 +25017,7 @@
         <v>2198</v>
       </c>
     </row>
-    <row r="603" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
         <v>93</v>
       </c>
@@ -25025,7 +25037,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="604" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
         <v>93</v>
       </c>
@@ -25045,7 +25057,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="605" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
         <v>93</v>
       </c>
@@ -25092,7 +25104,7 @@
         <v>2199</v>
       </c>
     </row>
-    <row r="606" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
         <v>94</v>
       </c>
@@ -25133,7 +25145,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="607" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
         <v>94</v>
       </c>
@@ -25180,7 +25192,7 @@
         <v>2201</v>
       </c>
     </row>
-    <row r="608" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
         <v>94</v>
       </c>
@@ -25200,7 +25212,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="609" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
         <v>94</v>
       </c>
@@ -25247,7 +25259,7 @@
         <v>2202</v>
       </c>
     </row>
-    <row r="610" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
         <v>94</v>
       </c>
@@ -25294,7 +25306,7 @@
         <v>2203</v>
       </c>
     </row>
-    <row r="611" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
         <v>94</v>
       </c>
@@ -25341,7 +25353,7 @@
         <v>2204</v>
       </c>
     </row>
-    <row r="612" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
         <v>94</v>
       </c>
@@ -25382,7 +25394,7 @@
         <v>2082</v>
       </c>
     </row>
-    <row r="613" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
         <v>95</v>
       </c>
@@ -25405,7 +25417,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="614" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
         <v>95</v>
       </c>
@@ -25428,7 +25440,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="615" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
         <v>95</v>
       </c>
@@ -25451,7 +25463,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="616" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
         <v>95</v>
       </c>
@@ -25474,7 +25486,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="617" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
         <v>95</v>
       </c>
@@ -25497,7 +25509,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="618" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
         <v>95</v>
       </c>
@@ -25520,7 +25532,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="619" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
         <v>95</v>
       </c>
@@ -25543,7 +25555,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="620" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
         <v>95</v>
       </c>
@@ -25590,7 +25602,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="621" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
         <v>95</v>
       </c>
@@ -25613,7 +25625,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="622" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
         <v>96</v>
       </c>
@@ -25654,7 +25666,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="623" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
         <v>96</v>
       </c>
@@ -25689,7 +25701,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="624" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
         <v>96</v>
       </c>
@@ -25730,7 +25742,7 @@
         <v>2206</v>
       </c>
     </row>
-    <row r="625" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
         <v>96</v>
       </c>
@@ -25765,7 +25777,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="626" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
         <v>96</v>
       </c>
@@ -25806,7 +25818,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="627" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
         <v>96</v>
       </c>
@@ -25853,7 +25865,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="628" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
         <v>96</v>
       </c>
@@ -25894,7 +25906,7 @@
         <v>2208</v>
       </c>
     </row>
-    <row r="629" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
         <v>96</v>
       </c>
@@ -25941,7 +25953,7 @@
         <v>2209</v>
       </c>
     </row>
-    <row r="630" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
         <v>96</v>
       </c>
@@ -25979,7 +25991,7 @@
         <v>2210</v>
       </c>
     </row>
-    <row r="631" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
         <v>97</v>
       </c>
@@ -25999,7 +26011,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="632" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
         <v>97</v>
       </c>
@@ -26019,7 +26031,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="633" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
         <v>97</v>
       </c>
@@ -26039,7 +26051,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="634" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
         <v>97</v>
       </c>
@@ -26059,7 +26071,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="635" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
         <v>98</v>
       </c>
@@ -26070,8 +26082,8 @@
         <v>185</v>
       </c>
     </row>
-    <row r="636" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A636" t="s">
+    <row r="636" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A636" s="3" t="s">
         <v>99</v>
       </c>
       <c r="B636" t="s">
@@ -26098,7 +26110,7 @@
       <c r="K636" t="s">
         <v>1909</v>
       </c>
-      <c r="L636" t="s">
+      <c r="L636" s="3" t="s">
         <v>1914</v>
       </c>
       <c r="M636" t="s">
@@ -26111,7 +26123,7 @@
         <v>2211</v>
       </c>
     </row>
-    <row r="637" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
         <v>99</v>
       </c>
@@ -26131,7 +26143,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="638" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
         <v>99</v>
       </c>
@@ -26172,7 +26184,7 @@
         <v>2212</v>
       </c>
     </row>
-    <row r="639" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
         <v>99</v>
       </c>
@@ -26192,7 +26204,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="640" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
         <v>99</v>
       </c>
@@ -26212,7 +26224,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="641" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
         <v>99</v>
       </c>
@@ -26232,7 +26244,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="642" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
         <v>99</v>
       </c>
@@ -26252,7 +26264,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="643" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
         <v>99</v>
       </c>
@@ -26299,8 +26311,8 @@
         <v>2213</v>
       </c>
     </row>
-    <row r="644" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A644" t="s">
+    <row r="644" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A644" s="3" t="s">
         <v>99</v>
       </c>
       <c r="B644" t="s">
@@ -26330,18 +26342,20 @@
       <c r="J644" t="s">
         <v>1861</v>
       </c>
-      <c r="K644" t="s">
+      <c r="K644" s="3" t="s">
         <v>1899</v>
       </c>
-      <c r="L644" t="s">
+      <c r="L644" s="3" t="s">
         <v>1915</v>
       </c>
+      <c r="M644" s="3"/>
       <c r="N644" t="s">
         <v>1915</v>
       </c>
-    </row>
-    <row r="645" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A645" t="s">
+      <c r="O644" s="3"/>
+    </row>
+    <row r="645" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A645" s="3" t="s">
         <v>99</v>
       </c>
       <c r="B645" t="s">
@@ -26368,7 +26382,7 @@
       <c r="K645" t="s">
         <v>1909</v>
       </c>
-      <c r="L645" t="s">
+      <c r="L645" s="3" t="s">
         <v>1914</v>
       </c>
       <c r="M645" t="s">
@@ -26381,7 +26395,7 @@
         <v>2214</v>
       </c>
     </row>
-    <row r="646" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
         <v>99</v>
       </c>
@@ -26401,7 +26415,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="647" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
         <v>99</v>
       </c>
@@ -26421,7 +26435,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="648" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
         <v>99</v>
       </c>
@@ -26447,7 +26461,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="649" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A649" t="s">
         <v>100</v>
       </c>
@@ -26488,7 +26502,7 @@
         <v>2206</v>
       </c>
     </row>
-    <row r="650" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
         <v>100</v>
       </c>
@@ -26526,7 +26540,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="651" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A651" t="s">
         <v>100</v>
       </c>
@@ -26546,7 +26560,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="652" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
         <v>100</v>
       </c>
@@ -26587,7 +26601,7 @@
         <v>1977</v>
       </c>
     </row>
-    <row r="653" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
         <v>100</v>
       </c>
@@ -26628,7 +26642,7 @@
         <v>2215</v>
       </c>
     </row>
-    <row r="654" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A654" t="s">
         <v>101</v>
       </c>
@@ -26663,7 +26677,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="655" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A655" t="s">
         <v>101</v>
       </c>
@@ -26698,7 +26712,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="656" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A656" t="s">
         <v>101</v>
       </c>
@@ -26721,7 +26735,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="657" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A657" t="s">
         <v>101</v>
       </c>
@@ -26762,7 +26776,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="658" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A658" t="s">
         <v>101</v>
       </c>
@@ -26800,7 +26814,7 @@
         <v>2111</v>
       </c>
     </row>
-    <row r="659" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A659" t="s">
         <v>101</v>
       </c>
@@ -26835,7 +26849,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="660" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A660" t="s">
         <v>101</v>
       </c>
@@ -26858,7 +26872,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="661" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A661" t="s">
         <v>101</v>
       </c>
@@ -26899,7 +26913,7 @@
         <v>2216</v>
       </c>
     </row>
-    <row r="662" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A662" t="s">
         <v>101</v>
       </c>
@@ -26922,7 +26936,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="663" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A663" t="s">
         <v>101</v>
       </c>
@@ -26945,7 +26959,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="664" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A664" t="s">
         <v>102</v>
       </c>
@@ -26965,7 +26979,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="665" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A665" t="s">
         <v>102</v>
       </c>
@@ -27012,7 +27026,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="666" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A666" t="s">
         <v>102</v>
       </c>
@@ -27038,7 +27052,7 @@
         <v>1533</v>
       </c>
     </row>
-    <row r="667" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A667" t="s">
         <v>103</v>
       </c>
@@ -27058,7 +27072,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="668" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A668" t="s">
         <v>103</v>
       </c>
@@ -27105,7 +27119,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="669" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A669" t="s">
         <v>103</v>
       </c>
@@ -27131,7 +27145,7 @@
         <v>1534</v>
       </c>
     </row>
-    <row r="670" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A670" t="s">
         <v>104</v>
       </c>
@@ -27151,7 +27165,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="671" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A671" t="s">
         <v>104</v>
       </c>
@@ -27177,7 +27191,7 @@
         <v>1535</v>
       </c>
     </row>
-    <row r="672" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A672" t="s">
         <v>104</v>
       </c>
@@ -27203,7 +27217,7 @@
         <v>1536</v>
       </c>
     </row>
-    <row r="673" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A673" t="s">
         <v>104</v>
       </c>
@@ -27223,7 +27237,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="674" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A674" t="s">
         <v>105</v>
       </c>
@@ -27243,7 +27257,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="675" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A675" t="s">
         <v>105</v>
       </c>
@@ -27263,7 +27277,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="676" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A676" t="s">
         <v>105</v>
       </c>
@@ -27310,7 +27324,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="677" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A677" t="s">
         <v>105</v>
       </c>
@@ -27357,8 +27371,8 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="678" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A678" t="s">
+    <row r="678" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A678" s="3" t="s">
         <v>106</v>
       </c>
       <c r="B678" t="s">
@@ -27382,17 +27396,18 @@
       <c r="J678" t="s">
         <v>1870</v>
       </c>
-      <c r="K678" t="s">
+      <c r="K678" s="3" t="s">
         <v>1907</v>
       </c>
-      <c r="L678" t="s">
-        <v>1911</v>
-      </c>
+      <c r="L678" s="3" t="s">
+        <v>1911</v>
+      </c>
+      <c r="M678" s="3"/>
       <c r="N678" t="s">
         <v>1911</v>
       </c>
     </row>
-    <row r="679" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A679" t="s">
         <v>106</v>
       </c>
@@ -27427,7 +27442,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="680" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A680" t="s">
         <v>106</v>
       </c>
@@ -27474,7 +27489,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="681" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A681" t="s">
         <v>107</v>
       </c>
@@ -27494,7 +27509,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="682" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A682" t="s">
         <v>107</v>
       </c>
@@ -27541,7 +27556,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="683" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A683" t="s">
         <v>107</v>
       </c>
@@ -27561,7 +27576,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="684" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A684" t="s">
         <v>108</v>
       </c>
@@ -27596,7 +27611,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="685" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A685" t="s">
         <v>108</v>
       </c>
@@ -27616,7 +27631,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="686" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A686" t="s">
         <v>108</v>
       </c>
@@ -27642,7 +27657,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="687" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A687" t="s">
         <v>108</v>
       </c>
@@ -27677,7 +27692,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="688" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A688" t="s">
         <v>108</v>
       </c>
@@ -27712,7 +27727,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="689" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A689" t="s">
         <v>109</v>
       </c>
@@ -27732,7 +27747,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="690" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A690" t="s">
         <v>109</v>
       </c>
@@ -27779,7 +27794,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="691" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A691" t="s">
         <v>109</v>
       </c>
@@ -27805,7 +27820,7 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="692" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A692" t="s">
         <v>110</v>
       </c>
@@ -27825,7 +27840,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="693" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A693" t="s">
         <v>110</v>
       </c>
@@ -27872,7 +27887,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="694" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A694" t="s">
         <v>110</v>
       </c>
@@ -27898,7 +27913,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="695" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A695" t="s">
         <v>111</v>
       </c>
@@ -27933,7 +27948,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="696" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A696" t="s">
         <v>111</v>
       </c>
@@ -27956,7 +27971,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="697" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A697" t="s">
         <v>111</v>
       </c>
@@ -28003,7 +28018,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="698" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A698" t="s">
         <v>111</v>
       </c>
@@ -28026,7 +28041,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="699" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A699" t="s">
         <v>111</v>
       </c>
@@ -28049,7 +28064,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="700" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A700" t="s">
         <v>111</v>
       </c>
@@ -28072,7 +28087,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="701" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A701" t="s">
         <v>111</v>
       </c>
@@ -28095,7 +28110,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="702" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A702" t="s">
         <v>111</v>
       </c>
@@ -28118,7 +28133,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="703" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A703" t="s">
         <v>111</v>
       </c>
@@ -28141,8 +28156,8 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="704" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A704" t="s">
+    <row r="704" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A704" s="3" t="s">
         <v>111</v>
       </c>
       <c r="B704" t="s">
@@ -28166,18 +28181,19 @@
       <c r="J704" t="s">
         <v>1875</v>
       </c>
-      <c r="K704" t="s">
+      <c r="K704" s="3" t="s">
         <v>1902</v>
       </c>
       <c r="L704" t="s">
         <v>1913</v>
       </c>
+      <c r="M704" s="3"/>
       <c r="N704" t="s">
         <v>1912</v>
       </c>
     </row>
-    <row r="705" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A705" t="s">
+    <row r="705" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A705" s="3" t="s">
         <v>111</v>
       </c>
       <c r="B705" t="s">
@@ -28201,17 +28217,18 @@
       <c r="J705" t="s">
         <v>1875</v>
       </c>
-      <c r="K705" t="s">
+      <c r="K705" s="3" t="s">
         <v>1902</v>
       </c>
       <c r="L705" t="s">
         <v>1913</v>
       </c>
+      <c r="M705" s="3"/>
       <c r="N705" t="s">
         <v>1912</v>
       </c>
     </row>
-    <row r="706" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A706" t="s">
         <v>111</v>
       </c>
@@ -28249,7 +28266,7 @@
         <v>2111</v>
       </c>
     </row>
-    <row r="707" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A707" t="s">
         <v>111</v>
       </c>
@@ -28287,7 +28304,7 @@
         <v>2111</v>
       </c>
     </row>
-    <row r="708" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A708" t="s">
         <v>111</v>
       </c>
@@ -28310,7 +28327,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="709" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A709" t="s">
         <v>111</v>
       </c>
@@ -28333,7 +28350,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="710" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A710" t="s">
         <v>111</v>
       </c>
@@ -28356,7 +28373,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="711" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A711" t="s">
         <v>111</v>
       </c>
@@ -28379,7 +28396,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="712" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A712" t="s">
         <v>111</v>
       </c>
@@ -28402,7 +28419,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="713" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A713" t="s">
         <v>111</v>
       </c>
@@ -28425,7 +28442,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="714" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A714" t="s">
         <v>112</v>
       </c>
@@ -28486,7 +28503,7 @@
         <v>1964</v>
       </c>
     </row>
-    <row r="716" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A716" t="s">
         <v>112</v>
       </c>
@@ -28524,7 +28541,7 @@
         <v>2111</v>
       </c>
     </row>
-    <row r="717" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A717" t="s">
         <v>112</v>
       </c>
@@ -28562,7 +28579,7 @@
         <v>2111</v>
       </c>
     </row>
-    <row r="718" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A718" t="s">
         <v>112</v>
       </c>
@@ -28597,7 +28614,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="719" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A719" t="s">
         <v>112</v>
       </c>
@@ -28638,7 +28655,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="720" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A720" t="s">
         <v>112</v>
       </c>
@@ -28685,7 +28702,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="721" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A721" t="s">
         <v>112</v>
       </c>
@@ -28720,7 +28737,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="722" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A722" t="s">
         <v>112</v>
       </c>
@@ -28769,7 +28786,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="724" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A724" t="s">
         <v>112</v>
       </c>
@@ -28842,7 +28859,7 @@
         <v>1922</v>
       </c>
     </row>
-    <row r="726" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A726" t="s">
         <v>112</v>
       </c>
@@ -28865,7 +28882,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="727" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A727" t="s">
         <v>112</v>
       </c>
@@ -28912,7 +28929,7 @@
         <v>2218</v>
       </c>
     </row>
-    <row r="728" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A728" t="s">
         <v>112</v>
       </c>
@@ -28941,7 +28958,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="729" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A729" t="s">
         <v>113</v>
       </c>
@@ -28952,7 +28969,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="730" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A730" t="s">
         <v>114</v>
       </c>
@@ -28963,7 +28980,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="731" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A731" t="s">
         <v>115</v>
       </c>
@@ -29004,7 +29021,7 @@
         <v>2219</v>
       </c>
     </row>
-    <row r="732" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A732" t="s">
         <v>115</v>
       </c>
@@ -29045,7 +29062,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="733" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A733" t="s">
         <v>115</v>
       </c>
@@ -29086,7 +29103,7 @@
         <v>2221</v>
       </c>
     </row>
-    <row r="734" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A734" t="s">
         <v>115</v>
       </c>
@@ -29106,7 +29123,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="735" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A735" t="s">
         <v>115</v>
       </c>
@@ -29126,7 +29143,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="736" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A736" t="s">
         <v>115</v>
       </c>
@@ -29146,7 +29163,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="737" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A737" t="s">
         <v>116</v>
       </c>
@@ -29169,7 +29186,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="738" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A738" t="s">
         <v>116</v>
       </c>
@@ -29192,7 +29209,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="739" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A739" t="s">
         <v>116</v>
       </c>
@@ -29215,7 +29232,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="740" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A740" t="s">
         <v>116</v>
       </c>
@@ -29238,7 +29255,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="741" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A741" t="s">
         <v>116</v>
       </c>
@@ -29276,7 +29293,7 @@
         <v>2222</v>
       </c>
     </row>
-    <row r="742" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A742" t="s">
         <v>117</v>
       </c>
@@ -29317,7 +29334,7 @@
         <v>2223</v>
       </c>
     </row>
-    <row r="743" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A743" t="s">
         <v>117</v>
       </c>
@@ -29358,7 +29375,7 @@
         <v>2224</v>
       </c>
     </row>
-    <row r="744" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A744" t="s">
         <v>117</v>
       </c>
@@ -29405,7 +29422,7 @@
         <v>2225</v>
       </c>
     </row>
-    <row r="745" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A745" t="s">
         <v>117</v>
       </c>
@@ -29452,7 +29469,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="746" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A746" t="s">
         <v>117</v>
       </c>
@@ -29499,7 +29516,7 @@
         <v>2226</v>
       </c>
     </row>
-    <row r="747" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A747" t="s">
         <v>117</v>
       </c>
@@ -29519,7 +29536,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="748" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A748" t="s">
         <v>117</v>
       </c>
@@ -29539,7 +29556,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="749" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A749" t="s">
         <v>117</v>
       </c>
@@ -29580,7 +29597,7 @@
         <v>2227</v>
       </c>
     </row>
-    <row r="750" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A750" t="s">
         <v>117</v>
       </c>
@@ -29600,7 +29617,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="751" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A751" t="s">
         <v>117</v>
       </c>
@@ -29641,7 +29658,7 @@
         <v>2228</v>
       </c>
     </row>
-    <row r="752" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A752" t="s">
         <v>118</v>
       </c>
@@ -29652,7 +29669,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="753" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A753" t="s">
         <v>119</v>
       </c>
@@ -29663,7 +29680,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="754" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A754" t="s">
         <v>120</v>
       </c>
@@ -29698,7 +29715,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="755" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A755" t="s">
         <v>120</v>
       </c>
@@ -29718,7 +29735,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="756" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A756" t="s">
         <v>120</v>
       </c>
@@ -29765,7 +29782,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="757" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A757" t="s">
         <v>120</v>
       </c>
@@ -29785,7 +29802,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="758" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A758" t="s">
         <v>120</v>
       </c>
@@ -29805,7 +29822,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="759" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A759" t="s">
         <v>120</v>
       </c>
@@ -29825,7 +29842,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="760" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A760" t="s">
         <v>120</v>
       </c>
@@ -29845,7 +29862,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="761" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A761" t="s">
         <v>120</v>
       </c>
@@ -29865,7 +29882,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="762" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A762" t="s">
         <v>121</v>
       </c>
@@ -29885,7 +29902,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="763" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A763" t="s">
         <v>121</v>
       </c>
@@ -29905,7 +29922,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="764" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A764" t="s">
         <v>121</v>
       </c>
@@ -29925,7 +29942,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="765" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A765" t="s">
         <v>121</v>
       </c>
@@ -29951,7 +29968,7 @@
         <v>1552</v>
       </c>
     </row>
-    <row r="766" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A766" t="s">
         <v>121</v>
       </c>
@@ -29977,7 +29994,7 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="767" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A767" t="s">
         <v>121</v>
       </c>
@@ -30003,7 +30020,7 @@
         <v>1554</v>
       </c>
     </row>
-    <row r="768" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A768" t="s">
         <v>121</v>
       </c>
@@ -30029,7 +30046,7 @@
         <v>1555</v>
       </c>
     </row>
-    <row r="769" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A769" t="s">
         <v>121</v>
       </c>
@@ -30049,7 +30066,7 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="770" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A770" t="s">
         <v>121</v>
       </c>
@@ -30096,7 +30113,7 @@
         <v>2229</v>
       </c>
     </row>
-    <row r="771" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A771" t="s">
         <v>121</v>
       </c>
@@ -30116,7 +30133,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="772" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A772" t="s">
         <v>121</v>
       </c>
@@ -30142,7 +30159,7 @@
         <v>1557</v>
       </c>
     </row>
-    <row r="773" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A773" t="s">
         <v>121</v>
       </c>
@@ -30183,7 +30200,7 @@
         <v>2230</v>
       </c>
     </row>
-    <row r="774" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A774" t="s">
         <v>121</v>
       </c>
@@ -30224,7 +30241,7 @@
         <v>2231</v>
       </c>
     </row>
-    <row r="775" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A775" t="s">
         <v>121</v>
       </c>
@@ -30265,7 +30282,7 @@
         <v>2232</v>
       </c>
     </row>
-    <row r="776" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A776" t="s">
         <v>121</v>
       </c>
@@ -30285,7 +30302,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="777" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A777" t="s">
         <v>121</v>
       </c>
@@ -30305,7 +30322,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="778" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A778" t="s">
         <v>121</v>
       </c>
@@ -30352,7 +30369,7 @@
         <v>2233</v>
       </c>
     </row>
-    <row r="779" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A779" t="s">
         <v>122</v>
       </c>
@@ -30375,7 +30392,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="780" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A780" t="s">
         <v>122</v>
       </c>
@@ -30398,7 +30415,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="781" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A781" t="s">
         <v>122</v>
       </c>
@@ -30445,7 +30462,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="782" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A782" t="s">
         <v>122</v>
       </c>
@@ -30486,7 +30503,7 @@
         <v>2082</v>
       </c>
     </row>
-    <row r="783" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A783" t="s">
         <v>122</v>
       </c>
@@ -30527,7 +30544,7 @@
         <v>2082</v>
       </c>
     </row>
-    <row r="784" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A784" t="s">
         <v>123</v>
       </c>
@@ -30547,7 +30564,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="785" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A785" t="s">
         <v>123</v>
       </c>
@@ -30567,7 +30584,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="786" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A786" t="s">
         <v>123</v>
       </c>
@@ -30587,7 +30604,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="787" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A787" t="s">
         <v>123</v>
       </c>
@@ -30607,7 +30624,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="788" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A788" t="s">
         <v>124</v>
       </c>
@@ -30648,7 +30665,7 @@
         <v>2234</v>
       </c>
     </row>
-    <row r="789" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A789" t="s">
         <v>124</v>
       </c>
@@ -30671,7 +30688,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="790" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A790" t="s">
         <v>124</v>
       </c>
@@ -30694,7 +30711,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="791" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A791" t="s">
         <v>124</v>
       </c>
@@ -30741,7 +30758,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="792" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A792" t="s">
         <v>124</v>
       </c>
@@ -30782,7 +30799,7 @@
         <v>1977</v>
       </c>
     </row>
-    <row r="793" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A793" t="s">
         <v>124</v>
       </c>
@@ -30805,7 +30822,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="794" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A794" t="s">
         <v>124</v>
       </c>
@@ -30834,8 +30851,8 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="795" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A795" t="s">
+    <row r="795" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A795" s="3" t="s">
         <v>124</v>
       </c>
       <c r="B795" t="s">
@@ -30859,18 +30876,18 @@
       <c r="J795" t="s">
         <v>1885</v>
       </c>
-      <c r="K795" t="s">
+      <c r="K795" s="3" t="s">
         <v>1910</v>
       </c>
-      <c r="L795" t="s">
+      <c r="L795" s="3" t="s">
         <v>1911</v>
       </c>
       <c r="N795" t="s">
         <v>1911</v>
       </c>
     </row>
-    <row r="796" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A796" t="s">
+    <row r="796" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A796" s="3" t="s">
         <v>124</v>
       </c>
       <c r="B796" t="s">
@@ -30903,8 +30920,9 @@
       <c r="N796" t="s">
         <v>1913</v>
       </c>
-    </row>
-    <row r="797" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O796" s="3"/>
+    </row>
+    <row r="797" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A797" t="s">
         <v>124</v>
       </c>
@@ -30942,7 +30960,7 @@
         <v>2235</v>
       </c>
     </row>
-    <row r="798" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A798" t="s">
         <v>125</v>
       </c>
@@ -30953,7 +30971,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="799" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A799" t="s">
         <v>126</v>
       </c>
@@ -30964,7 +30982,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="800" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A800" t="s">
         <v>127</v>
       </c>
@@ -30975,7 +30993,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="801" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A801" t="s">
         <v>128</v>
       </c>
@@ -31010,7 +31028,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="802" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A802" t="s">
         <v>128</v>
       </c>
@@ -31051,7 +31069,7 @@
         <v>2236</v>
       </c>
     </row>
-    <row r="803" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A803" t="s">
         <v>128</v>
       </c>
@@ -31086,7 +31104,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="804" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A804" t="s">
         <v>128</v>
       </c>
@@ -31109,7 +31127,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="805" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A805" t="s">
         <v>128</v>
       </c>
@@ -31132,8 +31150,8 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="806" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A806" t="s">
+    <row r="806" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A806" s="3" t="s">
         <v>128</v>
       </c>
       <c r="B806" t="s">
@@ -31157,10 +31175,10 @@
       <c r="J806" t="s">
         <v>1888</v>
       </c>
-      <c r="K806" t="s">
+      <c r="K806" s="3" t="s">
         <v>1910</v>
       </c>
-      <c r="L806" t="s">
+      <c r="L806" s="3" t="s">
         <v>1911</v>
       </c>
       <c r="M806" t="s">
@@ -31173,7 +31191,7 @@
         <v>2237</v>
       </c>
     </row>
-    <row r="807" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A807" t="s">
         <v>128</v>
       </c>
@@ -31214,7 +31232,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="808" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A808" t="s">
         <v>128</v>
       </c>
@@ -31237,7 +31255,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="809" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A809" t="s">
         <v>128</v>
       </c>
@@ -31278,7 +31296,7 @@
         <v>1977</v>
       </c>
     </row>
-    <row r="810" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A810" t="s">
         <v>128</v>
       </c>
@@ -31319,7 +31337,7 @@
         <v>1952</v>
       </c>
     </row>
-    <row r="811" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A811" t="s">
         <v>128</v>
       </c>
@@ -31357,7 +31375,7 @@
         <v>2082</v>
       </c>
     </row>
-    <row r="812" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A812" t="s">
         <v>129</v>
       </c>
@@ -31398,7 +31416,7 @@
         <v>2238</v>
       </c>
     </row>
-    <row r="813" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A813" t="s">
         <v>129</v>
       </c>
@@ -31436,7 +31454,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="814" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A814" t="s">
         <v>129</v>
       </c>
@@ -31471,7 +31489,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="815" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A815" t="s">
         <v>129</v>
       </c>
@@ -31491,7 +31509,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="816" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A816" t="s">
         <v>129</v>
       </c>
@@ -31532,7 +31550,7 @@
         <v>2239</v>
       </c>
     </row>
-    <row r="817" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A817" t="s">
         <v>129</v>
       </c>
@@ -31573,7 +31591,7 @@
         <v>2240</v>
       </c>
     </row>
-    <row r="818" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A818" t="s">
         <v>129</v>
       </c>
@@ -31614,7 +31632,7 @@
         <v>2241</v>
       </c>
     </row>
-    <row r="819" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A819" t="s">
         <v>129</v>
       </c>
@@ -31652,7 +31670,7 @@
         <v>2082</v>
       </c>
     </row>
-    <row r="820" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A820" t="s">
         <v>129</v>
       </c>
@@ -31690,7 +31708,7 @@
         <v>2082</v>
       </c>
     </row>
-    <row r="821" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A821" t="s">
         <v>129</v>
       </c>
@@ -31731,7 +31749,7 @@
         <v>2082</v>
       </c>
     </row>
-    <row r="822" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A822" t="s">
         <v>129</v>
       </c>
@@ -31770,18 +31788,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O822" xr:uid="{00000000-0009-0000-0000-000001000000}">
-    <filterColumn colId="10">
-      <filters blank="1">
-        <filter val="NO CHANGE"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="14">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:O822" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <conditionalFormatting sqref="E2:E822">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"groen: geen wijzigingen"</formula>

--- a/zib2017-2020/all-translations.xlsx
+++ b/zib2017-2020/all-translations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcd\Dropbox\development\Zibtranslate\zib2017-2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lindamook/Documents/GitHub/nictiz/Zibtranslate/zib2017-2020/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A39D37D8-B20C-4791-847E-416D9BB57E77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB7EF7D9-D332-814B-BE32-9241A016A0FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -6809,7 +6809,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7184,9 +7184,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -7202,22 +7202,22 @@
   <dimension ref="A1:O822"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="K128" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O128" sqref="O128"/>
+      <selection pane="bottomRight" activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="40.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="5" width="40.7109375" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1"/>
-    <col min="7" max="15" width="40.7109375" customWidth="1"/>
+    <col min="1" max="1" width="40.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="5" width="40.6640625" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+    <col min="7" max="15" width="40.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -7264,7 +7264,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -7305,7 +7305,7 @@
         <v>2079</v>
       </c>
     </row>
-    <row r="3" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -7325,7 +7325,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -7345,7 +7345,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="5" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -7365,7 +7365,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="6" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -7385,7 +7385,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="7" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -7411,7 +7411,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="8" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -7437,7 +7437,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="9" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -7463,7 +7463,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="10" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -7483,7 +7483,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="11" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -7503,7 +7503,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="12" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -7523,7 +7523,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="13" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -7564,7 +7564,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="14" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -7590,7 +7590,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="15" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -7613,7 +7613,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="16" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -7636,7 +7636,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="17" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -7659,7 +7659,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="18" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -7682,7 +7682,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="19" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -7711,7 +7711,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="20" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -7734,7 +7734,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="21" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -7757,7 +7757,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="22" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -7804,7 +7804,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="23" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -7845,7 +7845,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="24" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>17</v>
       </c>
@@ -7868,7 +7868,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="25" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>17</v>
       </c>
@@ -7897,7 +7897,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="26" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>17</v>
       </c>
@@ -7920,7 +7920,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="27" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>17</v>
       </c>
@@ -7943,7 +7943,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="28" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>18</v>
       </c>
@@ -7966,7 +7966,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="29" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>18</v>
       </c>
@@ -8013,7 +8013,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="30" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>18</v>
       </c>
@@ -8036,7 +8036,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="31" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>18</v>
       </c>
@@ -8059,7 +8059,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="32" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>18</v>
       </c>
@@ -8082,7 +8082,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="33" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>18</v>
       </c>
@@ -8105,7 +8105,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="34" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>19</v>
       </c>
@@ -8140,7 +8140,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="35" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>19</v>
       </c>
@@ -8163,7 +8163,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="36" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>19</v>
       </c>
@@ -8198,7 +8198,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="37" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>19</v>
       </c>
@@ -8239,7 +8239,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="38" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>19</v>
       </c>
@@ -8286,7 +8286,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="39" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>19</v>
       </c>
@@ -8309,7 +8309,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="40" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>19</v>
       </c>
@@ -8338,7 +8338,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="41" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>19</v>
       </c>
@@ -8376,7 +8376,7 @@
         <v>2082</v>
       </c>
     </row>
-    <row r="42" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>19</v>
       </c>
@@ -8414,7 +8414,7 @@
         <v>2082</v>
       </c>
     </row>
-    <row r="43" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>20</v>
       </c>
@@ -8425,7 +8425,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="44" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>21</v>
       </c>
@@ -8448,7 +8448,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="45" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>21</v>
       </c>
@@ -8495,7 +8495,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="46" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>21</v>
       </c>
@@ -8524,7 +8524,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="47" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>21</v>
       </c>
@@ -8553,7 +8553,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="48" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>21</v>
       </c>
@@ -8576,7 +8576,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="49" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>21</v>
       </c>
@@ -8605,7 +8605,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="50" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>21</v>
       </c>
@@ -8628,7 +8628,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="51" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>21</v>
       </c>
@@ -8651,7 +8651,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="52" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>21</v>
       </c>
@@ -8674,7 +8674,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="53" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>21</v>
       </c>
@@ -8721,7 +8721,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="54" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>21</v>
       </c>
@@ -8768,7 +8768,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="55" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>21</v>
       </c>
@@ -8791,7 +8791,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="56" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>21</v>
       </c>
@@ -8820,7 +8820,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="57" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>21</v>
       </c>
@@ -8849,7 +8849,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="58" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>21</v>
       </c>
@@ -8872,7 +8872,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="59" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>22</v>
       </c>
@@ -8883,7 +8883,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="60" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>23</v>
       </c>
@@ -8903,7 +8903,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="61" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>23</v>
       </c>
@@ -8938,7 +8938,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="62" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>23</v>
       </c>
@@ -8958,7 +8958,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="63" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>23</v>
       </c>
@@ -8978,7 +8978,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="64" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>23</v>
       </c>
@@ -8998,7 +8998,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>23</v>
       </c>
@@ -9018,7 +9018,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>23</v>
       </c>
@@ -9038,7 +9038,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>23</v>
       </c>
@@ -9058,7 +9058,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>23</v>
       </c>
@@ -9078,7 +9078,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>24</v>
       </c>
@@ -9098,7 +9098,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>24</v>
       </c>
@@ -9118,7 +9118,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>24</v>
       </c>
@@ -9144,7 +9144,7 @@
         <v>1374</v>
       </c>
     </row>
-    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>24</v>
       </c>
@@ -9170,7 +9170,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>24</v>
       </c>
@@ -9196,7 +9196,7 @@
         <v>1376</v>
       </c>
     </row>
-    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>24</v>
       </c>
@@ -9222,7 +9222,7 @@
         <v>1377</v>
       </c>
     </row>
-    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>24</v>
       </c>
@@ -9248,7 +9248,7 @@
         <v>1378</v>
       </c>
     </row>
-    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>24</v>
       </c>
@@ -9274,7 +9274,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>24</v>
       </c>
@@ -9300,7 +9300,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>24</v>
       </c>
@@ -9326,7 +9326,7 @@
         <v>1381</v>
       </c>
     </row>
-    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>24</v>
       </c>
@@ -9352,7 +9352,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>24</v>
       </c>
@@ -9378,7 +9378,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="81" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>25</v>
       </c>
@@ -9389,7 +9389,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="82" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>26</v>
       </c>
@@ -9400,7 +9400,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="83" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>27</v>
       </c>
@@ -9411,7 +9411,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="84" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>28</v>
       </c>
@@ -9431,7 +9431,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="85" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>28</v>
       </c>
@@ -9469,7 +9469,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="86" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>28</v>
       </c>
@@ -9489,7 +9489,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="87" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>28</v>
       </c>
@@ -9509,7 +9509,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="88" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>28</v>
       </c>
@@ -9550,7 +9550,7 @@
         <v>2083</v>
       </c>
     </row>
-    <row r="89" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>29</v>
       </c>
@@ -9585,7 +9585,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="90" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>29</v>
       </c>
@@ -9605,7 +9605,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="91" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>29</v>
       </c>
@@ -9625,7 +9625,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="92" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>29</v>
       </c>
@@ -9660,7 +9660,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="93" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>30</v>
       </c>
@@ -9683,7 +9683,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="94" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>30</v>
       </c>
@@ -9718,7 +9718,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="95" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>30</v>
       </c>
@@ -9741,7 +9741,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="96" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>30</v>
       </c>
@@ -9764,7 +9764,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="97" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>30</v>
       </c>
@@ -9787,7 +9787,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="98" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>30</v>
       </c>
@@ -9810,7 +9810,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="99" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>30</v>
       </c>
@@ -9833,7 +9833,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="100" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>30</v>
       </c>
@@ -9856,7 +9856,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="101" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>30</v>
       </c>
@@ -9879,7 +9879,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="102" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>30</v>
       </c>
@@ -9902,7 +9902,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="103" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>30</v>
       </c>
@@ -9925,7 +9925,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="104" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>30</v>
       </c>
@@ -9948,7 +9948,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="105" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>30</v>
       </c>
@@ -9971,7 +9971,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="106" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>30</v>
       </c>
@@ -9994,7 +9994,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="107" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>30</v>
       </c>
@@ -10023,7 +10023,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="108" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>30</v>
       </c>
@@ -10046,7 +10046,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="109" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>30</v>
       </c>
@@ -10069,7 +10069,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="110" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>31</v>
       </c>
@@ -10110,7 +10110,7 @@
         <v>2084</v>
       </c>
     </row>
-    <row r="111" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>31</v>
       </c>
@@ -10136,7 +10136,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="112" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>31</v>
       </c>
@@ -10156,7 +10156,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="113" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>31</v>
       </c>
@@ -10182,7 +10182,7 @@
         <v>1386</v>
       </c>
     </row>
-    <row r="114" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>31</v>
       </c>
@@ -10202,7 +10202,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="115" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>31</v>
       </c>
@@ -10222,7 +10222,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="116" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>31</v>
       </c>
@@ -10242,7 +10242,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="117" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>32</v>
       </c>
@@ -10283,7 +10283,7 @@
         <v>2085</v>
       </c>
     </row>
-    <row r="118" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>32</v>
       </c>
@@ -10306,7 +10306,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="119" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>32</v>
       </c>
@@ -10329,7 +10329,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="120" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>32</v>
       </c>
@@ -10352,7 +10352,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="121" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>32</v>
       </c>
@@ -10375,7 +10375,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="122" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>32</v>
       </c>
@@ -10398,7 +10398,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="123" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
         <v>32</v>
       </c>
@@ -10445,7 +10445,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="124" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>32</v>
       </c>
@@ -10468,7 +10468,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="125" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>32</v>
       </c>
@@ -10497,7 +10497,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="126" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>32</v>
       </c>
@@ -10526,7 +10526,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="127" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>32</v>
       </c>
@@ -10549,7 +10549,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
         <v>33</v>
       </c>
@@ -10572,7 +10572,7 @@
         <v>2086</v>
       </c>
     </row>
-    <row r="129" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>33</v>
       </c>
@@ -10598,7 +10598,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="130" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>33</v>
       </c>
@@ -10618,7 +10618,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="131" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>33</v>
       </c>
@@ -10665,7 +10665,7 @@
         <v>2087</v>
       </c>
     </row>
-    <row r="132" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>33</v>
       </c>
@@ -10685,7 +10685,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="133" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>33</v>
       </c>
@@ -10705,7 +10705,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="134" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>33</v>
       </c>
@@ -10725,7 +10725,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="135" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>33</v>
       </c>
@@ -10766,7 +10766,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="136" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>33</v>
       </c>
@@ -10813,7 +10813,7 @@
         <v>2088</v>
       </c>
     </row>
-    <row r="137" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>33</v>
       </c>
@@ -10848,7 +10848,7 @@
         <v>1913</v>
       </c>
     </row>
-    <row r="138" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>34</v>
       </c>
@@ -10883,7 +10883,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="139" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>34</v>
       </c>
@@ -10906,7 +10906,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="140" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>34</v>
       </c>
@@ -10953,7 +10953,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="141" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>35</v>
       </c>
@@ -10994,7 +10994,7 @@
         <v>2089</v>
       </c>
     </row>
-    <row r="142" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>35</v>
       </c>
@@ -11035,7 +11035,7 @@
         <v>2090</v>
       </c>
     </row>
-    <row r="143" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>35</v>
       </c>
@@ -11076,7 +11076,7 @@
         <v>2091</v>
       </c>
     </row>
-    <row r="144" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>35</v>
       </c>
@@ -11117,7 +11117,7 @@
         <v>2092</v>
       </c>
     </row>
-    <row r="145" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>35</v>
       </c>
@@ -11158,7 +11158,7 @@
         <v>2093</v>
       </c>
     </row>
-    <row r="146" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>35</v>
       </c>
@@ -11199,7 +11199,7 @@
         <v>2094</v>
       </c>
     </row>
-    <row r="147" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>35</v>
       </c>
@@ -11240,7 +11240,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="148" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>35</v>
       </c>
@@ -11281,7 +11281,7 @@
         <v>2096</v>
       </c>
     </row>
-    <row r="149" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>35</v>
       </c>
@@ -11322,7 +11322,7 @@
         <v>2097</v>
       </c>
     </row>
-    <row r="150" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>35</v>
       </c>
@@ -11363,7 +11363,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="151" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>35</v>
       </c>
@@ -11404,7 +11404,7 @@
         <v>2099</v>
       </c>
     </row>
-    <row r="152" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>35</v>
       </c>
@@ -11445,7 +11445,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="153" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>35</v>
       </c>
@@ -11465,7 +11465,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="154" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>35</v>
       </c>
@@ -11485,7 +11485,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="155" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>36</v>
       </c>
@@ -11526,7 +11526,7 @@
         <v>2101</v>
       </c>
     </row>
-    <row r="156" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>36</v>
       </c>
@@ -11567,7 +11567,7 @@
         <v>2102</v>
       </c>
     </row>
-    <row r="157" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>36</v>
       </c>
@@ -11614,7 +11614,7 @@
         <v>2103</v>
       </c>
     </row>
-    <row r="158" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>36</v>
       </c>
@@ -11661,7 +11661,7 @@
         <v>2104</v>
       </c>
     </row>
-    <row r="159" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>36</v>
       </c>
@@ -11708,7 +11708,7 @@
         <v>2105</v>
       </c>
     </row>
-    <row r="160" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>36</v>
       </c>
@@ -11755,7 +11755,7 @@
         <v>2106</v>
       </c>
     </row>
-    <row r="161" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>36</v>
       </c>
@@ -11802,7 +11802,7 @@
         <v>2107</v>
       </c>
     </row>
-    <row r="162" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>36</v>
       </c>
@@ -11849,7 +11849,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="163" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>36</v>
       </c>
@@ -11896,7 +11896,7 @@
         <v>2109</v>
       </c>
     </row>
-    <row r="164" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>36</v>
       </c>
@@ -11916,7 +11916,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="165" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>36</v>
       </c>
@@ -11936,7 +11936,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="166" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>37</v>
       </c>
@@ -11971,7 +11971,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="167" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>37</v>
       </c>
@@ -12012,7 +12012,7 @@
         <v>2110</v>
       </c>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
         <v>37</v>
       </c>
@@ -12044,7 +12044,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="169" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>37</v>
       </c>
@@ -12082,7 +12082,7 @@
         <v>2111</v>
       </c>
     </row>
-    <row r="170" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>37</v>
       </c>
@@ -12117,7 +12117,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="171" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>37</v>
       </c>
@@ -12155,7 +12155,7 @@
         <v>2111</v>
       </c>
     </row>
-    <row r="172" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>37</v>
       </c>
@@ -12190,7 +12190,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="173" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>37</v>
       </c>
@@ -12231,7 +12231,7 @@
         <v>2112</v>
       </c>
     </row>
-    <row r="174" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>37</v>
       </c>
@@ -12266,7 +12266,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="175" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>37</v>
       </c>
@@ -12289,7 +12289,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="176" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>37</v>
       </c>
@@ -12312,7 +12312,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="177" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>37</v>
       </c>
@@ -12353,7 +12353,7 @@
         <v>2112</v>
       </c>
     </row>
-    <row r="178" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>37</v>
       </c>
@@ -12388,7 +12388,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="179" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>37</v>
       </c>
@@ -12429,7 +12429,7 @@
         <v>2112</v>
       </c>
     </row>
-    <row r="180" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>37</v>
       </c>
@@ -12470,7 +12470,7 @@
         <v>2113</v>
       </c>
     </row>
-    <row r="181" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>37</v>
       </c>
@@ -12499,7 +12499,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="182" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>37</v>
       </c>
@@ -12528,7 +12528,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="183" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>37</v>
       </c>
@@ -12566,7 +12566,7 @@
         <v>2082</v>
       </c>
     </row>
-    <row r="184" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>38</v>
       </c>
@@ -12589,7 +12589,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="185" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>38</v>
       </c>
@@ -12612,7 +12612,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="186" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>38</v>
       </c>
@@ -12635,7 +12635,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="187" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>38</v>
       </c>
@@ -12658,7 +12658,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="188" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>38</v>
       </c>
@@ -12705,7 +12705,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="189" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>38</v>
       </c>
@@ -12734,7 +12734,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="190" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>38</v>
       </c>
@@ -12757,7 +12757,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="191" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>38</v>
       </c>
@@ -12786,7 +12786,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="192" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>38</v>
       </c>
@@ -12833,7 +12833,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="193" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>38</v>
       </c>
@@ -12871,7 +12871,7 @@
         <v>2082</v>
       </c>
     </row>
-    <row r="194" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>39</v>
       </c>
@@ -12906,7 +12906,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="195" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>39</v>
       </c>
@@ -12947,7 +12947,7 @@
         <v>2114</v>
       </c>
     </row>
-    <row r="196" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>39</v>
       </c>
@@ -12994,7 +12994,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="197" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>39</v>
       </c>
@@ -13023,7 +13023,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="198" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>39</v>
       </c>
@@ -13046,7 +13046,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="199" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>39</v>
       </c>
@@ -13087,7 +13087,7 @@
         <v>2115</v>
       </c>
     </row>
-    <row r="200" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>39</v>
       </c>
@@ -13110,7 +13110,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="201" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>40</v>
       </c>
@@ -13151,7 +13151,7 @@
         <v>2116</v>
       </c>
     </row>
-    <row r="202" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>40</v>
       </c>
@@ -13177,7 +13177,7 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="203" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>40</v>
       </c>
@@ -13197,7 +13197,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="204" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>40</v>
       </c>
@@ -13217,7 +13217,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="205" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>40</v>
       </c>
@@ -13237,7 +13237,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="206" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>40</v>
       </c>
@@ -13257,7 +13257,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="207" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>40</v>
       </c>
@@ -13283,7 +13283,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="208" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>40</v>
       </c>
@@ -13309,7 +13309,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="209" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>41</v>
       </c>
@@ -13320,7 +13320,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="210" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>42</v>
       </c>
@@ -13340,7 +13340,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="211" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>42</v>
       </c>
@@ -13360,7 +13360,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="212" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>42</v>
       </c>
@@ -13380,7 +13380,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="213" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>42</v>
       </c>
@@ -13427,7 +13427,7 @@
         <v>2117</v>
       </c>
     </row>
-    <row r="214" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>42</v>
       </c>
@@ -13447,7 +13447,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="215" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>42</v>
       </c>
@@ -13467,7 +13467,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="216" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>42</v>
       </c>
@@ -13487,7 +13487,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="217" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>42</v>
       </c>
@@ -13507,7 +13507,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="218" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>42</v>
       </c>
@@ -13527,7 +13527,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="219" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>42</v>
       </c>
@@ -13547,7 +13547,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="220" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>42</v>
       </c>
@@ -13594,7 +13594,7 @@
         <v>2118</v>
       </c>
     </row>
-    <row r="221" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>43</v>
       </c>
@@ -13614,7 +13614,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="222" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>43</v>
       </c>
@@ -13634,7 +13634,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="223" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>43</v>
       </c>
@@ -13654,7 +13654,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="224" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>43</v>
       </c>
@@ -13674,7 +13674,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="225" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>43</v>
       </c>
@@ -13709,7 +13709,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="226" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>43</v>
       </c>
@@ -13744,7 +13744,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="227" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>43</v>
       </c>
@@ -13779,7 +13779,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="228" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>43</v>
       </c>
@@ -13814,7 +13814,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="229" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>43</v>
       </c>
@@ -13849,7 +13849,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="230" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>43</v>
       </c>
@@ -13884,7 +13884,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="231" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>43</v>
       </c>
@@ -13919,7 +13919,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="232" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>43</v>
       </c>
@@ -13954,7 +13954,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="233" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>43</v>
       </c>
@@ -13989,7 +13989,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="234" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>43</v>
       </c>
@@ -14024,7 +14024,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="235" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>43</v>
       </c>
@@ -14059,7 +14059,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="236" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>43</v>
       </c>
@@ -14094,7 +14094,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="237" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>43</v>
       </c>
@@ -14129,7 +14129,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="238" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>44</v>
       </c>
@@ -14170,7 +14170,7 @@
         <v>2119</v>
       </c>
     </row>
-    <row r="239" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>44</v>
       </c>
@@ -14199,7 +14199,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="240" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>44</v>
       </c>
@@ -14246,7 +14246,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="241" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>44</v>
       </c>
@@ -14275,7 +14275,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="242" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>44</v>
       </c>
@@ -14298,7 +14298,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="243" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>44</v>
       </c>
@@ -14321,7 +14321,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="244" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>44</v>
       </c>
@@ -14344,7 +14344,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="245" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>44</v>
       </c>
@@ -14367,7 +14367,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="246" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>44</v>
       </c>
@@ -14390,7 +14390,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="247" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>45</v>
       </c>
@@ -14410,7 +14410,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="248" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>45</v>
       </c>
@@ -14430,7 +14430,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="249" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>45</v>
       </c>
@@ -14450,7 +14450,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="250" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>45</v>
       </c>
@@ -14476,7 +14476,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="251" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>45</v>
       </c>
@@ -14496,7 +14496,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="252" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>45</v>
       </c>
@@ -14516,7 +14516,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="253" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>45</v>
       </c>
@@ -14536,7 +14536,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="254" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>45</v>
       </c>
@@ -14556,7 +14556,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="255" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>45</v>
       </c>
@@ -14576,7 +14576,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="256" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>45</v>
       </c>
@@ -14596,7 +14596,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="257" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>46</v>
       </c>
@@ -14607,7 +14607,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="258" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>47</v>
       </c>
@@ -14648,7 +14648,7 @@
         <v>2120</v>
       </c>
     </row>
-    <row r="259" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>47</v>
       </c>
@@ -14689,7 +14689,7 @@
         <v>2121</v>
       </c>
     </row>
-    <row r="260" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>47</v>
       </c>
@@ -14736,7 +14736,7 @@
         <v>2122</v>
       </c>
     </row>
-    <row r="261" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>47</v>
       </c>
@@ -14783,7 +14783,7 @@
         <v>2123</v>
       </c>
     </row>
-    <row r="262" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>47</v>
       </c>
@@ -14830,7 +14830,7 @@
         <v>2124</v>
       </c>
     </row>
-    <row r="263" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>47</v>
       </c>
@@ -14877,7 +14877,7 @@
         <v>2125</v>
       </c>
     </row>
-    <row r="264" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>47</v>
       </c>
@@ -14924,7 +14924,7 @@
         <v>2126</v>
       </c>
     </row>
-    <row r="265" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>47</v>
       </c>
@@ -14944,7 +14944,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="266" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>47</v>
       </c>
@@ -14964,7 +14964,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="267" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>48</v>
       </c>
@@ -14984,7 +14984,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="268" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A268" s="2" t="s">
         <v>48</v>
       </c>
@@ -15007,7 +15007,7 @@
         <v>2127</v>
       </c>
     </row>
-    <row r="269" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>48</v>
       </c>
@@ -15054,7 +15054,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="270" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A270" s="2" t="s">
         <v>48</v>
       </c>
@@ -15083,7 +15083,7 @@
         <v>2128</v>
       </c>
     </row>
-    <row r="271" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A271" s="2" t="s">
         <v>48</v>
       </c>
@@ -15106,7 +15106,7 @@
         <v>2129</v>
       </c>
     </row>
-    <row r="272" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A272" s="2" t="s">
         <v>48</v>
       </c>
@@ -15129,7 +15129,7 @@
         <v>2130</v>
       </c>
     </row>
-    <row r="273" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>49</v>
       </c>
@@ -15149,7 +15149,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="274" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>49</v>
       </c>
@@ -15169,7 +15169,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="275" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>49</v>
       </c>
@@ -15195,7 +15195,7 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="276" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>49</v>
       </c>
@@ -15221,7 +15221,7 @@
         <v>1426</v>
       </c>
     </row>
-    <row r="277" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>49</v>
       </c>
@@ -15241,7 +15241,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="278" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>50</v>
       </c>
@@ -15264,7 +15264,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="279" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>50</v>
       </c>
@@ -15311,7 +15311,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="280" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>50</v>
       </c>
@@ -15352,7 +15352,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="281" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>50</v>
       </c>
@@ -15399,7 +15399,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="282" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>50</v>
       </c>
@@ -15422,7 +15422,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="283" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>50</v>
       </c>
@@ -15445,7 +15445,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="284" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>50</v>
       </c>
@@ -15468,7 +15468,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="285" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>51</v>
       </c>
@@ -15479,7 +15479,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="286" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>52</v>
       </c>
@@ -15520,7 +15520,7 @@
         <v>2131</v>
       </c>
     </row>
-    <row r="287" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>52</v>
       </c>
@@ -15540,7 +15540,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="288" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>52</v>
       </c>
@@ -15560,7 +15560,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="289" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>52</v>
       </c>
@@ -15580,7 +15580,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="290" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>52</v>
       </c>
@@ -15621,7 +15621,7 @@
         <v>2132</v>
       </c>
     </row>
-    <row r="291" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>52</v>
       </c>
@@ -15641,7 +15641,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="292" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>52</v>
       </c>
@@ -15661,7 +15661,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="293" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>52</v>
       </c>
@@ -15708,7 +15708,7 @@
         <v>2133</v>
       </c>
     </row>
-    <row r="294" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>52</v>
       </c>
@@ -15749,7 +15749,7 @@
         <v>2134</v>
       </c>
     </row>
-    <row r="295" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>52</v>
       </c>
@@ -15769,7 +15769,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="296" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>52</v>
       </c>
@@ -15807,7 +15807,7 @@
         <v>2082</v>
       </c>
     </row>
-    <row r="297" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>53</v>
       </c>
@@ -15848,7 +15848,7 @@
         <v>2135</v>
       </c>
     </row>
-    <row r="298" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>53</v>
       </c>
@@ -15895,7 +15895,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="299" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>53</v>
       </c>
@@ -15915,7 +15915,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="300" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>53</v>
       </c>
@@ -15935,7 +15935,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="301" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>53</v>
       </c>
@@ -15955,7 +15955,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="302" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>53</v>
       </c>
@@ -15975,7 +15975,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="303" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>53</v>
       </c>
@@ -16016,7 +16016,7 @@
         <v>2136</v>
       </c>
     </row>
-    <row r="304" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>53</v>
       </c>
@@ -16036,7 +16036,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="305" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>53</v>
       </c>
@@ -16056,7 +16056,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="306" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>53</v>
       </c>
@@ -16076,7 +16076,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="307" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>53</v>
       </c>
@@ -16096,7 +16096,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="308" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>54</v>
       </c>
@@ -16116,7 +16116,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="309" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>54</v>
       </c>
@@ -16142,7 +16142,7 @@
         <v>1432</v>
       </c>
     </row>
-    <row r="310" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>54</v>
       </c>
@@ -16189,7 +16189,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="311" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>54</v>
       </c>
@@ -16236,7 +16236,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="312" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>54</v>
       </c>
@@ -16256,7 +16256,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="313" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>54</v>
       </c>
@@ -16276,7 +16276,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="314" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>54</v>
       </c>
@@ -16317,7 +16317,7 @@
         <v>2137</v>
       </c>
     </row>
-    <row r="315" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>54</v>
       </c>
@@ -16343,7 +16343,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="316" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>55</v>
       </c>
@@ -16384,7 +16384,7 @@
         <v>2138</v>
       </c>
     </row>
-    <row r="317" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>55</v>
       </c>
@@ -16425,7 +16425,7 @@
         <v>2139</v>
       </c>
     </row>
-    <row r="318" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>55</v>
       </c>
@@ -16445,7 +16445,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="319" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>55</v>
       </c>
@@ -16465,7 +16465,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="320" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>55</v>
       </c>
@@ -16512,7 +16512,7 @@
         <v>2140</v>
       </c>
     </row>
-    <row r="321" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>55</v>
       </c>
@@ -16559,7 +16559,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="322" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>55</v>
       </c>
@@ -16606,7 +16606,7 @@
         <v>2141</v>
       </c>
     </row>
-    <row r="323" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>55</v>
       </c>
@@ -16653,7 +16653,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="324" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>55</v>
       </c>
@@ -16694,7 +16694,7 @@
         <v>2082</v>
       </c>
     </row>
-    <row r="325" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>56</v>
       </c>
@@ -16714,7 +16714,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="326" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>56</v>
       </c>
@@ -16740,7 +16740,7 @@
         <v>1438</v>
       </c>
     </row>
-    <row r="327" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>56</v>
       </c>
@@ -16760,7 +16760,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="328" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>56</v>
       </c>
@@ -16807,7 +16807,7 @@
         <v>2142</v>
       </c>
     </row>
-    <row r="329" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>56</v>
       </c>
@@ -16827,7 +16827,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="330" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>56</v>
       </c>
@@ -16847,7 +16847,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="331" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>56</v>
       </c>
@@ -16894,7 +16894,7 @@
         <v>2143</v>
       </c>
     </row>
-    <row r="332" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>57</v>
       </c>
@@ -16914,7 +16914,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="333" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>57</v>
       </c>
@@ -16934,7 +16934,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="334" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>57</v>
       </c>
@@ -16954,7 +16954,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="335" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>57</v>
       </c>
@@ -16974,7 +16974,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="336" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>57</v>
       </c>
@@ -17009,7 +17009,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="337" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>57</v>
       </c>
@@ -17029,7 +17029,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="338" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>57</v>
       </c>
@@ -17049,7 +17049,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="339" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>57</v>
       </c>
@@ -17069,7 +17069,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="340" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>57</v>
       </c>
@@ -17095,7 +17095,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="341" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>58</v>
       </c>
@@ -17115,7 +17115,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="342" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>58</v>
       </c>
@@ -17135,7 +17135,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="343" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>58</v>
       </c>
@@ -17182,7 +17182,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="344" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>58</v>
       </c>
@@ -17202,7 +17202,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="345" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>58</v>
       </c>
@@ -17222,7 +17222,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="346" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>58</v>
       </c>
@@ -17242,7 +17242,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="347" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>58</v>
       </c>
@@ -17262,7 +17262,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="348" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>58</v>
       </c>
@@ -17288,7 +17288,7 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="349" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>58</v>
       </c>
@@ -17308,7 +17308,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="350" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>58</v>
       </c>
@@ -17334,7 +17334,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="351" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>58</v>
       </c>
@@ -17354,7 +17354,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="352" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>58</v>
       </c>
@@ -17374,7 +17374,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="353" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>59</v>
       </c>
@@ -17385,7 +17385,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="354" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>60</v>
       </c>
@@ -17408,7 +17408,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="355" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>60</v>
       </c>
@@ -17431,7 +17431,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="356" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>60</v>
       </c>
@@ -17460,7 +17460,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="357" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>60</v>
       </c>
@@ -17489,7 +17489,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="358" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>60</v>
       </c>
@@ -17512,7 +17512,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="359" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>60</v>
       </c>
@@ -17541,7 +17541,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="360" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>60</v>
       </c>
@@ -17570,7 +17570,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="361" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>60</v>
       </c>
@@ -17617,7 +17617,7 @@
         <v>2038</v>
       </c>
     </row>
-    <row r="362" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>60</v>
       </c>
@@ -17643,7 +17643,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="363" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>60</v>
       </c>
@@ -17666,7 +17666,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="364" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>60</v>
       </c>
@@ -17689,7 +17689,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="365" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>60</v>
       </c>
@@ -17712,7 +17712,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="366" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>60</v>
       </c>
@@ -17735,7 +17735,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="367" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>60</v>
       </c>
@@ -17776,7 +17776,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="368" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>60</v>
       </c>
@@ -17817,7 +17817,7 @@
         <v>1952</v>
       </c>
     </row>
-    <row r="369" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>60</v>
       </c>
@@ -17864,7 +17864,7 @@
         <v>2144</v>
       </c>
     </row>
-    <row r="370" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>60</v>
       </c>
@@ -17899,7 +17899,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="371" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>60</v>
       </c>
@@ -17934,7 +17934,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="372" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>60</v>
       </c>
@@ -17969,7 +17969,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="373" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>60</v>
       </c>
@@ -17989,7 +17989,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="374" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>60</v>
       </c>
@@ -18018,7 +18018,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="375" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>60</v>
       </c>
@@ -18041,7 +18041,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="376" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>60</v>
       </c>
@@ -18082,7 +18082,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="377" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>60</v>
       </c>
@@ -18120,7 +18120,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="378" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>60</v>
       </c>
@@ -18143,7 +18143,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="379" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>60</v>
       </c>
@@ -18190,7 +18190,7 @@
         <v>2145</v>
       </c>
     </row>
-    <row r="380" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>60</v>
       </c>
@@ -18237,7 +18237,7 @@
         <v>2146</v>
       </c>
     </row>
-    <row r="381" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>60</v>
       </c>
@@ -18284,7 +18284,7 @@
         <v>2147</v>
       </c>
     </row>
-    <row r="382" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>60</v>
       </c>
@@ -18307,7 +18307,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="383" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>60</v>
       </c>
@@ -18348,7 +18348,7 @@
         <v>2148</v>
       </c>
     </row>
-    <row r="384" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>60</v>
       </c>
@@ -18377,7 +18377,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="385" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>60</v>
       </c>
@@ -18406,7 +18406,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="386" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>60</v>
       </c>
@@ -18429,7 +18429,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="387" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>60</v>
       </c>
@@ -18452,7 +18452,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="388" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>60</v>
       </c>
@@ -18475,7 +18475,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="389" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>60</v>
       </c>
@@ -18513,7 +18513,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="390" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>61</v>
       </c>
@@ -18533,7 +18533,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="391" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>61</v>
       </c>
@@ -18559,7 +18559,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="392" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>61</v>
       </c>
@@ -18594,7 +18594,7 @@
         <v>1913</v>
       </c>
     </row>
-    <row r="393" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>62</v>
       </c>
@@ -18635,7 +18635,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="394" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>62</v>
       </c>
@@ -18676,7 +18676,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="395" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>62</v>
       </c>
@@ -18699,7 +18699,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="396" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>62</v>
       </c>
@@ -18722,7 +18722,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="397" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>62</v>
       </c>
@@ -18769,7 +18769,7 @@
         <v>2152</v>
       </c>
     </row>
-    <row r="398" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>63</v>
       </c>
@@ -18810,7 +18810,7 @@
         <v>2153</v>
       </c>
     </row>
-    <row r="399" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>63</v>
       </c>
@@ -18833,7 +18833,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="400" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>63</v>
       </c>
@@ -18856,7 +18856,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="401" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>63</v>
       </c>
@@ -18879,7 +18879,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="402" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>63</v>
       </c>
@@ -18926,7 +18926,7 @@
         <v>2154</v>
       </c>
     </row>
-    <row r="403" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>64</v>
       </c>
@@ -18967,7 +18967,7 @@
         <v>2155</v>
       </c>
     </row>
-    <row r="404" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>64</v>
       </c>
@@ -18987,7 +18987,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="405" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>64</v>
       </c>
@@ -19007,7 +19007,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="406" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>64</v>
       </c>
@@ -19027,7 +19027,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="407" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>64</v>
       </c>
@@ -19068,7 +19068,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="408" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>65</v>
       </c>
@@ -19088,7 +19088,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="409" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>65</v>
       </c>
@@ -19108,7 +19108,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="410" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>65</v>
       </c>
@@ -19149,7 +19149,7 @@
         <v>2156</v>
       </c>
     </row>
-    <row r="411" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>65</v>
       </c>
@@ -19169,7 +19169,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="412" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>65</v>
       </c>
@@ -19216,7 +19216,7 @@
         <v>2157</v>
       </c>
     </row>
-    <row r="413" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>65</v>
       </c>
@@ -19236,7 +19236,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="414" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>65</v>
       </c>
@@ -19283,7 +19283,7 @@
         <v>1991</v>
       </c>
     </row>
-    <row r="415" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>65</v>
       </c>
@@ -19303,7 +19303,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="416" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>65</v>
       </c>
@@ -19329,7 +19329,7 @@
         <v>1464</v>
       </c>
     </row>
-    <row r="417" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>65</v>
       </c>
@@ -19376,7 +19376,7 @@
         <v>2158</v>
       </c>
     </row>
-    <row r="418" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>65</v>
       </c>
@@ -19417,7 +19417,7 @@
         <v>2159</v>
       </c>
     </row>
-    <row r="419" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>65</v>
       </c>
@@ -19458,7 +19458,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="420" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>65</v>
       </c>
@@ -19490,7 +19490,7 @@
         <v>1914</v>
       </c>
     </row>
-    <row r="421" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>65</v>
       </c>
@@ -19522,7 +19522,7 @@
         <v>1914</v>
       </c>
     </row>
-    <row r="422" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>65</v>
       </c>
@@ -19554,7 +19554,7 @@
         <v>1914</v>
       </c>
     </row>
-    <row r="423" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>66</v>
       </c>
@@ -19565,7 +19565,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="424" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>67</v>
       </c>
@@ -19585,7 +19585,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="425" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>67</v>
       </c>
@@ -19626,7 +19626,7 @@
         <v>2156</v>
       </c>
     </row>
-    <row r="426" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>67</v>
       </c>
@@ -19646,7 +19646,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="427" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>67</v>
       </c>
@@ -19666,7 +19666,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="428" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>67</v>
       </c>
@@ -19686,7 +19686,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="429" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>67</v>
       </c>
@@ -19727,7 +19727,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="430" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>67</v>
       </c>
@@ -19747,7 +19747,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="431" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>67</v>
       </c>
@@ -19773,7 +19773,7 @@
         <v>1466</v>
       </c>
     </row>
-    <row r="432" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>67</v>
       </c>
@@ -19793,7 +19793,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="433" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>67</v>
       </c>
@@ -19813,7 +19813,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="434" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>67</v>
       </c>
@@ -19833,7 +19833,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="435" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>67</v>
       </c>
@@ -19853,7 +19853,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="436" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>67</v>
       </c>
@@ -19873,7 +19873,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="437" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>67</v>
       </c>
@@ -19893,7 +19893,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="438" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>67</v>
       </c>
@@ -19913,7 +19913,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="439" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>67</v>
       </c>
@@ -19933,7 +19933,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="440" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>67</v>
       </c>
@@ -19959,7 +19959,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="441" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>67</v>
       </c>
@@ -19985,7 +19985,7 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="442" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>67</v>
       </c>
@@ -20005,7 +20005,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="443" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>68</v>
       </c>
@@ -20016,7 +20016,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="444" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>69</v>
       </c>
@@ -20051,7 +20051,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="445" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>69</v>
       </c>
@@ -20086,7 +20086,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="446" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>69</v>
       </c>
@@ -20109,7 +20109,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="447" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>69</v>
       </c>
@@ -20144,7 +20144,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="448" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>69</v>
       </c>
@@ -20191,7 +20191,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="449" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>69</v>
       </c>
@@ -20220,7 +20220,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="450" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>69</v>
       </c>
@@ -20267,7 +20267,7 @@
         <v>2161</v>
       </c>
     </row>
-    <row r="451" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>69</v>
       </c>
@@ -20290,7 +20290,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="452" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>69</v>
       </c>
@@ -20325,7 +20325,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="453" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>69</v>
       </c>
@@ -20360,7 +20360,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="454" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>69</v>
       </c>
@@ -20395,7 +20395,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="455" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>69</v>
       </c>
@@ -20430,7 +20430,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="456" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>69</v>
       </c>
@@ -20477,7 +20477,7 @@
         <v>2162</v>
       </c>
     </row>
-    <row r="457" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>69</v>
       </c>
@@ -20500,7 +20500,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="458" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>69</v>
       </c>
@@ -20538,7 +20538,7 @@
         <v>2082</v>
       </c>
     </row>
-    <row r="459" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
         <v>70</v>
       </c>
@@ -20558,7 +20558,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="460" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
         <v>70</v>
       </c>
@@ -20605,7 +20605,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="461" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
         <v>70</v>
       </c>
@@ -20625,7 +20625,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="462" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
         <v>70</v>
       </c>
@@ -20672,7 +20672,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="463" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
         <v>70</v>
       </c>
@@ -20719,7 +20719,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="464" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
         <v>70</v>
       </c>
@@ -20766,7 +20766,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="465" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
         <v>70</v>
       </c>
@@ -20813,7 +20813,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="466" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
         <v>70</v>
       </c>
@@ -20833,7 +20833,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="467" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
         <v>70</v>
       </c>
@@ -20880,7 +20880,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="468" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
         <v>71</v>
       </c>
@@ -20921,7 +20921,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="469" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
         <v>71</v>
       </c>
@@ -20962,7 +20962,7 @@
         <v>2165</v>
       </c>
     </row>
-    <row r="470" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
         <v>71</v>
       </c>
@@ -21009,7 +21009,7 @@
         <v>2166</v>
       </c>
     </row>
-    <row r="471" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
         <v>71</v>
       </c>
@@ -21056,7 +21056,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="472" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
         <v>71</v>
       </c>
@@ -21103,7 +21103,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="473" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
         <v>71</v>
       </c>
@@ -21123,7 +21123,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="474" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
         <v>71</v>
       </c>
@@ -21143,7 +21143,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="475" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
         <v>72</v>
       </c>
@@ -21166,7 +21166,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="476" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
         <v>72</v>
       </c>
@@ -21189,7 +21189,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="477" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
         <v>72</v>
       </c>
@@ -21212,7 +21212,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="478" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
         <v>72</v>
       </c>
@@ -21235,7 +21235,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="479" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
         <v>72</v>
       </c>
@@ -21258,7 +21258,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="480" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
         <v>72</v>
       </c>
@@ -21281,7 +21281,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="481" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
         <v>72</v>
       </c>
@@ -21310,7 +21310,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="482" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
         <v>72</v>
       </c>
@@ -21333,7 +21333,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="483" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
         <v>72</v>
       </c>
@@ -21356,7 +21356,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="484" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
         <v>72</v>
       </c>
@@ -21379,7 +21379,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="485" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
         <v>72</v>
       </c>
@@ -21402,7 +21402,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="486" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
         <v>72</v>
       </c>
@@ -21440,7 +21440,7 @@
         <v>2082</v>
       </c>
     </row>
-    <row r="487" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
         <v>73</v>
       </c>
@@ -21460,7 +21460,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="488" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
         <v>73</v>
       </c>
@@ -21486,7 +21486,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="489" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
         <v>74</v>
       </c>
@@ -21506,7 +21506,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="490" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
         <v>74</v>
       </c>
@@ -21526,7 +21526,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="491" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
         <v>74</v>
       </c>
@@ -21546,7 +21546,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="492" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
         <v>74</v>
       </c>
@@ -21566,7 +21566,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="493" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
         <v>74</v>
       </c>
@@ -21586,7 +21586,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="494" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
         <v>75</v>
       </c>
@@ -21606,7 +21606,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="495" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
         <v>75</v>
       </c>
@@ -21626,7 +21626,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="496" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
         <v>75</v>
       </c>
@@ -21646,7 +21646,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="497" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
         <v>75</v>
       </c>
@@ -21672,7 +21672,7 @@
         <v>1483</v>
       </c>
     </row>
-    <row r="498" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
         <v>75</v>
       </c>
@@ -21698,7 +21698,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="499" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
         <v>75</v>
       </c>
@@ -21724,7 +21724,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="500" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
         <v>75</v>
       </c>
@@ -21744,7 +21744,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="501" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
         <v>75</v>
       </c>
@@ -21770,7 +21770,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="502" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
         <v>75</v>
       </c>
@@ -21796,7 +21796,7 @@
         <v>1487</v>
       </c>
     </row>
-    <row r="503" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
         <v>75</v>
       </c>
@@ -21843,7 +21843,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="504" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
         <v>76</v>
       </c>
@@ -21863,7 +21863,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="505" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
         <v>76</v>
       </c>
@@ -21904,7 +21904,7 @@
         <v>1911</v>
       </c>
     </row>
-    <row r="506" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
         <v>76</v>
       </c>
@@ -21924,7 +21924,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="507" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
         <v>77</v>
       </c>
@@ -21935,7 +21935,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="508" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
         <v>78</v>
       </c>
@@ -21955,7 +21955,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="509" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
         <v>78</v>
       </c>
@@ -21975,7 +21975,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="510" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
         <v>78</v>
       </c>
@@ -21995,7 +21995,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="511" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
         <v>78</v>
       </c>
@@ -22015,7 +22015,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="512" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
         <v>78</v>
       </c>
@@ -22035,7 +22035,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="513" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
         <v>79</v>
       </c>
@@ -22070,7 +22070,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="514" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
         <v>79</v>
       </c>
@@ -22105,7 +22105,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="515" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
         <v>79</v>
       </c>
@@ -22146,7 +22146,7 @@
         <v>2170</v>
       </c>
     </row>
-    <row r="516" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
         <v>79</v>
       </c>
@@ -22175,7 +22175,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="517" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
         <v>79</v>
       </c>
@@ -22204,7 +22204,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="518" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
         <v>79</v>
       </c>
@@ -22248,7 +22248,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="519" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
         <v>79</v>
       </c>
@@ -22271,7 +22271,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="520" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
         <v>79</v>
       </c>
@@ -22312,7 +22312,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="521" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
         <v>79</v>
       </c>
@@ -22353,7 +22353,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="522" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
         <v>79</v>
       </c>
@@ -22376,7 +22376,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="523" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
         <v>79</v>
       </c>
@@ -22399,7 +22399,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="524" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
         <v>79</v>
       </c>
@@ -22422,7 +22422,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="525" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
         <v>80</v>
       </c>
@@ -22433,7 +22433,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="526" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
         <v>81</v>
       </c>
@@ -22444,7 +22444,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="527" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
         <v>82</v>
       </c>
@@ -22485,7 +22485,7 @@
         <v>2133</v>
       </c>
     </row>
-    <row r="528" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
         <v>82</v>
       </c>
@@ -22505,7 +22505,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="529" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
         <v>82</v>
       </c>
@@ -22525,7 +22525,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="530" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
         <v>82</v>
       </c>
@@ -22551,7 +22551,7 @@
         <v>1493</v>
       </c>
     </row>
-    <row r="531" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
         <v>82</v>
       </c>
@@ -22571,7 +22571,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="532" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
         <v>82</v>
       </c>
@@ -22612,7 +22612,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="533" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
         <v>82</v>
       </c>
@@ -22653,7 +22653,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="534" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
         <v>83</v>
       </c>
@@ -22676,7 +22676,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="535" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
         <v>83</v>
       </c>
@@ -22717,7 +22717,7 @@
         <v>1919</v>
       </c>
     </row>
-    <row r="536" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
         <v>83</v>
       </c>
@@ -22740,7 +22740,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="537" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
         <v>83</v>
       </c>
@@ -22763,7 +22763,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="538" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
         <v>83</v>
       </c>
@@ -22810,7 +22810,7 @@
         <v>2171</v>
       </c>
     </row>
-    <row r="539" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
         <v>84</v>
       </c>
@@ -22845,7 +22845,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="540" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
         <v>84</v>
       </c>
@@ -22868,7 +22868,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="541" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
         <v>84</v>
       </c>
@@ -22915,7 +22915,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="542" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
         <v>84</v>
       </c>
@@ -22944,7 +22944,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="543" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
         <v>84</v>
       </c>
@@ -22967,7 +22967,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="544" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
         <v>84</v>
       </c>
@@ -23002,7 +23002,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="545" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
         <v>84</v>
       </c>
@@ -23049,7 +23049,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="546" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
         <v>84</v>
       </c>
@@ -23072,7 +23072,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="547" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
         <v>84</v>
       </c>
@@ -23101,7 +23101,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="548" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
         <v>84</v>
       </c>
@@ -23148,7 +23148,7 @@
         <v>2172</v>
       </c>
     </row>
-    <row r="549" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
         <v>84</v>
       </c>
@@ -23189,7 +23189,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="550" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
         <v>84</v>
       </c>
@@ -23236,7 +23236,7 @@
         <v>2173</v>
       </c>
     </row>
-    <row r="551" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
         <v>84</v>
       </c>
@@ -23274,7 +23274,7 @@
         <v>2082</v>
       </c>
     </row>
-    <row r="552" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
         <v>85</v>
       </c>
@@ -23285,7 +23285,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="553" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
         <v>86</v>
       </c>
@@ -23326,7 +23326,7 @@
         <v>2174</v>
       </c>
     </row>
-    <row r="554" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
         <v>86</v>
       </c>
@@ -23346,7 +23346,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="555" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
         <v>86</v>
       </c>
@@ -23381,7 +23381,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="556" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
         <v>86</v>
       </c>
@@ -23401,7 +23401,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="557" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
         <v>86</v>
       </c>
@@ -23427,7 +23427,7 @@
         <v>1503</v>
       </c>
     </row>
-    <row r="558" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
         <v>87</v>
       </c>
@@ -23468,7 +23468,7 @@
         <v>2175</v>
       </c>
     </row>
-    <row r="559" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
         <v>87</v>
       </c>
@@ -23509,7 +23509,7 @@
         <v>2176</v>
       </c>
     </row>
-    <row r="560" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
         <v>87</v>
       </c>
@@ -23556,7 +23556,7 @@
         <v>2177</v>
       </c>
     </row>
-    <row r="561" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
         <v>87</v>
       </c>
@@ -23603,7 +23603,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="562" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
         <v>87</v>
       </c>
@@ -23650,7 +23650,7 @@
         <v>2178</v>
       </c>
     </row>
-    <row r="563" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A563" t="s">
         <v>87</v>
       </c>
@@ -23697,7 +23697,7 @@
         <v>2179</v>
       </c>
     </row>
-    <row r="564" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A564" t="s">
         <v>87</v>
       </c>
@@ -23717,7 +23717,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="565" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
         <v>87</v>
       </c>
@@ -23737,7 +23737,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="566" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
         <v>87</v>
       </c>
@@ -23784,7 +23784,7 @@
         <v>2180</v>
       </c>
     </row>
-    <row r="567" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
         <v>88</v>
       </c>
@@ -23825,7 +23825,7 @@
         <v>2181</v>
       </c>
     </row>
-    <row r="568" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
         <v>88</v>
       </c>
@@ -23866,7 +23866,7 @@
         <v>2182</v>
       </c>
     </row>
-    <row r="569" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
         <v>88</v>
       </c>
@@ -23913,7 +23913,7 @@
         <v>2183</v>
       </c>
     </row>
-    <row r="570" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
         <v>88</v>
       </c>
@@ -23960,7 +23960,7 @@
         <v>2184</v>
       </c>
     </row>
-    <row r="571" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
         <v>88</v>
       </c>
@@ -24007,7 +24007,7 @@
         <v>2185</v>
       </c>
     </row>
-    <row r="572" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
         <v>88</v>
       </c>
@@ -24027,7 +24027,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="573" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
         <v>88</v>
       </c>
@@ -24047,7 +24047,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="574" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
         <v>88</v>
       </c>
@@ -24094,7 +24094,7 @@
         <v>2186</v>
       </c>
     </row>
-    <row r="575" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A575" t="s">
         <v>89</v>
       </c>
@@ -24135,7 +24135,7 @@
         <v>2187</v>
       </c>
     </row>
-    <row r="576" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A576" t="s">
         <v>89</v>
       </c>
@@ -24176,7 +24176,7 @@
         <v>2188</v>
       </c>
     </row>
-    <row r="577" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
         <v>89</v>
       </c>
@@ -24223,7 +24223,7 @@
         <v>2189</v>
       </c>
     </row>
-    <row r="578" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
         <v>89</v>
       </c>
@@ -24270,7 +24270,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="579" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
         <v>89</v>
       </c>
@@ -24317,7 +24317,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="580" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A580" t="s">
         <v>89</v>
       </c>
@@ -24364,7 +24364,7 @@
         <v>2191</v>
       </c>
     </row>
-    <row r="581" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A581" t="s">
         <v>89</v>
       </c>
@@ -24384,7 +24384,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="582" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
         <v>89</v>
       </c>
@@ -24404,7 +24404,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="583" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A583" t="s">
         <v>90</v>
       </c>
@@ -24415,7 +24415,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="584" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A584" t="s">
         <v>91</v>
       </c>
@@ -24435,7 +24435,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="585" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A585" t="s">
         <v>91</v>
       </c>
@@ -24455,7 +24455,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="586" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
         <v>91</v>
       </c>
@@ -24502,7 +24502,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="587" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
         <v>91</v>
       </c>
@@ -24522,7 +24522,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="588" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A588" t="s">
         <v>91</v>
       </c>
@@ -24542,7 +24542,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="589" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A589" t="s">
         <v>91</v>
       </c>
@@ -24562,7 +24562,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="590" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A590" t="s">
         <v>91</v>
       </c>
@@ -24582,7 +24582,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="591" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A591" t="s">
         <v>92</v>
       </c>
@@ -24602,7 +24602,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="592" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A592" t="s">
         <v>92</v>
       </c>
@@ -24628,7 +24628,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="593" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A593" t="s">
         <v>92</v>
       </c>
@@ -24648,7 +24648,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="594" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A594" t="s">
         <v>92</v>
       </c>
@@ -24695,7 +24695,7 @@
         <v>2192</v>
       </c>
     </row>
-    <row r="595" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A595" t="s">
         <v>92</v>
       </c>
@@ -24715,7 +24715,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="596" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A596" t="s">
         <v>92</v>
       </c>
@@ -24735,7 +24735,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="597" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A597" t="s">
         <v>92</v>
       </c>
@@ -24782,7 +24782,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="598" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A598" t="s">
         <v>93</v>
       </c>
@@ -24823,7 +24823,7 @@
         <v>2194</v>
       </c>
     </row>
-    <row r="599" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A599" t="s">
         <v>93</v>
       </c>
@@ -24864,7 +24864,7 @@
         <v>2195</v>
       </c>
     </row>
-    <row r="600" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A600" t="s">
         <v>93</v>
       </c>
@@ -24911,7 +24911,7 @@
         <v>2196</v>
       </c>
     </row>
-    <row r="601" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
         <v>93</v>
       </c>
@@ -24958,7 +24958,7 @@
         <v>2197</v>
       </c>
     </row>
-    <row r="602" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A602" t="s">
         <v>93</v>
       </c>
@@ -25005,7 +25005,7 @@
         <v>2198</v>
       </c>
     </row>
-    <row r="603" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A603" t="s">
         <v>93</v>
       </c>
@@ -25025,7 +25025,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="604" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A604" t="s">
         <v>93</v>
       </c>
@@ -25045,7 +25045,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="605" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A605" t="s">
         <v>93</v>
       </c>
@@ -25092,7 +25092,7 @@
         <v>2199</v>
       </c>
     </row>
-    <row r="606" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A606" t="s">
         <v>94</v>
       </c>
@@ -25133,7 +25133,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="607" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A607" t="s">
         <v>94</v>
       </c>
@@ -25180,7 +25180,7 @@
         <v>2201</v>
       </c>
     </row>
-    <row r="608" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A608" t="s">
         <v>94</v>
       </c>
@@ -25200,7 +25200,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="609" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A609" t="s">
         <v>94</v>
       </c>
@@ -25247,7 +25247,7 @@
         <v>2202</v>
       </c>
     </row>
-    <row r="610" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A610" t="s">
         <v>94</v>
       </c>
@@ -25294,7 +25294,7 @@
         <v>2203</v>
       </c>
     </row>
-    <row r="611" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A611" t="s">
         <v>94</v>
       </c>
@@ -25341,7 +25341,7 @@
         <v>2204</v>
       </c>
     </row>
-    <row r="612" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A612" t="s">
         <v>94</v>
       </c>
@@ -25382,7 +25382,7 @@
         <v>2082</v>
       </c>
     </row>
-    <row r="613" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A613" t="s">
         <v>95</v>
       </c>
@@ -25405,7 +25405,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="614" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A614" t="s">
         <v>95</v>
       </c>
@@ -25428,7 +25428,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="615" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A615" t="s">
         <v>95</v>
       </c>
@@ -25451,7 +25451,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="616" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A616" t="s">
         <v>95</v>
       </c>
@@ -25474,7 +25474,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="617" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A617" t="s">
         <v>95</v>
       </c>
@@ -25497,7 +25497,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="618" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A618" t="s">
         <v>95</v>
       </c>
@@ -25520,7 +25520,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="619" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A619" t="s">
         <v>95</v>
       </c>
@@ -25543,7 +25543,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="620" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A620" t="s">
         <v>95</v>
       </c>
@@ -25590,7 +25590,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="621" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A621" t="s">
         <v>95</v>
       </c>
@@ -25613,7 +25613,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="622" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A622" t="s">
         <v>96</v>
       </c>
@@ -25654,7 +25654,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="623" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A623" t="s">
         <v>96</v>
       </c>
@@ -25689,7 +25689,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="624" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A624" t="s">
         <v>96</v>
       </c>
@@ -25730,7 +25730,7 @@
         <v>2206</v>
       </c>
     </row>
-    <row r="625" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A625" t="s">
         <v>96</v>
       </c>
@@ -25765,7 +25765,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="626" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A626" t="s">
         <v>96</v>
       </c>
@@ -25806,7 +25806,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="627" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A627" t="s">
         <v>96</v>
       </c>
@@ -25853,7 +25853,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="628" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A628" t="s">
         <v>96</v>
       </c>
@@ -25894,7 +25894,7 @@
         <v>2208</v>
       </c>
     </row>
-    <row r="629" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A629" t="s">
         <v>96</v>
       </c>
@@ -25941,7 +25941,7 @@
         <v>2209</v>
       </c>
     </row>
-    <row r="630" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A630" t="s">
         <v>96</v>
       </c>
@@ -25979,7 +25979,7 @@
         <v>2210</v>
       </c>
     </row>
-    <row r="631" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A631" t="s">
         <v>97</v>
       </c>
@@ -25999,7 +25999,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="632" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A632" t="s">
         <v>97</v>
       </c>
@@ -26019,7 +26019,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="633" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A633" t="s">
         <v>97</v>
       </c>
@@ -26039,7 +26039,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="634" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A634" t="s">
         <v>97</v>
       </c>
@@ -26059,7 +26059,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="635" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A635" t="s">
         <v>98</v>
       </c>
@@ -26070,7 +26070,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="636" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A636" t="s">
         <v>99</v>
       </c>
@@ -26111,7 +26111,7 @@
         <v>2211</v>
       </c>
     </row>
-    <row r="637" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A637" t="s">
         <v>99</v>
       </c>
@@ -26131,7 +26131,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="638" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A638" t="s">
         <v>99</v>
       </c>
@@ -26172,7 +26172,7 @@
         <v>2212</v>
       </c>
     </row>
-    <row r="639" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A639" t="s">
         <v>99</v>
       </c>
@@ -26192,7 +26192,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="640" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A640" t="s">
         <v>99</v>
       </c>
@@ -26212,7 +26212,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="641" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A641" t="s">
         <v>99</v>
       </c>
@@ -26232,7 +26232,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="642" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A642" t="s">
         <v>99</v>
       </c>
@@ -26252,7 +26252,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="643" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A643" t="s">
         <v>99</v>
       </c>
@@ -26299,7 +26299,7 @@
         <v>2213</v>
       </c>
     </row>
-    <row r="644" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A644" t="s">
         <v>99</v>
       </c>
@@ -26340,7 +26340,7 @@
         <v>1915</v>
       </c>
     </row>
-    <row r="645" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A645" t="s">
         <v>99</v>
       </c>
@@ -26381,7 +26381,7 @@
         <v>2214</v>
       </c>
     </row>
-    <row r="646" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A646" t="s">
         <v>99</v>
       </c>
@@ -26401,7 +26401,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="647" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A647" t="s">
         <v>99</v>
       </c>
@@ -26421,7 +26421,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="648" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A648" t="s">
         <v>99</v>
       </c>
@@ -26447,7 +26447,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="649" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A649" t="s">
         <v>100</v>
       </c>
@@ -26488,7 +26488,7 @@
         <v>2206</v>
       </c>
     </row>
-    <row r="650" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A650" t="s">
         <v>100</v>
       </c>
@@ -26526,7 +26526,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="651" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A651" t="s">
         <v>100</v>
       </c>
@@ -26546,7 +26546,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="652" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A652" t="s">
         <v>100</v>
       </c>
@@ -26587,7 +26587,7 @@
         <v>1977</v>
       </c>
     </row>
-    <row r="653" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A653" t="s">
         <v>100</v>
       </c>
@@ -26628,7 +26628,7 @@
         <v>2215</v>
       </c>
     </row>
-    <row r="654" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A654" t="s">
         <v>101</v>
       </c>
@@ -26663,7 +26663,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="655" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A655" t="s">
         <v>101</v>
       </c>
@@ -26698,7 +26698,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="656" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A656" t="s">
         <v>101</v>
       </c>
@@ -26721,7 +26721,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="657" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A657" t="s">
         <v>101</v>
       </c>
@@ -26762,7 +26762,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="658" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A658" t="s">
         <v>101</v>
       </c>
@@ -26800,7 +26800,7 @@
         <v>2111</v>
       </c>
     </row>
-    <row r="659" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A659" t="s">
         <v>101</v>
       </c>
@@ -26835,7 +26835,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="660" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A660" t="s">
         <v>101</v>
       </c>
@@ -26858,7 +26858,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="661" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A661" t="s">
         <v>101</v>
       </c>
@@ -26899,7 +26899,7 @@
         <v>2216</v>
       </c>
     </row>
-    <row r="662" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A662" t="s">
         <v>101</v>
       </c>
@@ -26922,7 +26922,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="663" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A663" t="s">
         <v>101</v>
       </c>
@@ -26945,7 +26945,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="664" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A664" t="s">
         <v>102</v>
       </c>
@@ -26965,7 +26965,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="665" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A665" t="s">
         <v>102</v>
       </c>
@@ -27012,7 +27012,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="666" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A666" t="s">
         <v>102</v>
       </c>
@@ -27038,7 +27038,7 @@
         <v>1533</v>
       </c>
     </row>
-    <row r="667" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A667" t="s">
         <v>103</v>
       </c>
@@ -27058,7 +27058,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="668" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A668" t="s">
         <v>103</v>
       </c>
@@ -27105,7 +27105,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="669" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A669" t="s">
         <v>103</v>
       </c>
@@ -27131,7 +27131,7 @@
         <v>1534</v>
       </c>
     </row>
-    <row r="670" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A670" t="s">
         <v>104</v>
       </c>
@@ -27151,7 +27151,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="671" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A671" t="s">
         <v>104</v>
       </c>
@@ -27177,7 +27177,7 @@
         <v>1535</v>
       </c>
     </row>
-    <row r="672" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A672" t="s">
         <v>104</v>
       </c>
@@ -27203,7 +27203,7 @@
         <v>1536</v>
       </c>
     </row>
-    <row r="673" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A673" t="s">
         <v>104</v>
       </c>
@@ -27223,7 +27223,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="674" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A674" t="s">
         <v>105</v>
       </c>
@@ -27243,7 +27243,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="675" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A675" t="s">
         <v>105</v>
       </c>
@@ -27263,7 +27263,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="676" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A676" t="s">
         <v>105</v>
       </c>
@@ -27310,7 +27310,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="677" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A677" t="s">
         <v>105</v>
       </c>
@@ -27357,7 +27357,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="678" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A678" t="s">
         <v>106</v>
       </c>
@@ -27392,7 +27392,7 @@
         <v>1911</v>
       </c>
     </row>
-    <row r="679" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A679" t="s">
         <v>106</v>
       </c>
@@ -27427,7 +27427,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="680" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A680" t="s">
         <v>106</v>
       </c>
@@ -27474,7 +27474,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="681" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A681" t="s">
         <v>107</v>
       </c>
@@ -27494,7 +27494,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="682" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A682" t="s">
         <v>107</v>
       </c>
@@ -27541,7 +27541,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="683" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A683" t="s">
         <v>107</v>
       </c>
@@ -27561,7 +27561,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="684" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A684" t="s">
         <v>108</v>
       </c>
@@ -27596,7 +27596,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="685" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A685" t="s">
         <v>108</v>
       </c>
@@ -27616,7 +27616,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="686" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A686" t="s">
         <v>108</v>
       </c>
@@ -27642,7 +27642,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="687" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A687" t="s">
         <v>108</v>
       </c>
@@ -27677,7 +27677,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="688" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A688" t="s">
         <v>108</v>
       </c>
@@ -27712,7 +27712,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="689" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A689" t="s">
         <v>109</v>
       </c>
@@ -27732,7 +27732,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="690" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A690" t="s">
         <v>109</v>
       </c>
@@ -27779,7 +27779,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="691" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A691" t="s">
         <v>109</v>
       </c>
@@ -27805,7 +27805,7 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="692" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A692" t="s">
         <v>110</v>
       </c>
@@ -27825,7 +27825,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="693" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A693" t="s">
         <v>110</v>
       </c>
@@ -27872,7 +27872,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="694" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A694" t="s">
         <v>110</v>
       </c>
@@ -27898,7 +27898,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="695" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A695" t="s">
         <v>111</v>
       </c>
@@ -27933,7 +27933,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="696" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A696" t="s">
         <v>111</v>
       </c>
@@ -27956,7 +27956,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="697" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A697" t="s">
         <v>111</v>
       </c>
@@ -28003,7 +28003,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="698" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A698" t="s">
         <v>111</v>
       </c>
@@ -28026,7 +28026,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="699" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A699" t="s">
         <v>111</v>
       </c>
@@ -28049,7 +28049,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="700" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A700" t="s">
         <v>111</v>
       </c>
@@ -28072,7 +28072,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="701" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A701" t="s">
         <v>111</v>
       </c>
@@ -28095,7 +28095,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="702" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A702" t="s">
         <v>111</v>
       </c>
@@ -28118,7 +28118,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="703" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A703" t="s">
         <v>111</v>
       </c>
@@ -28141,7 +28141,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="704" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A704" t="s">
         <v>111</v>
       </c>
@@ -28176,7 +28176,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="705" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A705" t="s">
         <v>111</v>
       </c>
@@ -28211,7 +28211,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="706" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A706" t="s">
         <v>111</v>
       </c>
@@ -28249,7 +28249,7 @@
         <v>2111</v>
       </c>
     </row>
-    <row r="707" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A707" t="s">
         <v>111</v>
       </c>
@@ -28287,7 +28287,7 @@
         <v>2111</v>
       </c>
     </row>
-    <row r="708" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A708" t="s">
         <v>111</v>
       </c>
@@ -28310,7 +28310,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="709" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A709" t="s">
         <v>111</v>
       </c>
@@ -28333,7 +28333,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="710" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A710" t="s">
         <v>111</v>
       </c>
@@ -28356,7 +28356,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="711" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A711" t="s">
         <v>111</v>
       </c>
@@ -28379,7 +28379,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="712" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A712" t="s">
         <v>111</v>
       </c>
@@ -28402,7 +28402,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="713" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A713" t="s">
         <v>111</v>
       </c>
@@ -28425,7 +28425,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="714" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A714" t="s">
         <v>112</v>
       </c>
@@ -28460,7 +28460,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="715" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A715" s="2" t="s">
         <v>112</v>
       </c>
@@ -28486,7 +28486,7 @@
         <v>1964</v>
       </c>
     </row>
-    <row r="716" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A716" t="s">
         <v>112</v>
       </c>
@@ -28524,7 +28524,7 @@
         <v>2111</v>
       </c>
     </row>
-    <row r="717" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A717" t="s">
         <v>112</v>
       </c>
@@ -28562,7 +28562,7 @@
         <v>2111</v>
       </c>
     </row>
-    <row r="718" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A718" t="s">
         <v>112</v>
       </c>
@@ -28597,7 +28597,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="719" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A719" t="s">
         <v>112</v>
       </c>
@@ -28638,7 +28638,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="720" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A720" t="s">
         <v>112</v>
       </c>
@@ -28685,7 +28685,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="721" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A721" t="s">
         <v>112</v>
       </c>
@@ -28720,7 +28720,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="722" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A722" t="s">
         <v>112</v>
       </c>
@@ -28743,7 +28743,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="723" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A723" s="2" t="s">
         <v>112</v>
       </c>
@@ -28769,7 +28769,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="724" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A724" t="s">
         <v>112</v>
       </c>
@@ -28816,7 +28816,7 @@
         <v>2217</v>
       </c>
     </row>
-    <row r="725" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A725" s="2" t="s">
         <v>112</v>
       </c>
@@ -28842,7 +28842,7 @@
         <v>1922</v>
       </c>
     </row>
-    <row r="726" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A726" t="s">
         <v>112</v>
       </c>
@@ -28865,7 +28865,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="727" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A727" t="s">
         <v>112</v>
       </c>
@@ -28912,7 +28912,7 @@
         <v>2218</v>
       </c>
     </row>
-    <row r="728" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A728" t="s">
         <v>112</v>
       </c>
@@ -28941,7 +28941,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="729" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A729" t="s">
         <v>113</v>
       </c>
@@ -28952,7 +28952,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="730" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A730" t="s">
         <v>114</v>
       </c>
@@ -28963,7 +28963,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="731" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A731" t="s">
         <v>115</v>
       </c>
@@ -29004,7 +29004,7 @@
         <v>2219</v>
       </c>
     </row>
-    <row r="732" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A732" t="s">
         <v>115</v>
       </c>
@@ -29045,7 +29045,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="733" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A733" t="s">
         <v>115</v>
       </c>
@@ -29086,7 +29086,7 @@
         <v>2221</v>
       </c>
     </row>
-    <row r="734" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A734" t="s">
         <v>115</v>
       </c>
@@ -29106,7 +29106,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="735" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A735" t="s">
         <v>115</v>
       </c>
@@ -29126,7 +29126,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="736" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A736" t="s">
         <v>115</v>
       </c>
@@ -29146,7 +29146,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="737" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A737" t="s">
         <v>116</v>
       </c>
@@ -29169,7 +29169,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="738" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A738" t="s">
         <v>116</v>
       </c>
@@ -29192,7 +29192,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="739" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A739" t="s">
         <v>116</v>
       </c>
@@ -29215,7 +29215,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="740" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A740" t="s">
         <v>116</v>
       </c>
@@ -29238,7 +29238,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="741" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A741" t="s">
         <v>116</v>
       </c>
@@ -29276,7 +29276,7 @@
         <v>2222</v>
       </c>
     </row>
-    <row r="742" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A742" t="s">
         <v>117</v>
       </c>
@@ -29317,7 +29317,7 @@
         <v>2223</v>
       </c>
     </row>
-    <row r="743" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A743" t="s">
         <v>117</v>
       </c>
@@ -29358,7 +29358,7 @@
         <v>2224</v>
       </c>
     </row>
-    <row r="744" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A744" t="s">
         <v>117</v>
       </c>
@@ -29405,7 +29405,7 @@
         <v>2225</v>
       </c>
     </row>
-    <row r="745" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A745" t="s">
         <v>117</v>
       </c>
@@ -29452,7 +29452,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="746" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A746" t="s">
         <v>117</v>
       </c>
@@ -29499,7 +29499,7 @@
         <v>2226</v>
       </c>
     </row>
-    <row r="747" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A747" t="s">
         <v>117</v>
       </c>
@@ -29519,7 +29519,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="748" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A748" t="s">
         <v>117</v>
       </c>
@@ -29539,7 +29539,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="749" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A749" t="s">
         <v>117</v>
       </c>
@@ -29580,7 +29580,7 @@
         <v>2227</v>
       </c>
     </row>
-    <row r="750" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A750" t="s">
         <v>117</v>
       </c>
@@ -29600,7 +29600,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="751" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A751" t="s">
         <v>117</v>
       </c>
@@ -29641,7 +29641,7 @@
         <v>2228</v>
       </c>
     </row>
-    <row r="752" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A752" t="s">
         <v>118</v>
       </c>
@@ -29652,7 +29652,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="753" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A753" t="s">
         <v>119</v>
       </c>
@@ -29663,7 +29663,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="754" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A754" t="s">
         <v>120</v>
       </c>
@@ -29698,7 +29698,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="755" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A755" t="s">
         <v>120</v>
       </c>
@@ -29718,7 +29718,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="756" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A756" t="s">
         <v>120</v>
       </c>
@@ -29765,7 +29765,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="757" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A757" t="s">
         <v>120</v>
       </c>
@@ -29785,7 +29785,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="758" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A758" t="s">
         <v>120</v>
       </c>
@@ -29805,7 +29805,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="759" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A759" t="s">
         <v>120</v>
       </c>
@@ -29825,7 +29825,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="760" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A760" t="s">
         <v>120</v>
       </c>
@@ -29845,7 +29845,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="761" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A761" t="s">
         <v>120</v>
       </c>
@@ -29865,7 +29865,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="762" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A762" t="s">
         <v>121</v>
       </c>
@@ -29885,7 +29885,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="763" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A763" t="s">
         <v>121</v>
       </c>
@@ -29905,7 +29905,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="764" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A764" t="s">
         <v>121</v>
       </c>
@@ -29925,7 +29925,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="765" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A765" t="s">
         <v>121</v>
       </c>
@@ -29951,7 +29951,7 @@
         <v>1552</v>
       </c>
     </row>
-    <row r="766" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A766" t="s">
         <v>121</v>
       </c>
@@ -29977,7 +29977,7 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="767" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A767" t="s">
         <v>121</v>
       </c>
@@ -30003,7 +30003,7 @@
         <v>1554</v>
       </c>
     </row>
-    <row r="768" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A768" t="s">
         <v>121</v>
       </c>
@@ -30029,7 +30029,7 @@
         <v>1555</v>
       </c>
     </row>
-    <row r="769" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A769" t="s">
         <v>121</v>
       </c>
@@ -30049,7 +30049,7 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="770" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A770" t="s">
         <v>121</v>
       </c>
@@ -30096,7 +30096,7 @@
         <v>2229</v>
       </c>
     </row>
-    <row r="771" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A771" t="s">
         <v>121</v>
       </c>
@@ -30116,7 +30116,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="772" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A772" t="s">
         <v>121</v>
       </c>
@@ -30142,7 +30142,7 @@
         <v>1557</v>
       </c>
     </row>
-    <row r="773" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A773" t="s">
         <v>121</v>
       </c>
@@ -30183,7 +30183,7 @@
         <v>2230</v>
       </c>
     </row>
-    <row r="774" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A774" t="s">
         <v>121</v>
       </c>
@@ -30224,7 +30224,7 @@
         <v>2231</v>
       </c>
     </row>
-    <row r="775" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A775" t="s">
         <v>121</v>
       </c>
@@ -30265,7 +30265,7 @@
         <v>2232</v>
       </c>
     </row>
-    <row r="776" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A776" t="s">
         <v>121</v>
       </c>
@@ -30285,7 +30285,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="777" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A777" t="s">
         <v>121</v>
       </c>
@@ -30305,7 +30305,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="778" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A778" t="s">
         <v>121</v>
       </c>
@@ -30352,7 +30352,7 @@
         <v>2233</v>
       </c>
     </row>
-    <row r="779" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A779" t="s">
         <v>122</v>
       </c>
@@ -30375,7 +30375,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="780" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A780" t="s">
         <v>122</v>
       </c>
@@ -30398,7 +30398,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="781" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A781" t="s">
         <v>122</v>
       </c>
@@ -30445,7 +30445,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="782" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A782" t="s">
         <v>122</v>
       </c>
@@ -30486,7 +30486,7 @@
         <v>2082</v>
       </c>
     </row>
-    <row r="783" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A783" t="s">
         <v>122</v>
       </c>
@@ -30527,7 +30527,7 @@
         <v>2082</v>
       </c>
     </row>
-    <row r="784" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A784" t="s">
         <v>123</v>
       </c>
@@ -30547,7 +30547,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="785" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A785" t="s">
         <v>123</v>
       </c>
@@ -30567,7 +30567,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="786" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A786" t="s">
         <v>123</v>
       </c>
@@ -30587,7 +30587,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="787" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A787" t="s">
         <v>123</v>
       </c>
@@ -30607,7 +30607,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="788" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A788" t="s">
         <v>124</v>
       </c>
@@ -30648,7 +30648,7 @@
         <v>2234</v>
       </c>
     </row>
-    <row r="789" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A789" t="s">
         <v>124</v>
       </c>
@@ -30671,7 +30671,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="790" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A790" t="s">
         <v>124</v>
       </c>
@@ -30694,7 +30694,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="791" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A791" t="s">
         <v>124</v>
       </c>
@@ -30741,7 +30741,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="792" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A792" t="s">
         <v>124</v>
       </c>
@@ -30782,7 +30782,7 @@
         <v>1977</v>
       </c>
     </row>
-    <row r="793" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A793" t="s">
         <v>124</v>
       </c>
@@ -30805,7 +30805,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="794" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A794" t="s">
         <v>124</v>
       </c>
@@ -30834,7 +30834,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="795" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A795" t="s">
         <v>124</v>
       </c>
@@ -30869,7 +30869,7 @@
         <v>1911</v>
       </c>
     </row>
-    <row r="796" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A796" t="s">
         <v>124</v>
       </c>
@@ -30904,7 +30904,7 @@
         <v>1913</v>
       </c>
     </row>
-    <row r="797" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A797" t="s">
         <v>124</v>
       </c>
@@ -30942,7 +30942,7 @@
         <v>2235</v>
       </c>
     </row>
-    <row r="798" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A798" t="s">
         <v>125</v>
       </c>
@@ -30953,7 +30953,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="799" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A799" t="s">
         <v>126</v>
       </c>
@@ -30964,7 +30964,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="800" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A800" t="s">
         <v>127</v>
       </c>
@@ -30975,7 +30975,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="801" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A801" t="s">
         <v>128</v>
       </c>
@@ -31010,7 +31010,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="802" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A802" t="s">
         <v>128</v>
       </c>
@@ -31051,7 +31051,7 @@
         <v>2236</v>
       </c>
     </row>
-    <row r="803" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A803" t="s">
         <v>128</v>
       </c>
@@ -31086,7 +31086,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="804" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A804" t="s">
         <v>128</v>
       </c>
@@ -31109,7 +31109,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="805" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A805" t="s">
         <v>128</v>
       </c>
@@ -31132,7 +31132,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="806" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A806" t="s">
         <v>128</v>
       </c>
@@ -31173,7 +31173,7 @@
         <v>2237</v>
       </c>
     </row>
-    <row r="807" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A807" t="s">
         <v>128</v>
       </c>
@@ -31214,7 +31214,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="808" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A808" t="s">
         <v>128</v>
       </c>
@@ -31237,7 +31237,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="809" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A809" t="s">
         <v>128</v>
       </c>
@@ -31278,7 +31278,7 @@
         <v>1977</v>
       </c>
     </row>
-    <row r="810" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A810" t="s">
         <v>128</v>
       </c>
@@ -31319,7 +31319,7 @@
         <v>1952</v>
       </c>
     </row>
-    <row r="811" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A811" t="s">
         <v>128</v>
       </c>
@@ -31357,7 +31357,7 @@
         <v>2082</v>
       </c>
     </row>
-    <row r="812" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A812" t="s">
         <v>129</v>
       </c>
@@ -31398,7 +31398,7 @@
         <v>2238</v>
       </c>
     </row>
-    <row r="813" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A813" t="s">
         <v>129</v>
       </c>
@@ -31436,7 +31436,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="814" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A814" t="s">
         <v>129</v>
       </c>
@@ -31471,7 +31471,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="815" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A815" t="s">
         <v>129</v>
       </c>
@@ -31491,7 +31491,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="816" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A816" t="s">
         <v>129</v>
       </c>
@@ -31532,7 +31532,7 @@
         <v>2239</v>
       </c>
     </row>
-    <row r="817" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A817" t="s">
         <v>129</v>
       </c>
@@ -31573,7 +31573,7 @@
         <v>2240</v>
       </c>
     </row>
-    <row r="818" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A818" t="s">
         <v>129</v>
       </c>
@@ -31614,7 +31614,7 @@
         <v>2241</v>
       </c>
     </row>
-    <row r="819" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A819" t="s">
         <v>129</v>
       </c>
@@ -31652,7 +31652,7 @@
         <v>2082</v>
       </c>
     </row>
-    <row r="820" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A820" t="s">
         <v>129</v>
       </c>
@@ -31690,7 +31690,7 @@
         <v>2082</v>
       </c>
     </row>
-    <row r="821" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A821" t="s">
         <v>129</v>
       </c>
@@ -31731,7 +31731,7 @@
         <v>2082</v>
       </c>
     </row>
-    <row r="822" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A822" t="s">
         <v>129</v>
       </c>
@@ -31771,11 +31771,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:O822" xr:uid="{00000000-0009-0000-0000-000001000000}">
-    <filterColumn colId="10">
-      <filters blank="1">
-        <filter val="NO CHANGE"/>
-      </filters>
-    </filterColumn>
     <filterColumn colId="14">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
